--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="246">
   <si>
     <t>界面字段名</t>
   </si>
@@ -144,9 +144,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>客户编号</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -244,67 +241,10 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>区</t>
-  </si>
-  <si>
-    <t>传真</t>
-  </si>
-  <si>
-    <t>开票信息</t>
-  </si>
-  <si>
-    <r>
-      <t>ERP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编号</t>
-    </r>
-  </si>
-  <si>
-    <t>区域代码</t>
-  </si>
-  <si>
-    <t>地图坐标</t>
-  </si>
-  <si>
-    <t>年采血量</t>
-  </si>
-  <si>
-    <t>YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYname</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYsheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>YYqu</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>YYdizhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYdianhua</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>YYchuanzhen</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -321,40 +261,11 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>YYbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>YYzuobiao</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>YYcaixueliang</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">客户信息  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_KHDA</t>
-    </r>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -548,10 +459,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>Sanzhuangriqi</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -941,18 +848,6 @@
     <t>联系人</t>
   </si>
   <si>
-    <t>客户名称</t>
-  </si>
-  <si>
-    <t>省</t>
-  </si>
-  <si>
-    <t>市</t>
-  </si>
-  <si>
-    <t>地址</t>
-  </si>
-  <si>
     <t>客户科室</t>
   </si>
   <si>
@@ -1184,6 +1079,159 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">客户信息  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_KHDA</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYaddtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYsheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>区</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图坐标</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdianhua</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票信息</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ERP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编号</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>年采血量</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1537,7 +1585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1680,6 +1728,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1883,7 +1942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1943,12 +2002,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1967,6 +2020,15 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -2343,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2359,15 +2421,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2400,7 +2462,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>7</v>
@@ -2411,138 +2473,138 @@
       <c r="F3" s="7"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="25" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="25" t="s">
+      <c r="C6" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10"/>
       <c r="G7" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="28" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="25"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
@@ -2553,13 +2615,13 @@
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>14</v>
@@ -2570,13 +2632,13 @@
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -2587,13 +2649,13 @@
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>14</v>
@@ -2604,13 +2666,13 @@
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
@@ -2621,13 +2683,13 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>14</v>
@@ -2635,19 +2697,19 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -2674,13 +2736,13 @@
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>7</v>
@@ -2693,13 +2755,13 @@
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>9</v>
@@ -2710,13 +2772,13 @@
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>9</v>
@@ -2727,13 +2789,13 @@
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>9</v>
@@ -2743,15 +2805,15 @@
       <c r="G25" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="A29" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -2778,13 +2840,13 @@
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>7</v>
@@ -2797,13 +2859,13 @@
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>9</v>
@@ -2814,13 +2876,13 @@
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>9</v>
@@ -2828,18 +2890,18 @@
       <c r="E33" s="7"/>
       <c r="F33" s="10"/>
       <c r="G33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>9</v>
@@ -2850,13 +2912,13 @@
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>9</v>
@@ -2864,33 +2926,33 @@
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -2898,25 +2960,25 @@
         <v>13</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
+      <c r="A42" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -2942,14 +3004,14 @@
       </c>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
-        <v>24</v>
+      <c r="A44" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>7</v>
@@ -2961,14 +3023,14 @@
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
-        <v>181</v>
+      <c r="A45" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>9</v>
@@ -2978,14 +3040,14 @@
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15" t="s">
-        <v>182</v>
+      <c r="A46" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>9</v>
@@ -2993,18 +3055,18 @@
       <c r="E46" s="7"/>
       <c r="F46" s="10"/>
       <c r="G46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="15" t="s">
-        <v>183</v>
+      <c r="A47" s="16" t="s">
+        <v>227</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>9</v>
@@ -3015,157 +3077,171 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>184</v>
+      <c r="A49" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>33</v>
+        <v>238</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>47</v>
+        <v>240</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>48</v>
+        <v>241</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>42</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
+      <c r="A61" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -3195,10 +3271,10 @@
         <v>12</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>7</v>
@@ -3211,13 +3287,13 @@
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>9</v>
@@ -3228,13 +3304,13 @@
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>9</v>
@@ -3242,18 +3318,18 @@
       <c r="E65" s="7"/>
       <c r="F65" s="10"/>
       <c r="G65" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>9</v>
@@ -3261,193 +3337,193 @@
       <c r="E66" s="7"/>
       <c r="F66" s="9"/>
       <c r="G66" s="5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
+      <c r="A82" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
     </row>
     <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
@@ -3474,13 +3550,13 @@
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>7</v>
@@ -3493,13 +3569,13 @@
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>9</v>
@@ -3510,13 +3586,13 @@
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>9</v>
@@ -3524,18 +3600,18 @@
       <c r="E86" s="7"/>
       <c r="F86" s="10"/>
       <c r="G86" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>9</v>
@@ -3543,103 +3619,103 @@
       <c r="E87" s="7"/>
       <c r="F87" s="9"/>
       <c r="G87" s="5" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B90" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="D90" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B91" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="D91" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B92" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="D92" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
+      <c r="A98" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
     </row>
     <row r="99" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -3666,13 +3742,13 @@
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>7</v>
@@ -3685,13 +3761,13 @@
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>9</v>
@@ -3702,13 +3778,13 @@
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>9</v>
@@ -3716,21 +3792,21 @@
       <c r="E102" s="7"/>
       <c r="F102" s="10"/>
       <c r="G102" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="9"/>
@@ -3741,25 +3817,25 @@
         <v>13</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
+      <c r="A110" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
     </row>
     <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
@@ -3786,13 +3862,13 @@
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B112" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B112" s="14" t="s">
-        <v>197</v>
-      </c>
       <c r="C112" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>7</v>
@@ -3805,13 +3881,13 @@
     </row>
     <row r="113" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>9</v>
@@ -3822,13 +3898,13 @@
     </row>
     <row r="114" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>9</v>
@@ -3836,21 +3912,21 @@
       <c r="E114" s="7"/>
       <c r="F114" s="10"/>
       <c r="G114" s="5" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="9"/>
@@ -3858,74 +3934,74 @@
     </row>
     <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="16" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -3933,22 +4009,22 @@
         <v>13</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C122" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
+      <c r="A126" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
     </row>
     <row r="127" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
@@ -3975,13 +4051,13 @@
     </row>
     <row r="128" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>7</v>
@@ -3994,13 +4070,13 @@
     </row>
     <row r="129" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
@@ -4011,16 +4087,16 @@
     </row>
     <row r="130" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="10"/>
@@ -4028,16 +4104,16 @@
     </row>
     <row r="131" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="9"/>
@@ -4045,30 +4121,30 @@
     </row>
     <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -1082,6 +1082,134 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>YYbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYaddtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYsheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>区</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图坐标</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdianhua</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票信息</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ERP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编号</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>年采血量</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">客户信息  </t>
     </r>
@@ -1104,134 +1232,6 @@
       </rPr>
       <t>ZZZ_KHDA</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYaddtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYname</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYsheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>市</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>区</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>传真</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图坐标</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>省</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYdizhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYdianhua</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>开票信息</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ERP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编号</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域代码</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>年采血量</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -2405,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>57</v>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>57</v>
@@ -3041,10 +3041,10 @@
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>57</v>
@@ -3060,10 +3060,10 @@
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>57</v>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>44</v>
@@ -3091,10 +3091,10 @@
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>57</v>
@@ -3108,10 +3108,10 @@
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>57</v>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>45</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>46</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>47</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>48</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>49</v>
@@ -3192,13 +3192,13 @@
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>41</v>
@@ -3206,30 +3206,30 @@
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>156</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3362,7 +3362,7 @@
         <v>84</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>82</v>
@@ -3404,7 +3404,7 @@
         <v>88</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>82</v>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t>版本号</t>
-  </si>
-  <si>
-    <t>出厂日期</t>
   </si>
   <si>
     <t>安装日期</t>
@@ -451,10 +448,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>Schuchangriqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -1232,6 +1225,14 @@
       </rPr>
       <t>ZZZ_KHDA</t>
     </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schuchangriqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂日期</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -2021,14 +2022,14 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -2405,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2421,15 +2422,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2475,13 +2476,13 @@
     </row>
     <row r="4" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>10</v>
@@ -2492,13 +2493,13 @@
     </row>
     <row r="5" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>14</v>
@@ -2509,16 +2510,16 @@
     </row>
     <row r="6" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="25"/>
@@ -2534,10 +2535,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10"/>
@@ -2547,10 +2548,10 @@
     </row>
     <row r="8" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>57</v>
@@ -2572,7 +2573,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>14</v>
@@ -2598,7 +2599,7 @@
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>18</v>
@@ -2615,10 +2616,10 @@
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>57</v>
@@ -2632,13 +2633,13 @@
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -2649,10 +2650,10 @@
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>57</v>
@@ -2666,10 +2667,10 @@
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>57</v>
@@ -2683,7 +2684,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>19</v>
@@ -2701,15 +2702,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -2805,15 +2806,15 @@
       <c r="G25" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -2895,7 +2896,7 @@
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>35</v>
@@ -2912,7 +2913,7 @@
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>36</v>
@@ -2926,7 +2927,7 @@
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>37</v>
@@ -2963,22 +2964,22 @@
         <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
+      <c r="A42" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -3005,10 +3006,10 @@
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>57</v>
@@ -3024,10 +3025,10 @@
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>57</v>
@@ -3041,10 +3042,10 @@
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>57</v>
@@ -3060,10 +3061,10 @@
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>57</v>
@@ -3077,7 +3078,7 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>44</v>
@@ -3091,10 +3092,10 @@
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>57</v>
@@ -3108,10 +3109,10 @@
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>57</v>
@@ -3122,7 +3123,7 @@
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>45</v>
@@ -3136,13 +3137,13 @@
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>41</v>
@@ -3150,7 +3151,7 @@
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>47</v>
@@ -3164,7 +3165,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>48</v>
@@ -3178,13 +3179,13 @@
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>41</v>
@@ -3192,13 +3193,13 @@
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>41</v>
@@ -3206,42 +3207,42 @@
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B57" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A58" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C58" s="19" t="s">
+      <c r="D58" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
+      <c r="A61" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -3271,7 +3272,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>57</v>
@@ -3290,7 +3291,7 @@
         <v>28</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>57</v>
@@ -3304,10 +3305,10 @@
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>57</v>
@@ -3323,10 +3324,10 @@
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>57</v>
@@ -3337,7 +3338,7 @@
       <c r="E66" s="7"/>
       <c r="F66" s="9"/>
       <c r="G66" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -3345,185 +3346,185 @@
         <v>70</v>
       </c>
       <c r="B67" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
         <v>24</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C74" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
+      <c r="A82" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
     </row>
     <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
@@ -3550,10 +3551,10 @@
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>57</v>
@@ -3569,10 +3570,10 @@
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>57</v>
@@ -3586,10 +3587,10 @@
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>57</v>
@@ -3600,15 +3601,15 @@
       <c r="E86" s="7"/>
       <c r="F86" s="10"/>
       <c r="G86" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>57</v>
@@ -3619,103 +3620,103 @@
       <c r="E87" s="7"/>
       <c r="F87" s="9"/>
       <c r="G87" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
     </row>
     <row r="99" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -3742,10 +3743,10 @@
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>57</v>
@@ -3761,10 +3762,10 @@
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>57</v>
@@ -3778,10 +3779,10 @@
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>57</v>
@@ -3792,21 +3793,21 @@
       <c r="E102" s="7"/>
       <c r="F102" s="10"/>
       <c r="G102" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="9"/>
@@ -3817,25 +3818,25 @@
         <v>13</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="29"/>
+      <c r="A110" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
     </row>
     <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
@@ -3862,10 +3863,10 @@
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>57</v>
@@ -3884,7 +3885,7 @@
         <v>28</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>57</v>
@@ -3898,10 +3899,10 @@
     </row>
     <row r="114" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>57</v>
@@ -3912,21 +3913,21 @@
       <c r="E114" s="7"/>
       <c r="F114" s="10"/>
       <c r="G114" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="9"/>
@@ -3934,13 +3935,13 @@
     </row>
     <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>41</v>
@@ -3948,43 +3949,43 @@
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B117" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C117" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>57</v>
@@ -3992,16 +3993,16 @@
     </row>
     <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C121" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -4009,22 +4010,22 @@
         <v>13</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="29"/>
-      <c r="F126" s="29"/>
-      <c r="G126" s="29"/>
+      <c r="A126" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
     </row>
     <row r="127" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
@@ -4051,10 +4052,10 @@
     </row>
     <row r="128" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>57</v>
@@ -4070,10 +4071,10 @@
     </row>
     <row r="129" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>57</v>
@@ -4087,16 +4088,16 @@
     </row>
     <row r="130" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="10"/>
@@ -4104,16 +4105,16 @@
     </row>
     <row r="131" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="9"/>
@@ -4121,13 +4122,13 @@
     </row>
     <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>59</v>
@@ -4135,13 +4136,13 @@
     </row>
     <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>59</v>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="247">
   <si>
     <t>界面字段名</t>
   </si>
@@ -115,6 +115,944 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>Uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">客户联系人信息  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_KHLXR</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属客户</t>
+  </si>
+  <si>
+    <t>所属客户</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>KID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klianiren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kzhiwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kxingbie</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kdianhua</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>男，女</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串枚举表</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYqu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYchuanzhen</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYkaipiao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYerp</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYquyudaima</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYzuobiao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYcaixueliang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuozhanqx</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtime</t>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展权限</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>在职,离职</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价</t>
+  </si>
+  <si>
+    <t>S_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sbanben</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择类型，通过字符串枚举配置</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sanzhuangriqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sbaoxiudaoqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schenbenjia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sbaoxiuqixian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sbaoyangzhouqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Szhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>直销，分销</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scaigouqudao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sdailishang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sshouming</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sxiaoshoujiage</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼音</t>
+  </si>
+  <si>
+    <t>最低售价</t>
+  </si>
+  <si>
+    <t>售价</t>
+  </si>
+  <si>
+    <t>配件保养周期</t>
+  </si>
+  <si>
+    <t>配件保修期</t>
+  </si>
+  <si>
+    <t>选择类型，通过字符串枚举配置</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>LID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lguige</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldanwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lpinyin</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lchengbenjia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lzuidijia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lshoujia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lbaoyangzhouqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lbaoxiuqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">配件信息  ，记录可用的配件品种  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_WFLJ</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">维修错误预制  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_YZCW</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择类型，通过字符串枚举配置</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>EID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epinyin</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ebeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>签署日期</t>
+  </si>
+  <si>
+    <t>客户付款日期</t>
+  </si>
+  <si>
+    <t>收款金额</t>
+  </si>
+  <si>
+    <t>付款周期</t>
+  </si>
+  <si>
+    <t>是否支取</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">合同管理-主表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_HTGL</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修、保养、其他</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hqianshuren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hzongjia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hqianshuriqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hfukuanriqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hshouuanjin</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hfukuanzhouqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hshifouzhiqu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+  </si>
+  <si>
+    <t>是，否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>配件编号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>错误代码</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>合同类型</t>
+  </si>
+  <si>
+    <t>责任人</t>
+  </si>
+  <si>
+    <t>总额</t>
+  </si>
+  <si>
+    <t>HSBID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">设备信息，记录每一台独立的设备  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_WFSB</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSBend</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">合同管理-设备子表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_HTGL_SB</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSB_HID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSB_SID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSBbegin</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSBjiage</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nnvarchar(50)</t>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+  </si>
+  <si>
+    <t>nvarchar(51)</t>
+  </si>
+  <si>
+    <t>nvarchar(52)</t>
+  </si>
+  <si>
+    <t>nvarchar(53)</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表主键</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属合同</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>youxiang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhiwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属区域</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>suoshuquyu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoujihao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定电话</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司领导</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>gudingdianhua</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYaddtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYsheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>区</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图坐标</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdianhua</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票信息</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ERP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编号</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>年采血量</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">客户信息  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_KHDA</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">员工关联客户  </t>
     </r>
@@ -140,219 +1078,56 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>Uaid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">客户联系人信息  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_KHLXR</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属客户</t>
-  </si>
-  <si>
-    <t>所属客户</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>K_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>科室</t>
-  </si>
-  <si>
-    <t>联系电话</t>
+    <t>GLKHID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>shixiaoriqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>KKS</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>KID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Klianiren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kzhiwei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kxingbie</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kdianhua</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>男，女</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串枚举表</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYqu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYchuanzhen</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYkaipiao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYerp</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYquyudaima</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYzuobiao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYcaixueliang</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuozhanqx</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>addtime</t>
-  </si>
-  <si>
-    <t>添加时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展权限</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>在职,离职</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>GLKHID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>UAid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>shixiaoriqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>失效日期</t>
+    <t>试用、正式使用、报废、停用</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schuchangriqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户科室</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>安装日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>保修到期日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>成本价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -386,6 +1161,7 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -419,104 +1195,14 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>设备状态</t>
-  </si>
-  <si>
-    <t>S_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skeshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleixing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sbanben</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择类型，通过字符串枚举配置</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sanzhuangriqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sbaoxiudaoqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schenbenjia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sbaoxiuqixian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sbaoyangzhouqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Szhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>试用、正式使用、报废、停用</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>直销，分销</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scaigouqudao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>采购渠道</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sdailishang</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -558,681 +1244,7 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>Sshouming</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sxiaoshoujiage</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>销售价格</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼音</t>
-  </si>
-  <si>
-    <t>最低售价</t>
-  </si>
-  <si>
-    <t>售价</t>
-  </si>
-  <si>
-    <t>配件保养周期</t>
-  </si>
-  <si>
-    <t>配件保修期</t>
-  </si>
-  <si>
-    <t>选择类型，通过字符串枚举配置</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>LID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lguige</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ldanwei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lpinyin</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lchengbenjia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lzuidijia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lshoujia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lbaoyangzhouqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lbaoxiuqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">配件信息  ，记录可用的配件品种  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_WFLJ</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">维修错误预制  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_YZCW</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择类型，通过字符串枚举配置</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>EID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eleixing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Epinyin</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ebeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>签署日期</t>
-  </si>
-  <si>
-    <t>客户付款日期</t>
-  </si>
-  <si>
-    <t>收款金额</t>
-  </si>
-  <si>
-    <t>付款周期</t>
-  </si>
-  <si>
-    <t>是否支取</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">合同管理-主表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_HTGL</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>H_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eleixing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>保修、保养、其他</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hqianshuren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hzongjia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hqianshuriqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hfukuanriqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hshouuanjin</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hfukuanzhouqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hshifouzhiqu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-  </si>
-  <si>
-    <t>是，否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>职位</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>客户科室</t>
-  </si>
-  <si>
-    <t>设备类型</t>
-  </si>
-  <si>
-    <t>配件编号</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>错误代码</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>合同类型</t>
-  </si>
-  <si>
-    <t>责任人</t>
-  </si>
-  <si>
-    <t>总额</t>
-  </si>
-  <si>
-    <t>HSBID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>HID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">设备信息，记录每一台独立的设备  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_WFSB</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSBend</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">合同管理-设备子表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_HTGL_SB</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSB_HID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSB_SID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSBbegin</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSBjiage</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nnvarchar(50)</t>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-  </si>
-  <si>
-    <t>nvarchar(51)</t>
-  </si>
-  <si>
-    <t>nvarchar(52)</t>
-  </si>
-  <si>
-    <t>nvarchar(53)</t>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表主键</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属合同</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>生效日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>失效日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>youxiang</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhiwei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作地</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属区域</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>suoshuquyu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoujihao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定电话</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司领导</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>gudingdianhua</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYaddtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYname</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYsheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>市</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>区</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>传真</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图坐标</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>省</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYdizhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYdianhua</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>开票信息</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ERP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编号</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域代码</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>年采血量</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">客户信息  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_KHDA</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schuchangriqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂日期</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1943,7 +1955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2029,6 +2041,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2406,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2460,10 +2478,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>7</v>
@@ -2476,13 +2494,13 @@
     </row>
     <row r="4" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>10</v>
@@ -2493,13 +2511,13 @@
     </row>
     <row r="5" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>14</v>
@@ -2510,16 +2528,16 @@
     </row>
     <row r="6" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="25"/>
@@ -2529,40 +2547,40 @@
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10"/>
       <c r="G7" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>59</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="25"/>
       <c r="G8" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2573,7 +2591,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>14</v>
@@ -2582,13 +2600,13 @@
     </row>
     <row r="10" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>14</v>
@@ -2599,13 +2617,13 @@
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
@@ -2616,13 +2634,13 @@
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>14</v>
@@ -2633,13 +2651,13 @@
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -2650,13 +2668,13 @@
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>14</v>
@@ -2667,13 +2685,13 @@
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
@@ -2684,13 +2702,13 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>14</v>
@@ -2698,12 +2716,12 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="29" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -2737,13 +2755,13 @@
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>7</v>
@@ -2756,13 +2774,13 @@
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>9</v>
@@ -2773,13 +2791,13 @@
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>9</v>
@@ -2790,13 +2808,13 @@
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>9</v>
@@ -2807,7 +2825,7 @@
     </row>
     <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -2841,13 +2859,13 @@
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>7</v>
@@ -2860,13 +2878,13 @@
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>30</v>
-      </c>
       <c r="C32" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>9</v>
@@ -2877,13 +2895,13 @@
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>9</v>
@@ -2891,18 +2909,18 @@
       <c r="E33" s="7"/>
       <c r="F33" s="10"/>
       <c r="G33" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>9</v>
@@ -2913,13 +2931,13 @@
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>9</v>
@@ -2927,33 +2945,33 @@
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -2961,18 +2979,18 @@
         <v>13</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -3006,13 +3024,13 @@
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>7</v>
@@ -3025,13 +3043,13 @@
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>9</v>
@@ -3042,13 +3060,13 @@
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>9</v>
@@ -3056,18 +3074,18 @@
       <c r="E46" s="7"/>
       <c r="F46" s="10"/>
       <c r="G46" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>9</v>
@@ -3078,13 +3096,13 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>9</v>
@@ -3092,150 +3110,150 @@
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="28" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="29" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -3272,10 +3290,10 @@
         <v>12</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>7</v>
@@ -3288,13 +3306,13 @@
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>9</v>
@@ -3304,14 +3322,14 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
-        <v>162</v>
+      <c r="A65" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>9</v>
@@ -3319,18 +3337,18 @@
       <c r="E65" s="7"/>
       <c r="F65" s="10"/>
       <c r="G65" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
-        <v>163</v>
+      <c r="A66" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>9</v>
@@ -3338,193 +3356,193 @@
       <c r="E66" s="7"/>
       <c r="F66" s="9"/>
       <c r="G66" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>71</v>
+        <v>237</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>74</v>
+        <v>240</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>90</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
     </row>
     <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
@@ -3551,13 +3569,13 @@
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>7</v>
@@ -3570,13 +3588,13 @@
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>9</v>
@@ -3587,13 +3605,13 @@
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>9</v>
@@ -3601,18 +3619,18 @@
       <c r="E86" s="7"/>
       <c r="F86" s="10"/>
       <c r="G86" s="5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>9</v>
@@ -3620,103 +3638,103 @@
       <c r="E87" s="7"/>
       <c r="F87" s="9"/>
       <c r="G87" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B93" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="D93" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
     </row>
     <row r="99" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -3743,13 +3761,13 @@
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>7</v>
@@ -3762,13 +3780,13 @@
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>9</v>
@@ -3779,13 +3797,13 @@
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>9</v>
@@ -3793,21 +3811,21 @@
       <c r="E102" s="7"/>
       <c r="F102" s="10"/>
       <c r="G102" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="9"/>
@@ -3818,25 +3836,25 @@
         <v>13</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
     </row>
     <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
@@ -3863,13 +3881,13 @@
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>7</v>
@@ -3882,13 +3900,13 @@
     </row>
     <row r="113" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>9</v>
@@ -3899,13 +3917,13 @@
     </row>
     <row r="114" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>9</v>
@@ -3913,21 +3931,21 @@
       <c r="E114" s="7"/>
       <c r="F114" s="10"/>
       <c r="G114" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="9"/>
@@ -3935,74 +3953,74 @@
     </row>
     <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="16" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -4010,22 +4028,22 @@
         <v>13</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C122" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="30"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
     </row>
     <row r="127" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
@@ -4052,13 +4070,13 @@
     </row>
     <row r="128" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>7</v>
@@ -4071,13 +4089,13 @@
     </row>
     <row r="129" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
@@ -4088,16 +4106,16 @@
     </row>
     <row r="130" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="10"/>
@@ -4105,16 +4123,16 @@
     </row>
     <row r="131" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="9"/>
@@ -4122,30 +4140,30 @@
     </row>
     <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="246">
   <si>
     <t>界面字段名</t>
   </si>
@@ -115,6 +115,31 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">员工关联客户  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_userinfo_glkh</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>Uaid</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -172,6 +197,10 @@
     <t>联系电话</t>
   </si>
   <si>
+    <t>KKS</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>KID</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -282,10 +311,22 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>GLKHID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>UAid</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>shixiaoriqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>主键</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -302,832 +343,16 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>版本号</t>
+  </si>
+  <si>
+    <t>安装日期</t>
+  </si>
+  <si>
+    <t>保修到期日期</t>
+  </si>
+  <si>
     <t>成本价</t>
-  </si>
-  <si>
-    <t>S_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skeshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleixing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sbanben</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择类型，通过字符串枚举配置</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sanzhuangriqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sbaoxiudaoqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schenbenjia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sbaoxiuqixian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sbaoyangzhouqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Szhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>直销，分销</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scaigouqudao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sdailishang</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sshouming</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sxiaoshoujiage</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>拼音</t>
-  </si>
-  <si>
-    <t>最低售价</t>
-  </si>
-  <si>
-    <t>售价</t>
-  </si>
-  <si>
-    <t>配件保养周期</t>
-  </si>
-  <si>
-    <t>配件保修期</t>
-  </si>
-  <si>
-    <t>选择类型，通过字符串枚举配置</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>LID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lguige</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ldanwei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lpinyin</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lchengbenjia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lzuidijia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lshoujia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lbaoyangzhouqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lbaoxiuqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">配件信息  ，记录可用的配件品种  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_WFLJ</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">维修错误预制  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_YZCW</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择类型，通过字符串枚举配置</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>EID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eleixing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Epinyin</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ebeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>签署日期</t>
-  </si>
-  <si>
-    <t>客户付款日期</t>
-  </si>
-  <si>
-    <t>收款金额</t>
-  </si>
-  <si>
-    <t>付款周期</t>
-  </si>
-  <si>
-    <t>是否支取</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">合同管理-主表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_HTGL</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>H_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eleixing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>保修、保养、其他</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hqianshuren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hzongjia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hqianshuriqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hfukuanriqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hshouuanjin</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hfukuanzhouqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hshifouzhiqu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-  </si>
-  <si>
-    <t>是，否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同编号</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>职位</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>配件编号</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>错误代码</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>合同类型</t>
-  </si>
-  <si>
-    <t>责任人</t>
-  </si>
-  <si>
-    <t>总额</t>
-  </si>
-  <si>
-    <t>HSBID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>HID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">设备信息，记录每一台独立的设备  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_WFSB</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSBend</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">合同管理-设备子表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_HTGL_SB</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSB_HID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSB_SID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSBbegin</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>HSBjiage</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nnvarchar(50)</t>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-  </si>
-  <si>
-    <t>nvarchar(51)</t>
-  </si>
-  <si>
-    <t>nvarchar(52)</t>
-  </si>
-  <si>
-    <t>nvarchar(53)</t>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表主键</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属合同</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>生效日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>失效日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>youxiang</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhiwei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作地</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属区域</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>suoshuquyu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoujihao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定电话</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司领导</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>gudingdianhua</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYaddtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYname</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYsheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>市</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>区</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>传真</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图坐标</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>省</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYdizhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYdianhua</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>开票信息</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ERP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编号</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域代码</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>年采血量</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">客户信息  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_KHDA</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">员工关联客户  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_userinfo_glkh</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>GLKHID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>shixiaoriqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>KKS</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>试用、正式使用、报废、停用</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schuchangriqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户科室</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备类型</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>出厂日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>保修到期日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本价</t>
-    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1161,7 +386,6 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1195,14 +419,104 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>设备状态</t>
+  </si>
+  <si>
+    <t>S_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sbanben</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择类型，通过字符串枚举配置</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sanzhuangriqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sbaoxiudaoqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schenbenjia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sbaoxiuqixian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sbaoyangzhouqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Szhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>试用、正式使用、报废、停用</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>直销，分销</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scaigouqudao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>采购渠道</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sdailishang</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -1244,7 +558,681 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>Sshouming</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sxiaoshoujiage</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>销售价格</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼音</t>
+  </si>
+  <si>
+    <t>最低售价</t>
+  </si>
+  <si>
+    <t>售价</t>
+  </si>
+  <si>
+    <t>配件保养周期</t>
+  </si>
+  <si>
+    <t>配件保修期</t>
+  </si>
+  <si>
+    <t>选择类型，通过字符串枚举配置</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>LID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lguige</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldanwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lpinyin</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lchengbenjia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lzuidijia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lshoujia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lbaoyangzhouqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lbaoxiuqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">配件信息  ，记录可用的配件品种  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_WFLJ</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">维修错误预制  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_YZCW</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择类型，通过字符串枚举配置</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>EID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epinyin</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ebeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>签署日期</t>
+  </si>
+  <si>
+    <t>客户付款日期</t>
+  </si>
+  <si>
+    <t>收款金额</t>
+  </si>
+  <si>
+    <t>付款周期</t>
+  </si>
+  <si>
+    <t>是否支取</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">合同管理-主表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_HTGL</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修、保养、其他</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hqianshuren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hzongjia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hqianshuriqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hfukuanriqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hshouuanjin</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hfukuanzhouqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hshifouzhiqu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+  </si>
+  <si>
+    <t>是，否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>客户科室</t>
+  </si>
+  <si>
+    <t>设备类型</t>
+  </si>
+  <si>
+    <t>配件编号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>错误代码</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>合同类型</t>
+  </si>
+  <si>
+    <t>责任人</t>
+  </si>
+  <si>
+    <t>总额</t>
+  </si>
+  <si>
+    <t>HSBID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">设备信息，记录每一台独立的设备  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_WFSB</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSBend</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">合同管理-设备子表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_HTGL_SB</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSB_HID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSB_SID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSBbegin</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSBjiage</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nnvarchar(50)</t>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+  </si>
+  <si>
+    <t>nvarchar(51)</t>
+  </si>
+  <si>
+    <t>nvarchar(52)</t>
+  </si>
+  <si>
+    <t>nvarchar(53)</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表主键</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属合同</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>youxiang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhiwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属区域</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>suoshuquyu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoujihao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定电话</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司领导</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>gudingdianhua</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYaddtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYsheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>区</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图坐标</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdianhua</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票信息</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ERP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>编号</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域代码</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>年采血量</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">客户信息  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_KHDA</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schuchangriqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>出厂日期</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1955,7 +1943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2041,12 +2029,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2424,8 +2406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126:XFD126"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2478,10 +2460,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>7</v>
@@ -2494,13 +2476,13 @@
     </row>
     <row r="4" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>10</v>
@@ -2511,13 +2493,13 @@
     </row>
     <row r="5" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>14</v>
@@ -2528,16 +2510,16 @@
     </row>
     <row r="6" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="25"/>
@@ -2547,40 +2529,40 @@
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10"/>
       <c r="G7" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" s="24"/>
       <c r="F8" s="25"/>
       <c r="G8" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2591,7 +2573,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>14</v>
@@ -2600,13 +2582,13 @@
     </row>
     <row r="10" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>14</v>
@@ -2617,13 +2599,13 @@
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
@@ -2634,13 +2616,13 @@
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>14</v>
@@ -2651,13 +2633,13 @@
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -2668,13 +2650,13 @@
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>14</v>
@@ -2685,13 +2667,13 @@
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
@@ -2702,13 +2684,13 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>14</v>
@@ -2716,12 +2698,12 @@
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="29" t="s">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -2755,13 +2737,13 @@
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>7</v>
@@ -2774,13 +2756,13 @@
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>9</v>
@@ -2791,13 +2773,13 @@
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>9</v>
@@ -2808,13 +2790,13 @@
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>9</v>
@@ -2825,7 +2807,7 @@
     </row>
     <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -2859,13 +2841,13 @@
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>7</v>
@@ -2878,13 +2860,13 @@
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>9</v>
@@ -2895,13 +2877,13 @@
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>230</v>
+        <v>33</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>9</v>
@@ -2909,18 +2891,18 @@
       <c r="E33" s="7"/>
       <c r="F33" s="10"/>
       <c r="G33" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>9</v>
@@ -2931,13 +2913,13 @@
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>9</v>
@@ -2945,33 +2927,33 @@
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -2979,18 +2961,18 @@
         <v>13</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -3024,13 +3006,13 @@
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>7</v>
@@ -3043,13 +3025,13 @@
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>9</v>
@@ -3060,13 +3042,13 @@
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>9</v>
@@ -3074,18 +3056,18 @@
       <c r="E46" s="7"/>
       <c r="F46" s="10"/>
       <c r="G46" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>9</v>
@@ -3096,13 +3078,13 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>9</v>
@@ -3110,150 +3092,150 @@
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="28" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="29" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -3290,10 +3272,10 @@
         <v>12</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>7</v>
@@ -3306,13 +3288,13 @@
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>9</v>
@@ -3322,14 +3304,14 @@
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
-        <v>233</v>
+      <c r="A65" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>9</v>
@@ -3337,18 +3319,18 @@
       <c r="E65" s="7"/>
       <c r="F65" s="10"/>
       <c r="G65" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
-        <v>234</v>
+      <c r="A66" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>9</v>
@@ -3356,193 +3338,193 @@
       <c r="E66" s="7"/>
       <c r="F66" s="9"/>
       <c r="G66" s="5" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>237</v>
+        <v>71</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="B75" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="G75" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>245</v>
+        <v>102</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
     </row>
     <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
@@ -3569,13 +3551,13 @@
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>7</v>
@@ -3588,13 +3570,13 @@
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>9</v>
@@ -3605,13 +3587,13 @@
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>9</v>
@@ -3619,18 +3601,18 @@
       <c r="E86" s="7"/>
       <c r="F86" s="10"/>
       <c r="G86" s="5" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>9</v>
@@ -3638,103 +3620,103 @@
       <c r="E87" s="7"/>
       <c r="F87" s="9"/>
       <c r="G87" s="5" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
     </row>
     <row r="99" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -3761,13 +3743,13 @@
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>7</v>
@@ -3780,13 +3762,13 @@
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>9</v>
@@ -3797,13 +3779,13 @@
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>9</v>
@@ -3811,21 +3793,21 @@
       <c r="E102" s="7"/>
       <c r="F102" s="10"/>
       <c r="G102" s="5" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="9"/>
@@ -3836,25 +3818,25 @@
         <v>13</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
-      <c r="F110" s="32"/>
-      <c r="G110" s="32"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
     </row>
     <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
@@ -3881,13 +3863,13 @@
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>7</v>
@@ -3900,13 +3882,13 @@
     </row>
     <row r="113" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>9</v>
@@ -3917,13 +3899,13 @@
     </row>
     <row r="114" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>9</v>
@@ -3931,21 +3913,21 @@
       <c r="E114" s="7"/>
       <c r="F114" s="10"/>
       <c r="G114" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="9"/>
@@ -3953,74 +3935,74 @@
     </row>
     <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="16" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="16" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -4028,22 +4010,22 @@
         <v>13</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
-      <c r="G126" s="32"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
     </row>
     <row r="127" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
@@ -4070,13 +4052,13 @@
     </row>
     <row r="128" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>7</v>
@@ -4089,13 +4071,13 @@
     </row>
     <row r="129" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>9</v>
@@ -4106,16 +4088,16 @@
     </row>
     <row r="130" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="10"/>
@@ -4123,16 +4105,16 @@
     </row>
     <row r="131" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="9"/>
@@ -4140,30 +4122,30 @@
     </row>
     <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -859,9 +859,6 @@
     <t>单位</t>
   </si>
   <si>
-    <t>错误代码</t>
-  </si>
-  <si>
     <t>类型</t>
   </si>
   <si>
@@ -1233,6 +1230,10 @@
   </si>
   <si>
     <t>出厂日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误代码</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -2406,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2482,7 +2483,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>10</v>
@@ -2493,13 +2494,13 @@
     </row>
     <row r="5" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>14</v>
@@ -2516,10 +2517,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="25"/>
@@ -2538,7 +2539,7 @@
         <v>154</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10"/>
@@ -2548,10 +2549,10 @@
     </row>
     <row r="8" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>198</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>199</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>57</v>
@@ -2599,7 +2600,7 @@
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>18</v>
@@ -2616,10 +2617,10 @@
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>205</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>57</v>
@@ -2633,13 +2634,13 @@
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -2650,10 +2651,10 @@
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>57</v>
@@ -2667,10 +2668,10 @@
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>57</v>
@@ -2684,7 +2685,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>19</v>
@@ -2972,7 +2973,7 @@
     </row>
     <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -3006,10 +3007,10 @@
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>57</v>
@@ -3025,10 +3026,10 @@
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>57</v>
@@ -3042,10 +3043,10 @@
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>57</v>
@@ -3061,10 +3062,10 @@
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>57</v>
@@ -3078,7 +3079,7 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>44</v>
@@ -3092,10 +3093,10 @@
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>57</v>
@@ -3109,10 +3110,10 @@
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>57</v>
@@ -3123,7 +3124,7 @@
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>45</v>
@@ -3137,7 +3138,7 @@
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>46</v>
@@ -3151,7 +3152,7 @@
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>47</v>
@@ -3165,7 +3166,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>48</v>
@@ -3179,13 +3180,13 @@
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>41</v>
@@ -3193,13 +3194,13 @@
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>41</v>
@@ -3207,35 +3208,35 @@
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C57" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -3272,7 +3273,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>57</v>
@@ -3357,13 +3358,13 @@
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>81</v>
@@ -3405,7 +3406,7 @@
         <v>86</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>81</v>
@@ -3742,8 +3743,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
-        <v>168</v>
+      <c r="A100" s="17" t="s">
+        <v>245</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>130</v>
@@ -3779,7 +3780,7 @@
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>132</v>
@@ -3866,7 +3867,7 @@
         <v>157</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>57</v>
@@ -3899,7 +3900,7 @@
     </row>
     <row r="114" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B114" s="15" t="s">
         <v>143</v>
@@ -3918,7 +3919,7 @@
     </row>
     <row r="115" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>145</v>
@@ -3935,7 +3936,7 @@
     </row>
     <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>146</v>
@@ -3966,7 +3967,7 @@
         <v>148</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -3977,7 +3978,7 @@
         <v>150</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -4018,7 +4019,7 @@
     </row>
     <row r="126" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B126" s="30"/>
       <c r="C126" s="30"/>
@@ -4052,10 +4053,10 @@
     </row>
     <row r="128" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>57</v>
@@ -4071,10 +4072,10 @@
     </row>
     <row r="129" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>57</v>
@@ -4088,10 +4089,10 @@
     </row>
     <row r="130" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>58</v>
@@ -4105,16 +4106,16 @@
     </row>
     <row r="131" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="9"/>
@@ -4122,13 +4123,13 @@
     </row>
     <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>59</v>
@@ -4136,10 +4137,10 @@
     </row>
     <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C133" s="19" t="s">
         <v>94</v>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
+    <sheet name="服务报告" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="250">
   <si>
     <t>界面字段名</t>
   </si>
@@ -767,10 +768,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>H_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>Eleixing</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -808,10 +805,6 @@
   </si>
   <si>
     <t>Hshifouzhiqu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hbeizhu</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -953,18 +946,10 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>HSB_SID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>HSBbegin</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>HSBjiage</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>nnvarchar(50)</t>
   </si>
   <si>
@@ -1100,10 +1085,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>YYname</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>YYsheng</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -1141,14 +1122,6 @@
   </si>
   <si>
     <t>省</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYdizhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYdianhua</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -1234,6 +1207,50 @@
   </si>
   <si>
     <t>错误代码</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdianhua</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSB_SID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSBjiage</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hbeizhu</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -2407,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2477,13 +2494,13 @@
     </row>
     <row r="4" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>10</v>
@@ -2494,13 +2511,13 @@
     </row>
     <row r="5" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>14</v>
@@ -2511,16 +2528,16 @@
     </row>
     <row r="6" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="25"/>
@@ -2536,10 +2553,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10"/>
@@ -2549,10 +2566,10 @@
     </row>
     <row r="8" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>57</v>
@@ -2574,7 +2591,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>14</v>
@@ -2600,7 +2617,7 @@
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>18</v>
@@ -2617,10 +2634,10 @@
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>57</v>
@@ -2634,13 +2651,13 @@
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -2651,10 +2668,10 @@
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>57</v>
@@ -2668,10 +2685,10 @@
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>57</v>
@@ -2685,7 +2702,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>19</v>
@@ -2897,7 +2914,7 @@
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>35</v>
@@ -2914,7 +2931,7 @@
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>36</v>
@@ -2928,7 +2945,7 @@
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>37</v>
@@ -2965,7 +2982,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>42</v>
@@ -2973,7 +2990,7 @@
     </row>
     <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -3007,10 +3024,10 @@
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>57</v>
@@ -3026,10 +3043,10 @@
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>57</v>
@@ -3043,10 +3060,10 @@
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>57</v>
@@ -3062,10 +3079,10 @@
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>57</v>
@@ -3079,7 +3096,7 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>44</v>
@@ -3093,10 +3110,10 @@
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>57</v>
@@ -3110,10 +3127,10 @@
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>57</v>
@@ -3124,7 +3141,7 @@
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>45</v>
@@ -3138,13 +3155,13 @@
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>41</v>
@@ -3152,7 +3169,7 @@
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>47</v>
@@ -3166,7 +3183,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>48</v>
@@ -3180,13 +3197,13 @@
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>41</v>
@@ -3194,13 +3211,13 @@
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>41</v>
@@ -3208,35 +3225,35 @@
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="28" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -3273,7 +3290,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>57</v>
@@ -3306,7 +3323,7 @@
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>78</v>
@@ -3325,7 +3342,7 @@
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>79</v>
@@ -3358,13 +3375,13 @@
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>81</v>
@@ -3406,7 +3423,7 @@
         <v>86</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>81</v>
@@ -3552,7 +3569,7 @@
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>113</v>
@@ -3571,7 +3588,7 @@
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>114</v>
@@ -3588,7 +3605,7 @@
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>115</v>
@@ -3607,7 +3624,7 @@
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B87" s="15" t="s">
         <v>116</v>
@@ -3744,7 +3761,7 @@
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>130</v>
@@ -3763,7 +3780,7 @@
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B101" s="15" t="s">
         <v>131</v>
@@ -3780,7 +3797,7 @@
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B102" s="15" t="s">
         <v>132</v>
@@ -3822,7 +3839,7 @@
         <v>134</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>41</v>
@@ -3864,10 +3881,10 @@
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>57</v>
@@ -3886,7 +3903,7 @@
         <v>28</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>57</v>
@@ -3900,35 +3917,35 @@
     </row>
     <row r="114" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>9</v>
+        <v>243</v>
       </c>
       <c r="E114" s="7"/>
       <c r="F114" s="10"/>
       <c r="G114" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="E115" s="7"/>
       <c r="F115" s="9"/>
@@ -3936,16 +3953,16 @@
     </row>
     <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -3953,10 +3970,13 @@
         <v>136</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3964,10 +3984,10 @@
         <v>137</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -3975,10 +3995,10 @@
         <v>138</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -3986,7 +4006,7 @@
         <v>139</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C120" s="19" t="s">
         <v>57</v>
@@ -3997,13 +4017,13 @@
         <v>140</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C121" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -4011,15 +4031,15 @@
         <v>13</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="C122" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B126" s="30"/>
       <c r="C126" s="30"/>
@@ -4053,10 +4073,10 @@
     </row>
     <row r="128" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>57</v>
@@ -4072,10 +4092,10 @@
     </row>
     <row r="129" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>57</v>
@@ -4089,10 +4109,10 @@
     </row>
     <row r="130" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>58</v>
@@ -4106,16 +4126,16 @@
     </row>
     <row r="131" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="9"/>
@@ -4123,13 +4143,13 @@
     </row>
     <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>59</v>
@@ -4137,10 +4157,10 @@
     </row>
     <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="C133" s="19" t="s">
         <v>94</v>
@@ -4165,4 +4185,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="251">
   <si>
     <t>界面字段名</t>
   </si>
@@ -99,6 +99,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表名：</t>
@@ -124,6 +125,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表名：</t>
@@ -160,6 +162,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表名：</t>
@@ -574,132 +577,6 @@
     <t>拼音</t>
   </si>
   <si>
-    <t>最低售价</t>
-  </si>
-  <si>
-    <t>售价</t>
-  </si>
-  <si>
-    <t>配件保养周期</t>
-  </si>
-  <si>
-    <t>配件保修期</t>
-  </si>
-  <si>
-    <t>选择类型，通过字符串枚举配置</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>LID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lguige</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ldanwei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lpinyin</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lchengbenjia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lzuidijia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lshoujia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lbaoyangzhouqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lbaoxiuqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">配件信息  ，记录可用的配件品种  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_WFLJ</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">维修错误预制  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_YZCW</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>选择类型，通过字符串枚举配置</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -751,6 +628,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表名：</t>
@@ -840,16 +718,7 @@
     <t>设备类型</t>
   </si>
   <si>
-    <t>配件编号</t>
-  </si>
-  <si>
     <t>名称</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>单位</t>
   </si>
   <si>
     <t>类型</t>
@@ -892,6 +761,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表名：</t>
@@ -925,6 +795,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表名：</t>
@@ -1181,6 +1052,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表名：</t>
@@ -1251,6 +1123,154 @@
   </si>
   <si>
     <t>Hbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为主键，不允许重复。</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制错误表  表名：ZZZ_YZCW</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为主键，不允许重复</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属设备</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">设备类型信息,记录可用的设备类型和版本号  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_SBLXBASE</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBshuoming</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">设备类型信息版本号子表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_SBLXBASE_BB</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBBID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB_SBID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBBbanben</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBBshuoming</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1270,17 +1290,20 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1288,12 +1311,14 @@
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1301,18 +1326,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1320,12 +1348,14 @@
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1333,6 +1363,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1340,12 +1371,14 @@
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1353,6 +1386,7 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1360,12 +1394,14 @@
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1373,12 +1409,14 @@
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1386,29 +1424,34 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1961,7 +2004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2048,6 +2091,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -2422,10 +2471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2494,13 +2543,13 @@
     </row>
     <row r="4" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>10</v>
@@ -2511,13 +2560,13 @@
     </row>
     <row r="5" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>14</v>
@@ -2528,16 +2577,16 @@
     </row>
     <row r="6" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="25"/>
@@ -2553,10 +2602,10 @@
         <v>51</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10"/>
@@ -2566,10 +2615,10 @@
     </row>
     <row r="8" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>57</v>
@@ -2591,7 +2640,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>14</v>
@@ -2617,7 +2666,7 @@
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>18</v>
@@ -2634,10 +2683,10 @@
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>57</v>
@@ -2651,13 +2700,13 @@
     </row>
     <row r="13" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>14</v>
@@ -2668,10 +2717,10 @@
     </row>
     <row r="14" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>57</v>
@@ -2685,10 +2734,10 @@
     </row>
     <row r="15" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>57</v>
@@ -2702,7 +2751,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>19</v>
@@ -2914,7 +2963,7 @@
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>35</v>
@@ -2931,7 +2980,7 @@
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>36</v>
@@ -2945,7 +2994,7 @@
     </row>
     <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>37</v>
@@ -2982,7 +3031,7 @@
         <v>39</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>42</v>
@@ -2990,7 +3039,7 @@
     </row>
     <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -3024,10 +3073,10 @@
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>57</v>
@@ -3043,10 +3092,10 @@
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>57</v>
@@ -3060,10 +3109,10 @@
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>57</v>
@@ -3079,10 +3128,10 @@
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>57</v>
@@ -3096,7 +3145,7 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>44</v>
@@ -3110,10 +3159,10 @@
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>57</v>
@@ -3127,10 +3176,10 @@
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>57</v>
@@ -3141,7 +3190,7 @@
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>45</v>
@@ -3155,13 +3204,13 @@
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>41</v>
@@ -3169,7 +3218,7 @@
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>47</v>
@@ -3183,7 +3232,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>48</v>
@@ -3197,13 +3246,13 @@
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>41</v>
@@ -3211,13 +3260,13 @@
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>41</v>
@@ -3225,35 +3274,35 @@
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="28" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="29" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -3290,7 +3339,7 @@
         <v>12</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>57</v>
@@ -3323,7 +3372,7 @@
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>78</v>
@@ -3342,7 +3391,7 @@
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>79</v>
@@ -3375,13 +3424,13 @@
     </row>
     <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>81</v>
@@ -3423,7 +3472,7 @@
         <v>86</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>81</v>
@@ -3530,656 +3579,657 @@
         <v>98</v>
       </c>
       <c r="D78" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+    </row>
+    <row r="81" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E88" s="5"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A90" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A91" s="31"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A92" s="31"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+    </row>
+    <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="7"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="29" t="s">
+      <c r="E98" s="7"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+    </row>
+    <row r="106" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E109" s="7"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E110" s="7"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-    </row>
-    <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="5"/>
-    </row>
-    <row r="85" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B88" s="18" t="s">
+      <c r="C114" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" s="18" t="s">
+      <c r="B115" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B98" s="30"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-    </row>
-    <row r="99" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B101" s="15" t="s">
+      <c r="B116" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G116" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="7"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B110" s="30"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="30"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="30"/>
-    </row>
-    <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" s="7"/>
-      <c r="G112" s="5"/>
-    </row>
-    <row r="113" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="5"/>
-    </row>
-    <row r="114" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E114" s="7"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E115" s="7"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B116" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C117" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B119" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C117" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+    </row>
+    <row r="122" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="7"/>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="5"/>
+    </row>
+    <row r="126" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C119" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="E126" s="7"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127" s="18" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B126" s="30"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="30"/>
-      <c r="E126" s="30"/>
-      <c r="F126" s="30"/>
-      <c r="G126" s="30"/>
-    </row>
-    <row r="127" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" s="7"/>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="5"/>
-    </row>
-    <row r="131" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="5"/>
-    </row>
-    <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B132" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D132" s="5" t="s">
+      <c r="C127" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="B133" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="C133" s="19" t="s">
+    <row r="128" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A98:G98"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A126:G126"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="A121:G121"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A82:G82"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A93:G93"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13170" windowHeight="6390"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="13170" windowHeight="6390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
     <sheet name="服务报告" sheetId="2" r:id="rId2"/>
+    <sheet name="其他" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="314">
   <si>
     <t>界面字段名</t>
   </si>
@@ -1271,6 +1273,300 @@
   </si>
   <si>
     <t>BBBshuoming</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>简述</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ffujian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fjianshu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nvarchar(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0)</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(max)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>知识分享  表名：ZZZ_WENDANG</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引地址</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fss</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>区</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatime()</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdate()</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤数据  表名：ZZZ_kaoqin</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uid</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_UAID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kzuobiao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ksheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kqu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ktime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kfx</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在范围区域</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kfanweinei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于记录分析本次签到的类型。根据实际业务需要拓展。例如迟到，早退，正常。忽略</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">例如 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>122.09395837,37.52878708</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录签到类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录提交人的内部编码</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是，否，未指定</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -2004,7 +2300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2086,17 +2382,20 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -2473,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2489,15 +2788,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2769,15 +3068,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -2873,15 +3172,15 @@
       <c r="G25" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -3038,15 +3337,15 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -3301,15 +3600,15 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -3583,15 +3882,15 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
+      <c r="B80" s="33"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -3651,15 +3950,15 @@
       <c r="G83" s="5"/>
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
+      <c r="B85" s="33"/>
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
     </row>
     <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -3740,10 +4039,10 @@
       <c r="G89" s="5"/>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A90" s="31" t="s">
+      <c r="A90" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="30" t="s">
         <v>250</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -3757,8 +4056,8 @@
       <c r="G90" s="5"/>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A91" s="31"/>
-      <c r="B91" s="32"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="7"/>
@@ -3766,8 +4065,8 @@
       <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A92" s="31"/>
-      <c r="B92" s="32"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="7"/>
@@ -3775,15 +4074,15 @@
       <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="30"/>
+      <c r="B93" s="33"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
     </row>
     <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
@@ -3895,15 +4194,15 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="29" t="s">
+      <c r="A105" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="30"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="30"/>
+      <c r="B105" s="33"/>
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
     </row>
     <row r="106" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -4087,15 +4386,15 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="29" t="s">
+      <c r="A121" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="30"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="30"/>
+      <c r="B121" s="33"/>
+      <c r="C121" s="33"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="33"/>
     </row>
     <row r="122" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
@@ -4251,4 +4550,410 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="53.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A14:G14"/>
+  </mergeCells>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="337">
   <si>
     <t>界面字段名</t>
   </si>
@@ -1567,6 +1567,98 @@
   </si>
   <si>
     <t>是，否，未指定</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定地点标记  表名：ZZZ_kaoqin_dd</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDbiaojiming</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDzuobiao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记名</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度地图坐标</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到参数设置  表名：ZZZ_kaoqin_cs</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSjiange</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSshang1</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSshang2</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSxia1</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSxia2</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复签到允许的时间间隔</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班有效签到开始时间，只对上下班类型有效</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班有效签到结束时间，只对上下班类型有效</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班有效签到开始时间，只对上下班类型有效</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班有效签到结束时间，只对上下班类型有效</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复间隔</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班开始</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班结束</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班开始</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班结束</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -4554,10 +4646,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4934,10 +5026,251 @@
         <v>313</v>
       </c>
     </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A38:G38"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="354">
   <si>
     <t>界面字段名</t>
   </si>
@@ -1626,39 +1626,103 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>上班有效签到开始时间，只对上下班类型有效</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>上班有效签到结束时间，只对上下班类型有效</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>下班有效签到开始时间，只对上下班类型有效</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>下班有效签到结束时间，只对上下班类型有效</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>重复间隔</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>上班开始</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>上班结束</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>下班开始</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>下班结束</t>
+    <t>DDdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDfanwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班有效签到开始时间，只对上下班类型有效，此时间段之外不允许签到</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班有效签到结束时间，只对上下班类型有效，此时间段之外不允许签到</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班有效签到开始时间，只对上下班类型有效，此时间段之外不允许签到</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班有效签到结束时间，只对上下班类型有效，此时间段之外不允许签到</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSshang1P</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSshang2P</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSxia1P</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSxia2P</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班迟到开始时间，只对上下班类型有效，此时间段内签到会被判定为迟到</t>
+  </si>
+  <si>
+    <t>上班迟到结束时间，只对上下班类型有效，此时间段内签到会被判定为迟到</t>
+  </si>
+  <si>
+    <t>下班早退开始时间，只对上下班类型有效,，此时间段内签到会被判定为早退</t>
+  </si>
+  <si>
+    <t>下班早退结束时间，只对上下班类型有效，此时间段内签到会被判定为早退</t>
+  </si>
+  <si>
+    <t>上班迟到开始</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班迟到结束</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班早退开始</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班早退结束</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班签到开始</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班签到结束</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班签到开始</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>下班签到结束</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -2392,7 +2456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2488,6 +2552,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -4646,10 +4713,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4659,7 +4726,7 @@
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="53.875" customWidth="1"/>
+    <col min="7" max="7" width="66.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5115,6 +5182,25 @@
       <c r="F34" s="10"/>
       <c r="G34" s="7"/>
     </row>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>332</v>
+      </c>
+    </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="33" t="s">
         <v>321</v>
@@ -5172,7 +5258,7 @@
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>322</v>
@@ -5191,7 +5277,7 @@
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>323</v>
@@ -5205,12 +5291,12 @@
       <c r="E42" s="7"/>
       <c r="F42" s="10"/>
       <c r="G42" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>324</v>
@@ -5224,12 +5310,12 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>325</v>
@@ -5243,12 +5329,12 @@
       <c r="E44" s="7"/>
       <c r="F44" s="10"/>
       <c r="G44" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>326</v>
@@ -5262,7 +5348,83 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -9,15 +9,15 @@
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
     <sheet name="服务报告" sheetId="2" r:id="rId2"/>
-    <sheet name="其他" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="知识分享、签到、工作计划" sheetId="3" r:id="rId3"/>
+    <sheet name="会签" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="398">
   <si>
     <t>界面字段名</t>
   </si>
@@ -1723,6 +1723,182 @@
   </si>
   <si>
     <t>下班签到结束</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作任务类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gneirong</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatime()</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatime()</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>可配置.  常规,其他</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gtime1</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gtime2</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gchengshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gdidian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkqleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grwleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地点</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划内容</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行结果</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行人编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划执行人编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_UAID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gsheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gquyu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作计划表  表名：ZZZ_workplan</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gjieguo</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>待执行，完成，作废</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>可配置.  本地工作, 出差, 带薪休假, 休假, 特殊休假, 法定假日加班</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gbiaoti</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -2456,7 +2632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2547,13 +2723,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2931,8 +3110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:XFD127"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2947,15 +3126,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3227,15 +3406,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3331,15 +3510,15 @@
       <c r="G25" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -3496,15 +3675,15 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="32" t="s">
+      <c r="A42" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -3759,15 +3938,15 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -4041,15 +4220,15 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -4109,15 +4288,15 @@
       <c r="G83" s="5"/>
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="33" t="s">
+      <c r="A85" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
     </row>
     <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -4233,15 +4412,15 @@
       <c r="G92" s="5"/>
     </row>
     <row r="93" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
     </row>
     <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
@@ -4353,15 +4532,15 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="32" t="s">
+      <c r="A105" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
+      <c r="B105" s="34"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="34"/>
+      <c r="F105" s="34"/>
+      <c r="G105" s="34"/>
     </row>
     <row r="106" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
@@ -4545,15 +4724,15 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="32" t="s">
+      <c r="A121" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="33"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="33"/>
+      <c r="B121" s="34"/>
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="34"/>
+      <c r="F121" s="34"/>
+      <c r="G121" s="34"/>
     </row>
     <row r="122" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
@@ -4713,10 +4892,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4730,15 +4909,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4874,15 +5053,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -5094,15 +5273,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -5183,7 +5362,7 @@
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="32" t="s">
         <v>333</v>
       </c>
       <c r="B35" s="18" t="s">
@@ -5202,15 +5381,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -5427,12 +5606,280 @@
         <v>345</v>
       </c>
     </row>
+    <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A56" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G70" t="s">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A56:G56"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13170" windowHeight="6390" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="13170" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -1200,32 +1200,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">设备类型信息,记录可用的设备类型和版本号  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_SBLXBASE</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>SBID</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -1899,6 +1873,10 @@
   </si>
   <si>
     <t>标题</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息维护   表名：ZZZ_SBLXBASE</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -2726,14 +2704,14 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -3108,10 +3086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3126,15 +3104,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -3406,15 +3384,15 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -3510,15 +3488,15 @@
       <c r="G25" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -3675,15 +3653,15 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
     </row>
     <row r="43" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -3938,15 +3916,15 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -4220,15 +4198,15 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
+      <c r="A80" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
     </row>
     <row r="81" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -4258,7 +4236,7 @@
         <v>225</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C82" s="17"/>
       <c r="D82" s="17" t="s">
@@ -4270,603 +4248,621 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
+    <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+    </row>
+    <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+    </row>
+    <row r="85" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B85" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="87" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="5"/>
-    </row>
-    <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="34" t="s">
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+    </row>
+    <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B89" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-    </row>
-    <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="B87" s="14" t="s">
+      <c r="C89" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C88" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D90" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="89" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="5"/>
-    </row>
-    <row r="90" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A90" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="B90" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E90" s="7"/>
+      <c r="E90" s="5"/>
       <c r="F90" s="7"/>
       <c r="G90" s="5"/>
     </row>
-    <row r="91" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A91" s="29"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+    <row r="91" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A92" s="29"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="A92" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="34" t="s">
+    <row r="93" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A93" s="29"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A94" s="29"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-    </row>
-    <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+    </row>
+    <row r="96" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F96" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
+    <row r="97" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B97" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" s="7"/>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="5" t="s">
-        <v>107</v>
-      </c>
+      <c r="D97" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="16" t="s">
+      <c r="E100" s="7"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B101" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="33" t="s">
+    <row r="107" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="B105" s="34"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="34"/>
-      <c r="E105" s="34"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-    </row>
-    <row r="106" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="B107" s="35"/>
+      <c r="C107" s="35"/>
+      <c r="D107" s="35"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="35"/>
+    </row>
+    <row r="108" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F108" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="14" t="s">
+    <row r="109" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="B109" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" s="7"/>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="D109" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="7"/>
+      <c r="G109" s="5"/>
     </row>
     <row r="110" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="5"/>
+    </row>
+    <row r="111" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E111" s="7"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E110" s="7"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="15" t="s">
+      <c r="E112" s="7"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B113" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C113" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D113" s="5" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C112" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C113" s="19" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>128</v>
+        <v>115</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G116" s="6" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B119" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C119" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="33" t="s">
+    <row r="123" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="34"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="34"/>
-    </row>
-    <row r="122" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
+      <c r="F123" s="35"/>
+      <c r="G123" s="35"/>
+    </row>
+    <row r="124" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="17" t="s">
+    <row r="125" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B125" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C125" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D125" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="E125" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="7"/>
-      <c r="G123" s="5"/>
-    </row>
-    <row r="124" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="5"/>
-    </row>
-    <row r="125" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E125" s="7"/>
-      <c r="F125" s="10"/>
+      <c r="F125" s="7"/>
       <c r="G125" s="5"/>
     </row>
     <row r="126" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A126" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B128" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C128" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="16" t="s">
+      <c r="E128" s="7"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="B129" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C129" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D129" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="16" t="s">
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B130" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C128" s="19" t="s">
+      <c r="C130" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D130" s="5" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A105:G105"/>
-    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="A107:G107"/>
+    <mergeCell ref="A123:G123"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A85:G85"/>
-    <mergeCell ref="A93:G93"/>
+    <mergeCell ref="A87:G87"/>
+    <mergeCell ref="A95:G95"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4894,7 +4890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
@@ -4909,15 +4905,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
+      <c r="A1" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -4944,10 +4940,10 @@
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>57</v>
@@ -4963,13 +4959,13 @@
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
@@ -4980,16 +4976,16 @@
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10"/>
@@ -4997,16 +4993,16 @@
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9"/>
@@ -5014,54 +5010,54 @@
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="A14" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -5094,7 +5090,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>7</v>
@@ -5104,18 +5100,18 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>9</v>
@@ -5123,15 +5119,15 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>58</v>
@@ -5142,26 +5138,26 @@
       <c r="E18" s="7"/>
       <c r="F18" s="10"/>
       <c r="G18" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5169,10 +5165,10 @@
         <v>202</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>14</v>
@@ -5181,13 +5177,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>14</v>
@@ -5195,13 +5191,13 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>14</v>
@@ -5209,13 +5205,13 @@
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="28" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>14</v>
@@ -5223,65 +5219,65 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C24" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F24" t="s">
         <v>287</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F24" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="G25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="35" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -5311,7 +5307,7 @@
         <v>66</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>238</v>
@@ -5324,15 +5320,15 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>238</v>
@@ -5346,10 +5342,10 @@
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>58</v>
@@ -5363,33 +5359,33 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
+      <c r="A38" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -5419,7 +5415,7 @@
         <v>66</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>238</v>
@@ -5432,15 +5428,15 @@
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>208</v>
@@ -5451,15 +5447,15 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>58</v>
@@ -5470,15 +5466,15 @@
       <c r="E42" s="7"/>
       <c r="F42" s="10"/>
       <c r="G42" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>238</v>
@@ -5489,15 +5485,15 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>58</v>
@@ -5508,15 +5504,15 @@
       <c r="E44" s="7"/>
       <c r="F44" s="10"/>
       <c r="G44" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>238</v>
@@ -5527,15 +5523,15 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>58</v>
@@ -5546,15 +5542,15 @@
       <c r="E46" s="7"/>
       <c r="F46" s="10"/>
       <c r="G46" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>238</v>
@@ -5565,15 +5561,15 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>58</v>
@@ -5584,15 +5580,15 @@
       <c r="E48" s="7"/>
       <c r="F48" s="10"/>
       <c r="G48" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>238</v>
@@ -5603,19 +5599,19 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="34" t="s">
-        <v>388</v>
-      </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
+      <c r="A56" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -5642,72 +5638,72 @@
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>393</v>
-      </c>
       <c r="C60" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>9</v>
@@ -5718,13 +5714,13 @@
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>9</v>
@@ -5735,13 +5731,13 @@
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>9</v>
@@ -5752,13 +5748,13 @@
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>9</v>
@@ -5769,13 +5765,13 @@
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>9</v>
@@ -5786,10 +5782,10 @@
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>227</v>
@@ -5803,13 +5799,13 @@
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>9</v>
@@ -5817,15 +5813,15 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>58</v>
@@ -5836,18 +5832,18 @@
       <c r="E68" s="7"/>
       <c r="F68" s="10"/>
       <c r="G68" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>14</v>
@@ -5858,19 +5854,19 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="B70" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G70" t="s">
         <v>389</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G70" t="s">
-        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="13170" windowHeight="6390"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="406">
   <si>
     <t>界面字段名</t>
   </si>
@@ -268,10 +268,6 @@
   </si>
   <si>
     <t>YYzuobiao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYcaixueliang</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -826,9 +822,6 @@
     <t>nnvarchar(50)</t>
   </si>
   <si>
-    <t>nvarchar(200)</t>
-  </si>
-  <si>
     <t>nvarchar(51)</t>
   </si>
   <si>
@@ -1027,10 +1020,6 @@
   </si>
   <si>
     <t>区域代码</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>年采血量</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -1877,6 +1866,50 @@
   </si>
   <si>
     <t>设备信息维护   表名：ZZZ_SBLXBASE</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务负责人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门编码</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYssbumen</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYfuwufuzeren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务负责人uaid</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -3086,10 +3119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G130"/>
+  <dimension ref="A3:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD84"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3103,1766 +3136,1798 @@
     <col min="7" max="7" width="79.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="7" t="s">
+    <row r="5" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="23" t="s">
-        <v>15</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>51</v>
+        <v>189</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>182</v>
+        <v>9</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="10"/>
       <c r="G7" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="32"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="32"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="37" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="24"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="27"/>
+    </row>
+    <row r="46" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="D46" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="23" t="s">
+      <c r="C51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="23" t="s">
+    <row r="56" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="D58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="64" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="7" t="s">
+    <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="F66" s="7"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="E68" s="7"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-    </row>
-    <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="E69" s="7"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" t="s">
-        <v>24</v>
+        <v>79</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>95</v>
+        <v>83</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>96</v>
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B78" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C78" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="B81" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+    </row>
+    <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+    </row>
+    <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+    </row>
+    <row r="88" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="90" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+    </row>
+    <row r="91" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-    </row>
-    <row r="81" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-    </row>
-    <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-    </row>
-    <row r="85" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="B85" s="15" t="s">
+    <row r="93" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B93" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="87" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-    </row>
-    <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
+      <c r="C93" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B90" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="5"/>
-    </row>
-    <row r="91" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="5"/>
-    </row>
-    <row r="92" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A92" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="B92" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="5"/>
-    </row>
-    <row r="93" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A93" s="29"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="7"/>
+      <c r="E93" s="5"/>
       <c r="F93" s="7"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="94" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A94" s="29"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+    <row r="94" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="5"/>
     </row>
-    <row r="95" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-    </row>
-    <row r="96" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>8</v>
-      </c>
+    <row r="95" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A95" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A96" s="29"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A97" s="29"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="5"/>
     </row>
-    <row r="98" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="15" t="s">
+    <row r="98" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+    </row>
+    <row r="99" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="7"/>
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B102" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="C102" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="5"/>
-    </row>
-    <row r="99" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="15" t="s">
+      <c r="E102" s="7"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" s="35"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="35"/>
+    </row>
+    <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="7"/>
+      <c r="G112" s="5"/>
+    </row>
+    <row r="113" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="5"/>
+    </row>
+    <row r="114" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B99" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="34" t="s">
+      <c r="B114" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="35"/>
-      <c r="E107" s="35"/>
-      <c r="F107" s="35"/>
-      <c r="G107" s="35"/>
-    </row>
-    <row r="108" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" s="7"/>
-      <c r="G109" s="5"/>
-    </row>
-    <row r="110" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="5"/>
-    </row>
-    <row r="111" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="15" t="s">
+      <c r="C114" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B111" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="B115" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="5"/>
-    </row>
-    <row r="113" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C114" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C116" s="19" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" s="18" t="s">
-        <v>129</v>
+        <v>114</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G118" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C119" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="34" t="s">
+      <c r="B122" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C122" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
+    </row>
+    <row r="127" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" s="7"/>
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B129" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="B123" s="35"/>
-      <c r="C123" s="35"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="35"/>
-      <c r="G123" s="35"/>
-    </row>
-    <row r="124" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="17" t="s">
+      <c r="C129" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C125" s="5" t="s">
+      <c r="B130" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="7"/>
-      <c r="G125" s="5"/>
-    </row>
-    <row r="126" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="16" t="s">
+      <c r="D130" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B131" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="16" t="s">
+      <c r="C131" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E131" s="7"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B127" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C127" s="5" t="s">
+      <c r="B132" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D127" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E127" s="7"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="5"/>
-    </row>
-    <row r="128" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="16" t="s">
+    </row>
+    <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B128" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E128" s="7"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B129" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>59</v>
+      <c r="B133" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A107:G107"/>
-    <mergeCell ref="A123:G123"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="A87:G87"/>
-    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="A126:G126"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="A98:G98"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4906,7 +4971,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -4940,13 +5005,13 @@
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>7</v>
@@ -4959,13 +5024,13 @@
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
@@ -4976,16 +5041,16 @@
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10"/>
@@ -4993,16 +5058,16 @@
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9"/>
@@ -5010,47 +5075,47 @@
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="35" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -5084,13 +5149,13 @@
     </row>
     <row r="16" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>7</v>
@@ -5100,18 +5165,18 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>9</v>
@@ -5119,18 +5184,18 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>9</v>
@@ -5138,37 +5203,37 @@
       <c r="E18" s="7"/>
       <c r="F18" s="10"/>
       <c r="G18" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>14</v>
@@ -5177,13 +5242,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>14</v>
@@ -5191,13 +5256,13 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>14</v>
@@ -5205,13 +5270,13 @@
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>14</v>
@@ -5219,58 +5284,58 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F24" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>303</v>
-      </c>
       <c r="D25" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G25" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="28" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G26" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="35" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -5304,13 +5369,13 @@
     </row>
     <row r="32" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>7</v>
@@ -5320,18 +5385,18 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>9</v>
@@ -5342,13 +5407,13 @@
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>9</v>
@@ -5359,26 +5424,26 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="32" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="18" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
@@ -5412,13 +5477,13 @@
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>7</v>
@@ -5428,18 +5493,18 @@
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>9</v>
@@ -5447,18 +5512,18 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>9</v>
@@ -5466,18 +5531,18 @@
       <c r="E42" s="7"/>
       <c r="F42" s="10"/>
       <c r="G42" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>9</v>
@@ -5485,18 +5550,18 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>9</v>
@@ -5504,18 +5569,18 @@
       <c r="E44" s="7"/>
       <c r="F44" s="10"/>
       <c r="G44" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>9</v>
@@ -5523,18 +5588,18 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>9</v>
@@ -5542,18 +5607,18 @@
       <c r="E46" s="7"/>
       <c r="F46" s="10"/>
       <c r="G46" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>9</v>
@@ -5561,18 +5626,18 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>9</v>
@@ -5580,18 +5645,18 @@
       <c r="E48" s="7"/>
       <c r="F48" s="10"/>
       <c r="G48" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>9</v>
@@ -5599,12 +5664,12 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="35" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
@@ -5638,72 +5703,72 @@
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>394</v>
-      </c>
       <c r="D60" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>9</v>
@@ -5714,13 +5779,13 @@
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>9</v>
@@ -5731,13 +5796,13 @@
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>9</v>
@@ -5748,13 +5813,13 @@
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>9</v>
@@ -5765,13 +5830,13 @@
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>9</v>
@@ -5782,13 +5847,13 @@
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>9</v>
@@ -5799,13 +5864,13 @@
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>9</v>
@@ -5813,18 +5878,18 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>9</v>
@@ -5832,18 +5897,18 @@
       <c r="E68" s="7"/>
       <c r="F68" s="10"/>
       <c r="G68" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>14</v>
@@ -5854,19 +5919,19 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="28" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G70" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="451">
   <si>
     <t>界面字段名</t>
   </si>
@@ -357,72 +357,6 @@
     <t>成本价</t>
   </si>
   <si>
-    <r>
-      <t>保修期限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>保养周期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>设备状态</t>
   </si>
   <si>
@@ -434,10 +368,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>Sleixing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>Sbanben</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -446,26 +376,14 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>选择类型，通过字符串枚举配置</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>Sanzhuangriqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>Sbaoxiudaoqi</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>Schenbenjia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>Sbaoxiuqixian</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -503,14 +421,6 @@
   </si>
   <si>
     <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -713,9 +623,6 @@
     <t>客户科室</t>
   </si>
   <si>
-    <t>设备类型</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
@@ -748,32 +655,6 @@
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">设备信息，记录每一台独立的设备  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_WFSB</t>
-    </r>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -1117,7 +998,51 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>设备名称</t>
+    <t>nvarchar(200)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为主键，不允许重复。</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制错误表  表名：ZZZ_YZCW</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为主键，不允许重复</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属设备</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -1129,71 +1054,11 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>作为主键，不允许重复。</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制错误表  表名：ZZZ_YZCW</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为主键，不允许重复</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属设备</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(200)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBshuoming</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -1873,6 +1738,10 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>YYssbumen</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>nvarchar(200)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -1901,15 +1770,323 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>YYssbumen</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>YYfuwufuzeren</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>服务负责人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">设备序列号信息，记录每一台独立的设备  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：ZZZ_WFSB</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>保修期限</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>保养周期</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>设备信息的设备编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sanzhuangriqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sxinghao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_SBID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常，停用</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBbaoyangzhouqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBdanwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBshengchanchang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编码</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量单位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修期限</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养周期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBchanpinshouming</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品寿命</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售价格</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBxiaoshoujiage</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产厂家</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP编码</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBerpbianma</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBxinghao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBchengbenjia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBbaoxiuqixian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schenbenjia</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1917,7 +2094,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2138,6 +2315,29 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="25">
@@ -2643,7 +2843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2745,6 +2945,32 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -3119,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G133"/>
+  <dimension ref="A3:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3138,7 +3364,7 @@
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -3172,10 +3398,10 @@
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>56</v>
@@ -3191,10 +3417,10 @@
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>56</v>
@@ -3208,10 +3434,10 @@
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>56</v>
@@ -3227,10 +3453,10 @@
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>56</v>
@@ -3244,7 +3470,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>44</v>
@@ -3258,10 +3484,10 @@
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>56</v>
@@ -3275,10 +3501,10 @@
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>56</v>
@@ -3289,7 +3515,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>45</v>
@@ -3303,13 +3529,13 @@
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>41</v>
@@ -3317,7 +3543,7 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>47</v>
@@ -3331,13 +3557,13 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>41</v>
@@ -3345,13 +3571,13 @@
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>41</v>
@@ -3359,64 +3585,64 @@
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="28" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3516,7 +3742,7 @@
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>35</v>
@@ -3533,7 +3759,7 @@
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>36</v>
@@ -3547,7 +3773,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>37</v>
@@ -3584,7 +3810,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>42</v>
@@ -3651,13 +3877,13 @@
     </row>
     <row r="40" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>10</v>
@@ -3668,13 +3894,13 @@
     </row>
     <row r="41" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>14</v>
@@ -3685,16 +3911,16 @@
     </row>
     <row r="42" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="22" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="25"/>
@@ -3710,10 +3936,10 @@
         <v>50</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="10"/>
@@ -3723,10 +3949,10 @@
     </row>
     <row r="44" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>56</v>
@@ -3748,7 +3974,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D45" s="23" t="s">
         <v>14</v>
@@ -3774,7 +4000,7 @@
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>18</v>
@@ -3791,10 +4017,10 @@
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>56</v>
@@ -3808,13 +4034,13 @@
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>14</v>
@@ -3825,10 +4051,10 @@
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>56</v>
@@ -3842,10 +4068,10 @@
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>56</v>
@@ -3859,7 +4085,7 @@
     </row>
     <row r="52" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>19</v>
@@ -3981,8 +4207,8 @@
       <c r="G61" s="5"/>
     </row>
     <row r="64" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="34" t="s">
-        <v>149</v>
+      <c r="A64" s="35" t="s">
+        <v>392</v>
       </c>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
@@ -4015,11 +4241,11 @@
       </c>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
-        <v>12</v>
+      <c r="A66" s="17" t="s">
+        <v>393</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>56</v>
@@ -4038,7 +4264,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>56</v>
@@ -4052,10 +4278,10 @@
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>56</v>
@@ -4069,588 +4295,695 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D69" s="5" t="s">
+    <row r="69" spans="1:7" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="36" t="s">
+        <v>403</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="D69" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="E69" s="38"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="38" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="36" t="s">
+        <v>405</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="38"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="38"/>
+    </row>
+    <row r="71" spans="1:7" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="C71" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="38"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="38"/>
     </row>
     <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16" t="s">
-        <v>71</v>
+        <v>199</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" t="s">
-        <v>24</v>
+        <v>198</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>204</v>
+        <v>401</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
       </c>
       <c r="D75" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="44" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G76" s="45"/>
+    </row>
+    <row r="77" spans="1:7" s="44" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="B77" s="42" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="18" t="s">
+      <c r="C77" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C77" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G77" s="6" t="s">
+      <c r="D77" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G77" s="45"/>
+    </row>
+    <row r="78" spans="1:7" s="44" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" s="43" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="D78" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G78" s="45"/>
     </row>
     <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C79" s="19" t="s">
         <v>56</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>411</v>
       </c>
       <c r="D81" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C83" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+    </row>
+    <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+    </row>
+    <row r="90" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+    </row>
+    <row r="91" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+    </row>
+    <row r="92" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+    </row>
+    <row r="93" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+    </row>
+    <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C94" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+    </row>
+    <row r="95" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C95" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="D95" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+    </row>
+    <row r="96" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="D96" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+    </row>
+    <row r="97" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="D97" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+    </row>
+    <row r="98" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="D98" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" s="7" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-    </row>
-    <row r="84" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="5"/>
+    </row>
+    <row r="101" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+    </row>
+    <row r="102" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F102" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
-    </row>
-    <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-    </row>
-    <row r="88" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="5"/>
-    </row>
-    <row r="90" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-    </row>
-    <row r="91" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7" t="s">
+    <row r="103" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" s="14" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="5"/>
-    </row>
-    <row r="94" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="16" t="s">
-        <v>232</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="5"/>
-    </row>
-    <row r="95" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A95" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="B95" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="5"/>
-    </row>
-    <row r="96" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A96" s="29"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="5"/>
-    </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A97" s="29"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="5"/>
-    </row>
-    <row r="98" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-    </row>
-    <row r="99" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="7"/>
-      <c r="G100" s="5"/>
-    </row>
-    <row r="101" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="7"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>110</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="5"/>
-    </row>
-    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D103" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A104" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B110" s="35"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-    </row>
-    <row r="111" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A106" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A107" s="29"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A108" s="29"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="5"/>
+    </row>
+    <row r="109" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="35"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="35"/>
+    </row>
+    <row r="110" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="111" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" s="7"/>
+      <c r="G111" s="5"/>
+    </row>
     <row r="112" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>145</v>
+      <c r="A112" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="D112" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="7"/>
       <c r="F112" s="7"/>
       <c r="G112" s="5"/>
     </row>
     <row r="113" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>211</v>
+        <v>101</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>56</v>
@@ -4659,275 +4992,378 @@
         <v>9</v>
       </c>
       <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="5"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="114" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="E114" s="7"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B115" s="15" t="s">
+      <c r="F114" s="9"/>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="D115" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="D121" s="35"/>
+      <c r="E121" s="35"/>
+      <c r="F121" s="35"/>
+      <c r="G121" s="35"/>
+    </row>
+    <row r="122" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E115" s="7"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="5"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B116" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="16" t="s">
+      <c r="D123" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" s="7"/>
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B126" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="C126" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E126" s="7"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C117" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="16" t="s">
+      <c r="D127" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B128" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B119" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="16" t="s">
+      <c r="C128" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B129" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="B120" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C120" s="19" t="s">
+      <c r="C129" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B131" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C131" s="19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G121" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C122" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="B126" s="35"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
-      <c r="F126" s="35"/>
-      <c r="G126" s="35"/>
-    </row>
-    <row r="127" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" s="7"/>
-      <c r="G128" s="5"/>
-    </row>
-    <row r="129" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="5"/>
-    </row>
-    <row r="130" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E130" s="7"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="5"/>
-    </row>
-    <row r="131" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="5"/>
     </row>
     <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>58</v>
+        <v>120</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C133" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D133" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C133" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" s="35"/>
+      <c r="C137" s="35"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="35"/>
+    </row>
+    <row r="138" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E141" s="7"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E142" s="7"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="5"/>
+    </row>
+    <row r="143" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A126:G126"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="A137:G137"/>
     <mergeCell ref="A56:G56"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A98:G98"/>
+    <mergeCell ref="A85:G85"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A109:G109"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4971,7 +5407,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -5005,10 +5441,10 @@
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>56</v>
@@ -5024,13 +5460,13 @@
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
@@ -5041,16 +5477,16 @@
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="10"/>
@@ -5058,16 +5494,16 @@
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="9"/>
@@ -5075,47 +5511,47 @@
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="28" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="35" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -5155,7 +5591,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>7</v>
@@ -5165,18 +5601,18 @@
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>9</v>
@@ -5184,15 +5620,15 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>57</v>
@@ -5203,37 +5639,37 @@
       <c r="E18" s="7"/>
       <c r="F18" s="10"/>
       <c r="G18" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>14</v>
@@ -5242,13 +5678,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="28" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>14</v>
@@ -5256,13 +5692,13 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="28" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>14</v>
@@ -5270,13 +5706,13 @@
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="28" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>14</v>
@@ -5284,58 +5720,58 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="28" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="F24" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="28" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G25" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="28" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="G26" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="35" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
@@ -5372,10 +5808,10 @@
         <v>65</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>7</v>
@@ -5385,18 +5821,18 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>9</v>
@@ -5407,10 +5843,10 @@
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>57</v>
@@ -5424,26 +5860,26 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="32" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="18" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="35" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
@@ -5480,10 +5916,10 @@
         <v>65</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>7</v>
@@ -5493,18 +5929,18 @@
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>9</v>
@@ -5512,15 +5948,15 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>57</v>
@@ -5531,18 +5967,18 @@
       <c r="E42" s="7"/>
       <c r="F42" s="10"/>
       <c r="G42" s="7" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>9</v>
@@ -5550,15 +5986,15 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>57</v>
@@ -5569,18 +6005,18 @@
       <c r="E44" s="7"/>
       <c r="F44" s="10"/>
       <c r="G44" s="7" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>9</v>
@@ -5588,15 +6024,15 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>57</v>
@@ -5607,18 +6043,18 @@
       <c r="E46" s="7"/>
       <c r="F46" s="10"/>
       <c r="G46" s="7" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>9</v>
@@ -5626,15 +6062,15 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>57</v>
@@ -5645,18 +6081,18 @@
       <c r="E48" s="7"/>
       <c r="F48" s="10"/>
       <c r="G48" s="7" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>9</v>
@@ -5664,12 +6100,12 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="35" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
@@ -5703,72 +6139,72 @@
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>9</v>
@@ -5779,13 +6215,13 @@
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>9</v>
@@ -5796,13 +6232,13 @@
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>9</v>
@@ -5813,13 +6249,13 @@
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>9</v>
@@ -5830,13 +6266,13 @@
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>9</v>
@@ -5847,13 +6283,13 @@
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>9</v>
@@ -5864,13 +6300,13 @@
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>9</v>
@@ -5878,15 +6314,15 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>366</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>57</v>
@@ -5897,18 +6333,18 @@
       <c r="E68" s="7"/>
       <c r="F68" s="10"/>
       <c r="G68" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>14</v>
@@ -5919,19 +6355,19 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="28" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G70" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="488">
   <si>
     <t>界面字段名</t>
   </si>
@@ -309,10 +309,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>GLKHID</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -389,14 +385,6 @@
   </si>
   <si>
     <t>Sbaoyangzhouqi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Szhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>试用、正式使用、报废、停用</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -744,10 +732,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>zhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>youxiang</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -761,10 +745,6 @@
   </si>
   <si>
     <t>工作地</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属区域</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -1062,32 +1042,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">设备类型信息版本号子表  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_SBLXBASE_BB</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>BBBID</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -1730,10 +1684,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>设备信息维护   表名：ZZZ_SBLXBASE</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>所属部门</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -1775,22 +1725,6 @@
   </si>
   <si>
     <t>服务负责人uaid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">设备序列号信息，记录每一台独立的设备  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：ZZZ_WFSB</t>
-    </r>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -1962,39 +1896,313 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>SBdanwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBshengchanchang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备编码</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量单位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修期限</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>保养周期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBchanpinshouming</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品寿命</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售价格</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBxiaoshoujiage</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产厂家</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP编码</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBerpbianma</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBxinghao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBchengbenjia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBbaoxiuqixian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schenbenjia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">设备信息版本号子表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_SBLXBASE_BB</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零配件信息表  表名：ZZZ_WFLJ</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lguige</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldanwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lpinyin</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>拼音</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lerpbianhao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lchengbenjia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lzuidijia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lshoujia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>售价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lbaoxiuqi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Szhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>试用、正式使用、报废、停用</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">设备序列号信息，记录每一台独立的设备  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：ZZZ_WFSB</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备信息维护   表名：ZZZ_SBLXBASE</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>SBzhuangtai</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>SBdanwei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
+    <t>状态</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -2002,91 +2210,69 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>规格型号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBshengchanchang</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备编码</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>计量单位</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本价</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>保修期限</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>保养周期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBchanpinshouming</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品寿命</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售价格</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBxiaoshoujiage</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产厂家</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP编码</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBerpbianma</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBxinghao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBchengbenjia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SBbaoxiuqixian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schenbenjia</t>
+    <t>正常，停用</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>LID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 是否部门负责人。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门SortID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -2854,9 +3040,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2940,12 +3123,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -2971,6 +3148,15 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -3345,10 +3531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G144"/>
+  <dimension ref="A3:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3359,19 +3545,19 @@
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="79.375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="79.375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="A3" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3396,271 +3582,271 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B15" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="B16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>176</v>
+      <c r="C20" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -3685,153 +3871,153 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="F26" s="6"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="5" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="15" t="s">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="5"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -3856,262 +4042,264 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="22" t="s">
+      <c r="F39" s="6"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="23" t="s">
+      <c r="C40" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="23"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="45" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B49" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="23" t="s">
+      <c r="C49" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" s="23" t="s">
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="26" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="23" t="s">
+      <c r="D50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="27"/>
-    </row>
-    <row r="46" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="23" t="s">
+      <c r="E50" s="6"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="E51" s="6"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13"/>
-    </row>
-    <row r="49" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="4" t="s">
-        <v>60</v>
+      <c r="G52" s="2" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -4136,86 +4324,86 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
+      <c r="D59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
+      <c r="E60" s="6"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="C61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
+      <c r="A64" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -4240,301 +4428,301 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="35"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="35"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="35"/>
+    </row>
+    <row r="71" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="35"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="35"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="7"/>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="36" t="s">
-        <v>403</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>404</v>
-      </c>
-      <c r="C69" s="38" t="s">
-        <v>398</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="38"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="38" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="36" t="s">
-        <v>405</v>
-      </c>
-      <c r="B70" s="41" t="s">
-        <v>397</v>
-      </c>
-      <c r="C70" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="38"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="38"/>
-    </row>
-    <row r="71" spans="1:7" s="40" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="36" t="s">
-        <v>406</v>
-      </c>
-      <c r="B71" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="C71" s="38" t="s">
-        <v>400</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="38"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="38"/>
-    </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="18" t="s">
+      <c r="C74" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
+    </row>
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="C74" s="5" t="s">
+      <c r="B75" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="C75" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="44" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="36" t="s">
+      <c r="D75" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="C76" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G76" s="42"/>
+    </row>
+    <row r="77" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G77" s="42"/>
+    </row>
+    <row r="78" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B78" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G78" s="42"/>
+    </row>
+    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="42" t="s">
-        <v>450</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G76" s="45"/>
-    </row>
-    <row r="77" spans="1:7" s="44" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="B77" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C77" s="43" t="s">
+      <c r="B79" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D77" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G77" s="45"/>
-    </row>
-    <row r="78" spans="1:7" s="44" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="36" t="s">
-        <v>395</v>
-      </c>
-      <c r="B78" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G78" s="45"/>
-    </row>
-    <row r="79" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="16" t="s">
+      <c r="C81" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B80" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G80" s="6" t="s">
+      <c r="B82" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="30" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C82" s="31" t="s">
-        <v>413</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>214</v>
+      <c r="D83" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
+      <c r="A85" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
     </row>
     <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -4560,240 +4748,240 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+      <c r="G88" s="28"/>
+    </row>
+    <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+      <c r="G89" s="28"/>
+    </row>
+    <row r="90" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+    </row>
+    <row r="91" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+    </row>
+    <row r="92" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+    </row>
+    <row r="93" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+    </row>
+    <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+    </row>
+    <row r="95" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+    </row>
+    <row r="96" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B96" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="28"/>
+    </row>
+    <row r="97" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="C87" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="C88" s="17" t="s">
+      <c r="B97" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+    </row>
+    <row r="98" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="D98" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="D88" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="29"/>
-    </row>
-    <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>400</v>
-      </c>
-      <c r="D89" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29"/>
-      <c r="G89" s="29"/>
-    </row>
-    <row r="90" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>420</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>412</v>
-      </c>
-      <c r="D90" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-    </row>
-    <row r="91" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="C91" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="D91" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="29"/>
-    </row>
-    <row r="92" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="C92" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="D92" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
-    </row>
-    <row r="93" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="C93" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="D93" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="E93" s="29"/>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
-    </row>
-    <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="C94" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="D94" s="29" t="s">
-        <v>423</v>
-      </c>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-    </row>
-    <row r="95" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="B95" s="16" t="s">
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="4"/>
+    </row>
+    <row r="101" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="44" t="s">
         <v>441</v>
       </c>
-      <c r="C95" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="D95" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="E95" s="29"/>
-      <c r="F95" s="29"/>
-      <c r="G95" s="29"/>
-    </row>
-    <row r="96" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="C96" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="D96" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-    </row>
-    <row r="97" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="D97" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="E97" s="29"/>
-      <c r="F97" s="29"/>
-      <c r="G97" s="29"/>
-    </row>
-    <row r="98" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>419</v>
-      </c>
-      <c r="C98" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="D98" s="29" t="s">
-        <v>408</v>
-      </c>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="5"/>
-    </row>
-    <row r="101" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="B101" s="35"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
     </row>
     <row r="102" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -4818,552 +5006,760 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="17" t="s">
+    <row r="103" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B103" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C103" s="5" t="s">
+      <c r="D104" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A106" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A107" s="28"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="B108" s="44"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+    </row>
+    <row r="109" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D110" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E110" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="E104" s="5"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A106" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="B106" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A107" s="29"/>
-      <c r="B107" s="30"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="5"/>
-    </row>
-    <row r="108" spans="1:7" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A108" s="29"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="5"/>
-    </row>
-    <row r="109" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="B109" s="35"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="35"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="35"/>
-    </row>
-    <row r="110" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="F110" s="6"/>
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="4"/>
+    </row>
+    <row r="112" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A115" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A116" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A117" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A118" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A119" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A120" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A121" s="28"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="B122" s="44"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+    </row>
+    <row r="123" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="17" t="s">
+    <row r="124" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="6"/>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="6"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E127" s="6"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B134" s="44"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="44"/>
+      <c r="E134" s="44"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="44"/>
+    </row>
+    <row r="135" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" s="6"/>
+      <c r="G136" s="4"/>
+    </row>
+    <row r="137" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="4"/>
+    </row>
+    <row r="138" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B111" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C111" s="5" t="s">
+      <c r="E138" s="6"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D139" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E139" s="6"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C146" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="B150" s="44"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="44"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="44"/>
+    </row>
+    <row r="151" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D152" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E152" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F111" s="7"/>
-      <c r="G111" s="5"/>
-    </row>
-    <row r="112" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C112" s="5" t="s">
+      <c r="F152" s="6"/>
+      <c r="G152" s="4"/>
+    </row>
+    <row r="153" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C153" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D153" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="5"/>
-    </row>
-    <row r="113" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B113" s="15" t="s">
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="4"/>
+    </row>
+    <row r="154" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="7"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E114" s="7"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="5"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B121" s="35"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="35"/>
-      <c r="F121" s="35"/>
-      <c r="G121" s="35"/>
-    </row>
-    <row r="122" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123" s="14" t="s">
+      <c r="E154" s="6"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="4"/>
+    </row>
+    <row r="155" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" s="7"/>
-      <c r="G123" s="5"/>
-    </row>
-    <row r="124" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="5"/>
-    </row>
-    <row r="125" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D125" s="5" t="s">
+      <c r="E155" s="6"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="4"/>
+    </row>
+    <row r="156" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B157" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E125" s="7"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="5"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B128" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C128" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B129" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B130" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C130" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B131" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B132" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C133" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B137" s="35"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="35"/>
-    </row>
-    <row r="138" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" s="7"/>
-      <c r="G139" s="5"/>
-    </row>
-    <row r="140" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B140" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="5"/>
-    </row>
-    <row r="141" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="5"/>
-    </row>
-    <row r="142" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E142" s="7"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="5"/>
-    </row>
-    <row r="143" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B143" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D143" s="5" t="s">
+      <c r="C157" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B144" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="C144" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A24:G24"/>
+  <mergeCells count="11">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A85:G85"/>
     <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="A122:G122"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A134:G134"/>
+    <mergeCell ref="A150:G150"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5406,15 +5802,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="A1" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -5439,126 +5835,126 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C7" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C9" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
+      <c r="A14" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -5583,202 +5979,202 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="C21" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B23" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="B25" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="18" t="s">
+      <c r="C25" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="B21" s="18" t="s">
+      <c r="G25" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="C21" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="B26" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="28" t="s">
-        <v>263</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="B25" s="18" t="s">
+      <c r="D26" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C25" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G25" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="B26" s="18" t="s">
+      <c r="G26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G26" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -5803,90 +6199,90 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="14" t="s">
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -5911,208 +6307,208 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="14" t="s">
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C45" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="7" t="s">
+      <c r="E46" s="6"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C48" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7" t="s">
+      <c r="E48" s="6"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="C49" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="7" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="B47" s="15" t="s">
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
+      <c r="A56" s="44" t="s">
+        <v>364</v>
+      </c>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -6137,237 +6533,237 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7" t="s">
+      <c r="D69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A70" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7" t="s">
+      <c r="D70" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G70" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="B67" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="8" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G70" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="540">
   <si>
     <t>界面字段名</t>
   </si>
@@ -2273,6 +2273,214 @@
   </si>
   <si>
     <t>所属部门</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限分类</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>会签内容</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>待签,已签</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发来源</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录由谁分配的</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录转发时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJyijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJlysj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>会签单主表  表名：ZZZ_HQ</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qjiedanren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人guid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>会签单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>会签单意见表  表名：ZZZ_HQ_YJ</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录结单人编号，选择某个员工</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>已结单,未结单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJqsshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属会签单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>签署人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>签署状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>签署意见</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>签署时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJlaiyuan</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qcjr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> QID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJ_QID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qzhuti</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qfujian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJqianhsuren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qneirong</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>结单人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qaddtime</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -3533,8 +3741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5388,8 +5596,8 @@
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="4" t="s">
-        <v>95</v>
+      <c r="G126" s="6" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5787,8 +5995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6782,12 +6990,375 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>500</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:G12"/>
+  </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
     <sheet name="服务报告" sheetId="2" r:id="rId2"/>
     <sheet name="知识分享、签到、工作计划" sheetId="3" r:id="rId3"/>
     <sheet name="会签" sheetId="5" r:id="rId4"/>
+    <sheet name="返厂单据" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="611">
   <si>
     <t>界面字段名</t>
   </si>
@@ -808,10 +809,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>YYsheng</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -896,32 +893,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">客户信息  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表名：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ZZZ_KHDA</t>
-    </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>Schuchangriqi</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -935,10 +906,6 @@
   </si>
   <si>
     <t>H_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYname</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -2296,19 +2263,195 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>分发来源</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录由谁分配的</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录转发时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJyijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJlysj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>会签单主表  表名：ZZZ_HQ</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qjiedanren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人guid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>会签单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>会签单意见表  表名：ZZZ_HQ_YJ</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录结单人编号，选择某个员工</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJqsshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属会签单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>签署人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>签署状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>签署意见</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>签署时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJlaiyuan</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qcjr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> QID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJ_QID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qzhuti</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qfujian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJqianhsuren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qneirong</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>结单人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qaddtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>待签,已签</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>分发来源</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录由谁分配的</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录转发时间</t>
+    <t>已结单,未结单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdate()</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -2316,75 +2459,43 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>自动生成</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动生成</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YJyijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YJlysj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>会签单主表  表名：ZZZ_HQ</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qjiedanren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人guid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>会签单号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>会签单意见表  表名：ZZZ_HQ_YJ</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YJID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YJzhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录结单人编号，选择某个员工</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>已结单,未结单</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCjisongdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCqurenshoujianren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>guid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(200)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -2392,7 +2503,71 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>YJqsshijian</t>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表id</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshenqingshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshenheshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCwuliugongsi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCfahuoshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FClianxifangshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshoujianren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshoujianshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工填写的</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人的uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人的uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCSsl</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -2404,83 +2579,193 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>返厂单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshenheren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备序列号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录设备序列号表的主键，就是序列号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收货操作人的uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货人的uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCfahuoren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿，提交，审核，在途，收件</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>返厂记录单表-子表  表名：ZZZ_fanchang_sb   记录返厂的具体设备</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCS_FCID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>所属会签单号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>签署人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>签署状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>签署意见</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>签署时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>分发时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YJlaiyuan</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qcjr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> QID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YJ_QID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qzhuti</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qfujian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YJqianhsuren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qneirong</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qzhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>附件</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>结单人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qaddtime</t>
+    <r>
+      <t xml:space="preserve">客户信息  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ZZZ_KHDA</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCwuliudan</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流公司</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄送地址</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收件人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshenqingren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCSID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCSbh</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCSbz</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>返厂记录单表  表名：ZZZ_fanchang</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -3237,7 +3522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3357,14 +3642,20 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -3741,8 +4032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G157"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3757,15 +4048,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="A3" s="45" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -3792,10 +4083,10 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>173</v>
+        <v>588</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>56</v>
@@ -3811,10 +4102,10 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>197</v>
+        <v>589</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -3828,10 +4119,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>56</v>
@@ -3847,10 +4138,10 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>56</v>
@@ -3864,7 +4155,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>44</v>
@@ -3878,10 +4169,10 @@
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
@@ -3895,10 +4186,10 @@
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>56</v>
@@ -3909,7 +4200,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>45</v>
@@ -3923,7 +4214,7 @@
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>46</v>
@@ -3937,7 +4228,7 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>47</v>
@@ -3951,13 +4242,13 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>41</v>
@@ -3965,13 +4256,13 @@
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>41</v>
@@ -3979,41 +4270,41 @@
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="G18" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>167</v>
@@ -4027,7 +4318,7 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>172</v>
@@ -4046,15 +4337,15 @@
       <c r="D21" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -4217,15 +4508,15 @@
       <c r="D35" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -4346,7 +4637,7 @@
         <v>153</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>56</v>
@@ -4411,7 +4702,7 @@
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>158</v>
@@ -4424,8 +4715,8 @@
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-      <c r="G48" s="45" t="s">
-        <v>486</v>
+      <c r="G48" s="43" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -4495,19 +4786,19 @@
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
       <c r="G52" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -4603,15 +4894,15 @@
       <c r="G61" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
+      <c r="A64" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -4638,7 +4929,7 @@
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>137</v>
@@ -4693,13 +4984,13 @@
     </row>
     <row r="69" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D69" s="35" t="s">
         <v>9</v>
@@ -4707,18 +4998,18 @@
       <c r="E69" s="35"/>
       <c r="F69" s="36"/>
       <c r="G69" s="35" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D70" s="35" t="s">
         <v>9</v>
@@ -4729,13 +5020,13 @@
     </row>
     <row r="71" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D71" s="35" t="s">
         <v>9</v>
@@ -4760,10 +5051,10 @@
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>168</v>
@@ -4777,7 +5068,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>77</v>
@@ -4805,10 +5096,10 @@
         <v>71</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D76" s="35" t="s">
         <v>76</v>
@@ -4817,7 +5108,7 @@
     </row>
     <row r="77" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B77" s="39" t="s">
         <v>79</v>
@@ -4832,7 +5123,7 @@
     </row>
     <row r="78" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B78" s="39" t="s">
         <v>80</v>
@@ -4850,7 +5141,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>56</v>
@@ -4859,7 +5150,7 @@
         <v>82</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -4887,7 +5178,7 @@
         <v>88</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>76</v>
@@ -4901,7 +5192,7 @@
         <v>91</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>76</v>
@@ -4918,19 +5209,19 @@
         <v>84</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
+      <c r="A85" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
     </row>
     <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -4957,35 +5248,35 @@
     </row>
     <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
@@ -4993,16 +5284,16 @@
     </row>
     <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
@@ -5010,16 +5301,16 @@
     </row>
     <row r="90" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -5027,16 +5318,16 @@
     </row>
     <row r="91" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -5044,16 +5335,16 @@
     </row>
     <row r="92" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -5061,16 +5352,16 @@
     </row>
     <row r="93" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
@@ -5078,16 +5369,16 @@
     </row>
     <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
@@ -5095,16 +5386,16 @@
     </row>
     <row r="95" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -5112,16 +5403,16 @@
     </row>
     <row r="96" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
@@ -5129,16 +5420,16 @@
     </row>
     <row r="97" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
@@ -5146,50 +5437,50 @@
     </row>
     <row r="98" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
       <c r="G98" s="28" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="4"/>
     </row>
     <row r="101" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="44" t="s">
-        <v>441</v>
-      </c>
-      <c r="B101" s="44"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="44"/>
-      <c r="G101" s="44"/>
+      <c r="A101" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="B101" s="45"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
     </row>
     <row r="102" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -5216,10 +5507,10 @@
     </row>
     <row r="103" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>56</v>
@@ -5232,21 +5523,21 @@
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="6"/>
@@ -5254,16 +5545,16 @@
     </row>
     <row r="105" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B105" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="D105" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -5271,16 +5562,16 @@
     </row>
     <row r="106" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="B106" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -5296,15 +5587,15 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="B108" s="44"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
+      <c r="A108" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
     </row>
     <row r="109" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -5331,10 +5622,10 @@
     </row>
     <row r="110" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>56</v>
@@ -5350,10 +5641,10 @@
     </row>
     <row r="111" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>56</v>
@@ -5367,16 +5658,16 @@
     </row>
     <row r="112" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="9"/>
@@ -5386,16 +5677,16 @@
     </row>
     <row r="113" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="8"/>
@@ -5403,10 +5694,10 @@
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>118</v>
@@ -5417,89 +5708,89 @@
     </row>
     <row r="115" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="28" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="28" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C116" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A117" s="28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C117" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A118" s="28" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A119" s="31" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="B120" s="17" t="s">
         <v>479</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>482</v>
-      </c>
       <c r="C120" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -5512,15 +5803,15 @@
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="B122" s="44"/>
-      <c r="C122" s="44"/>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
+      <c r="A122" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B122" s="45"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
     </row>
     <row r="123" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
@@ -5547,7 +5838,7 @@
     </row>
     <row r="124" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A124" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>96</v>
@@ -5597,7 +5888,7 @@
       <c r="E126" s="6"/>
       <c r="F126" s="9"/>
       <c r="G126" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5632,15 +5923,15 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="43" t="s">
+      <c r="A134" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="B134" s="44"/>
-      <c r="C134" s="44"/>
-      <c r="D134" s="44"/>
-      <c r="E134" s="44"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="44"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
     </row>
     <row r="135" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
@@ -5689,7 +5980,7 @@
         <v>28</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>56</v>
@@ -5712,7 +6003,7 @@
         <v>56</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="9"/>
@@ -5731,7 +6022,7 @@
         <v>56</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="8"/>
@@ -5748,7 +6039,7 @@
         <v>120</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5762,7 +6053,7 @@
         <v>114</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -5817,22 +6108,22 @@
         <v>13</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C146" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="43" t="s">
+      <c r="A150" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B150" s="44"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="44"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="44"/>
-      <c r="G150" s="44"/>
+      <c r="B150" s="45"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="45"/>
     </row>
     <row r="151" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
@@ -5898,7 +6189,7 @@
         <v>149</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>57</v>
@@ -5946,7 +6237,7 @@
         <v>152</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C157" s="18" t="s">
         <v>84</v>
@@ -5957,6 +6248,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A134:G134"/>
+    <mergeCell ref="A150:G150"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A85:G85"/>
@@ -5964,10 +6259,6 @@
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A108:G108"/>
     <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A134:G134"/>
-    <mergeCell ref="A150:G150"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5996,7 +6287,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD49"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6010,15 +6301,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="A1" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6045,10 +6336,10 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -6064,13 +6355,13 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -6081,16 +6372,16 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="9"/>
@@ -6098,16 +6389,16 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="D6" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8"/>
@@ -6115,54 +6406,54 @@
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="A14" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -6195,7 +6486,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>7</v>
@@ -6205,18 +6496,18 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>9</v>
@@ -6224,15 +6515,15 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>57</v>
@@ -6243,37 +6534,37 @@
       <c r="E18" s="6"/>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8"/>
       <c r="G19" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>14</v>
@@ -6282,13 +6573,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="27" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
@@ -6296,13 +6587,13 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>14</v>
@@ -6310,13 +6601,13 @@
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>14</v>
@@ -6324,65 +6615,65 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="27" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>280</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G25" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G26" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
+      <c r="A30" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -6412,10 +6703,10 @@
         <v>64</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>7</v>
@@ -6425,18 +6716,18 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>9</v>
@@ -6447,10 +6738,10 @@
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>57</v>
@@ -6464,33 +6755,33 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="31" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
+      <c r="A38" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -6520,10 +6811,10 @@
         <v>64</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>7</v>
@@ -6533,18 +6824,18 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
@@ -6552,15 +6843,15 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>57</v>
@@ -6571,18 +6862,18 @@
       <c r="E42" s="6"/>
       <c r="F42" s="9"/>
       <c r="G42" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>9</v>
@@ -6590,15 +6881,15 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>57</v>
@@ -6609,18 +6900,18 @@
       <c r="E44" s="6"/>
       <c r="F44" s="9"/>
       <c r="G44" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
@@ -6628,15 +6919,15 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>57</v>
@@ -6647,18 +6938,18 @@
       <c r="E46" s="6"/>
       <c r="F46" s="9"/>
       <c r="G46" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
@@ -6666,15 +6957,15 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>57</v>
@@ -6685,18 +6976,18 @@
       <c r="E48" s="6"/>
       <c r="F48" s="9"/>
       <c r="G48" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>9</v>
@@ -6704,19 +6995,19 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
+      <c r="A56" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -6743,72 +7034,72 @@
     </row>
     <row r="58" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="D60" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>9</v>
@@ -6819,13 +7110,13 @@
     </row>
     <row r="62" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>9</v>
@@ -6836,13 +7127,13 @@
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>9</v>
@@ -6853,13 +7144,13 @@
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>9</v>
@@ -6870,13 +7161,13 @@
     </row>
     <row r="65" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>9</v>
@@ -6887,13 +7178,13 @@
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>9</v>
@@ -6904,13 +7195,13 @@
     </row>
     <row r="67" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>9</v>
@@ -6918,15 +7209,15 @@
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>57</v>
@@ -6937,18 +7228,18 @@
       <c r="E68" s="6"/>
       <c r="F68" s="9"/>
       <c r="G68" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B69" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>336</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>14</v>
@@ -6959,19 +7250,19 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="27" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G70" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -6992,8 +7283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7006,15 +7297,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
-        <v>502</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="A1" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -7041,13 +7332,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -7057,18 +7348,18 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -7079,13 +7370,13 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -7096,13 +7387,13 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -7113,10 +7404,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>57</v>
@@ -7127,15 +7418,15 @@
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>57</v>
@@ -7146,15 +7437,15 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
@@ -7162,28 +7453,28 @@
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
-        <v>510</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="A12" s="45" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -7210,10 +7501,10 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>57</v>
@@ -7226,15 +7517,15 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>57</v>
@@ -7248,13 +7539,13 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>9</v>
@@ -7265,16 +7556,16 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>512</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>518</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -7282,13 +7573,13 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
@@ -7296,21 +7587,21 @@
       <c r="E18" s="6"/>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>516</v>
+        <v>114</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="9"/>
@@ -7318,40 +7609,40 @@
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="9"/>
       <c r="G20" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -7362,4 +7653,467 @@
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>610</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>579</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="46" t="s">
+        <v>595</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="46" t="s">
+        <v>596</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="46" t="s">
+        <v>597</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>556</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="27" t="s">
+        <v>603</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="G17" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="G18" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="45" t="s">
+        <v>582</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>608</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A21:G21"/>
+  </mergeCells>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -2483,10 +2483,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>FCjisongdizhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>FCqurenshoujianren</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -2511,30 +2507,10 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>FCshenqingshijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>FCshenheshijian</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>FCwuliugongsi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCfahuoshijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FClianxifangshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCshoujianren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>FCshoujianshijian</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -2623,15 +2599,11 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>草稿，提交，审核，在途，收件</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>返厂记录单表-子表  表名：ZZZ_fanchang_sb   记录返厂的具体设备</t>
+    <t>FCshenqingren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCzhuangtai</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -2689,83 +2661,111 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>审核时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流公司</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄送地址</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收件人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCSID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCSbh</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCSbz</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCfahuoshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCjisongdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FClianxifangshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshoujianren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>返厂记录单表-子表  表名：ZZZ_fanchang_sb   记录返厂的具体设备</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿，提交，审核，在途，收件</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>FCwuliudan</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>审核时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流单号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流公司</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄送地址</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认收件人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCshenqingren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCzhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCSID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCSbh</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCSbz</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FC_YYID</t>
+    <t>FCwuliugongsi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCID</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>返厂记录单表  表名：ZZZ_fanchang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshenqingshijian</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -4049,7 +4049,7 @@
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="45" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -4086,7 +4086,7 @@
         <v>180</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>56</v>
@@ -4105,7 +4105,7 @@
         <v>181</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -7660,7 +7660,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7675,7 +7675,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -7709,13 +7709,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -7733,10 +7733,10 @@
         <v>180</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>136</v>
@@ -7744,26 +7744,26 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -7771,10 +7771,10 @@
         <v>536</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>552</v>
+        <v>610</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
@@ -7787,10 +7787,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>57</v>
@@ -7801,15 +7801,15 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>114</v>
@@ -7825,10 +7825,10 @@
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>57</v>
@@ -7842,10 +7842,10 @@
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>554</v>
+        <v>607</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>57</v>
@@ -7859,10 +7859,10 @@
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>57</v>
@@ -7873,18 +7873,18 @@
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="46" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>555</v>
+        <v>599</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>165</v>
@@ -7892,10 +7892,10 @@
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="46" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>545</v>
+        <v>600</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>57</v>
@@ -7906,10 +7906,10 @@
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="46" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>556</v>
+        <v>601</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>57</v>
@@ -7920,10 +7920,10 @@
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="46" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>557</v>
+        <v>602</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>57</v>
@@ -7932,15 +7932,15 @@
         <v>165</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>57</v>
@@ -7951,10 +7951,10 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>57</v>
@@ -7963,15 +7963,15 @@
         <v>541</v>
       </c>
       <c r="G17" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>57</v>
@@ -7980,12 +7980,12 @@
         <v>544</v>
       </c>
       <c r="G18" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="45" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
@@ -8019,13 +8019,13 @@
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>7</v>
@@ -8035,18 +8035,18 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>544</v>
@@ -8054,40 +8054,40 @@
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="9"/>
@@ -8095,13 +8095,13 @@
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="27" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>165</v>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -2483,10 +2483,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>FCqurenshoujianren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>guid</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -2511,10 +2507,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>FCshoujianshijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar(50)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -2568,10 +2560,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCshenheren</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -2766,6 +2754,18 @@
   </si>
   <si>
     <t>FCshenqingshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshenheren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshoujianshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCqurenshoujianren</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -4049,7 +4049,7 @@
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="45" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -4086,7 +4086,7 @@
         <v>180</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>56</v>
@@ -4105,7 +4105,7 @@
         <v>181</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -7660,7 +7660,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7675,7 +7675,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="45"/>
@@ -7709,13 +7709,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -7733,10 +7733,10 @@
         <v>180</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>136</v>
@@ -7744,26 +7744,26 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -7771,10 +7771,10 @@
         <v>536</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
@@ -7787,10 +7787,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>567</v>
+        <v>608</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>57</v>
@@ -7801,15 +7801,15 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>114</v>
@@ -7825,10 +7825,10 @@
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>57</v>
@@ -7842,10 +7842,10 @@
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>57</v>
@@ -7859,10 +7859,10 @@
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>57</v>
@@ -7873,18 +7873,18 @@
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="46" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>165</v>
@@ -7892,10 +7892,10 @@
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="46" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>57</v>
@@ -7906,10 +7906,10 @@
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="46" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>57</v>
@@ -7920,10 +7920,10 @@
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="46" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>57</v>
@@ -7932,15 +7932,15 @@
         <v>165</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>552</v>
+        <v>609</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>57</v>
@@ -7951,10 +7951,10 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>57</v>
@@ -7963,15 +7963,15 @@
         <v>541</v>
       </c>
       <c r="G17" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>57</v>
@@ -7980,12 +7980,12 @@
         <v>544</v>
       </c>
       <c r="G18" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="45" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
@@ -8019,13 +8019,13 @@
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>7</v>
@@ -8035,18 +8035,18 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>544</v>
@@ -8054,40 +8054,40 @@
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>560</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="9"/>
@@ -8095,13 +8095,13 @@
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="27" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>165</v>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="知识分享、签到、工作计划" sheetId="3" r:id="rId3"/>
     <sheet name="会签" sheetId="5" r:id="rId4"/>
     <sheet name="返厂单据" sheetId="6" r:id="rId5"/>
+    <sheet name="情报管理" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="664">
   <si>
     <t>界面字段名</t>
   </si>
@@ -355,10 +356,6 @@
   </si>
   <si>
     <t>设备状态</t>
-  </si>
-  <si>
-    <t>S_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Skeshi</t>
@@ -2491,30 +2488,26 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表id</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshenheshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>datetime</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表id</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCshenheshijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>单号</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -2535,10 +2528,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -2572,10 +2561,6 @@
   </si>
   <si>
     <t>申请人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认收货操作人的uaid</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -2637,11 +2622,334 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>YYname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流公司</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄送地址</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收件人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCSID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCSbh</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCSbz</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCfahuoshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCjisongdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FClianxifangshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshoujianren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>返厂记录单表-子表  表名：ZZZ_fanchang_sb   记录返厂的具体设备</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿，提交，审核，在途，收件</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCwuliudan</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCwuliugongsi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>返厂记录单表  表名：ZZZ_fanchang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshenqingshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshenheren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCshoujianshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCqurenshoujianren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>YYID</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>YYname</t>
+    <t>S_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>未成交客户信息  表名：ZZZ_KHDA_wcj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">客户联系人信息  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：ZZZ_KHLXR_wcj</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>uid</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>K_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备品牌</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用资料2</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用资料3</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收货操作人的uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交人的uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBbakb</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBbakc</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户情报信息  表名：ZZZ_KHDA_QB</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBleibie</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBlaiyuan</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nvarchar(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0)</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBpinpai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBmiaoshu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBcxl</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBcgfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBbaka</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBtjr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>情报编号</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -2649,123 +2957,91 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>审核时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流单号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>物流公司</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄送地址</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认收件人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCSID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCSbh</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCSbz</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FC_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCfahuoshijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCjisongdizhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FClianxifangshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCshoujianren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>返厂记录单表-子表  表名：ZZZ_fanchang_sb   记录返厂的具体设备</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿，提交，审核，在途，收件</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCwuliudan</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCwuliugongsi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>返厂记录单表  表名：ZZZ_fanchang</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCshenqingshijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCshenheren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCshoujianshijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>FCqurenshoujianren</t>
+    <t>情报来源</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>已成交，未成交</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>情报描述</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>年采血量</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QB_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nvarchar(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0)</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>情报设备</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBsb</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>QBname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购负责人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用资料1</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>档案类型</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -3645,17 +3921,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="70">
@@ -4032,8 +4308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4048,15 +4324,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
-        <v>577</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="A3" s="47" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -4083,10 +4359,10 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>56</v>
@@ -4102,10 +4378,10 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -4119,10 +4395,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>56</v>
@@ -4138,10 +4414,10 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>56</v>
@@ -4155,7 +4431,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>44</v>
@@ -4169,10 +4445,10 @@
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
@@ -4186,10 +4462,10 @@
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>56</v>
@@ -4200,7 +4476,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>45</v>
@@ -4214,13 +4490,13 @@
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>41</v>
@@ -4228,7 +4504,7 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>47</v>
@@ -4242,13 +4518,13 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>41</v>
@@ -4256,13 +4532,13 @@
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>41</v>
@@ -4270,64 +4546,64 @@
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>371</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>372</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="D18" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -4337,15 +4613,15 @@
       <c r="D21" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -4427,7 +4703,7 @@
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>35</v>
@@ -4444,7 +4720,7 @@
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>36</v>
@@ -4458,7 +4734,7 @@
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>37</v>
@@ -4495,7 +4771,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>42</v>
@@ -4508,15 +4784,15 @@
       <c r="D35" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -4562,13 +4838,13 @@
     </row>
     <row r="40" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>10</v>
@@ -4579,13 +4855,13 @@
     </row>
     <row r="41" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>14</v>
@@ -4596,16 +4872,16 @@
     </row>
     <row r="42" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="24"/>
@@ -4621,10 +4897,10 @@
         <v>50</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="9"/>
@@ -4634,10 +4910,10 @@
     </row>
     <row r="44" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>56</v>
@@ -4659,7 +4935,7 @@
         <v>20</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>14</v>
@@ -4685,7 +4961,7 @@
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>18</v>
@@ -4702,10 +4978,10 @@
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>56</v>
@@ -4716,18 +4992,18 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>14</v>
@@ -4738,10 +5014,10 @@
     </row>
     <row r="50" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>56</v>
@@ -4755,10 +5031,10 @@
     </row>
     <row r="51" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>56</v>
@@ -4772,7 +5048,7 @@
     </row>
     <row r="52" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>19</v>
@@ -4786,19 +5062,19 @@
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
       <c r="G52" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -4894,15 +5170,15 @@
       <c r="G61" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="45" t="s">
-        <v>472</v>
-      </c>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="45"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="45"/>
+      <c r="A64" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -4929,10 +5205,10 @@
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>56</v>
@@ -4951,7 +5227,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>73</v>
+        <v>607</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>56</v>
@@ -4965,10 +5241,10 @@
     </row>
     <row r="68" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>56</v>
@@ -4984,13 +5260,13 @@
     </row>
     <row r="69" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="B69" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="B69" s="34" t="s">
-        <v>393</v>
-      </c>
       <c r="C69" s="35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D69" s="35" t="s">
         <v>9</v>
@@ -4998,18 +5274,18 @@
       <c r="E69" s="35"/>
       <c r="F69" s="36"/>
       <c r="G69" s="35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D70" s="35" t="s">
         <v>9</v>
@@ -5020,13 +5296,13 @@
     </row>
     <row r="71" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D71" s="35" t="s">
         <v>9</v>
@@ -5040,27 +5316,27 @@
         <v>68</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5068,13 +5344,13 @@
         <v>69</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5082,13 +5358,13 @@
         <v>70</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -5096,43 +5372,43 @@
         <v>71</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G76" s="42"/>
     </row>
     <row r="77" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G77" s="42"/>
     </row>
     <row r="78" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D78" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G78" s="42"/>
     </row>
@@ -5141,87 +5417,87 @@
         <v>72</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="17" t="s">
-        <v>91</v>
-      </c>
       <c r="C82" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="45" t="s">
-        <v>474</v>
-      </c>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="45"/>
-      <c r="F85" s="45"/>
-      <c r="G85" s="45"/>
+      <c r="A85" s="47" t="s">
+        <v>473</v>
+      </c>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
     </row>
     <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -5248,35 +5524,35 @@
     </row>
     <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="B87" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="B87" s="16" t="s">
-        <v>420</v>
-      </c>
       <c r="C87" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
@@ -5284,16 +5560,16 @@
     </row>
     <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
@@ -5301,16 +5577,16 @@
     </row>
     <row r="90" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -5318,16 +5594,16 @@
     </row>
     <row r="91" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -5335,16 +5611,16 @@
     </row>
     <row r="92" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -5352,16 +5628,16 @@
     </row>
     <row r="93" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
@@ -5369,16 +5645,16 @@
     </row>
     <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
@@ -5386,16 +5662,16 @@
     </row>
     <row r="95" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B95" s="15" t="s">
         <v>427</v>
       </c>
-      <c r="B95" s="15" t="s">
-        <v>428</v>
-      </c>
       <c r="C95" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -5403,16 +5679,16 @@
     </row>
     <row r="96" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
@@ -5420,16 +5696,16 @@
     </row>
     <row r="97" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B97" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>431</v>
-      </c>
       <c r="C97" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
@@ -5437,50 +5713,50 @@
     </row>
     <row r="98" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
       <c r="G98" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="4"/>
     </row>
     <row r="101" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="45" t="s">
-        <v>438</v>
-      </c>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45"/>
-      <c r="G101" s="45"/>
+      <c r="A101" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="B101" s="47"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="47"/>
+      <c r="G101" s="47"/>
     </row>
     <row r="102" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -5507,10 +5783,10 @@
     </row>
     <row r="103" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>56</v>
@@ -5523,21 +5799,21 @@
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="6"/>
@@ -5545,16 +5821,16 @@
     </row>
     <row r="105" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -5562,16 +5838,16 @@
     </row>
     <row r="106" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C106" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B106" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>217</v>
-      </c>
       <c r="D106" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -5587,15 +5863,15 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="45" t="s">
-        <v>439</v>
-      </c>
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
+      <c r="A108" s="47" t="s">
+        <v>438</v>
+      </c>
+      <c r="B108" s="47"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="47"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="47"/>
     </row>
     <row r="109" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -5622,10 +5898,10 @@
     </row>
     <row r="110" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>56</v>
@@ -5641,10 +5917,10 @@
     </row>
     <row r="111" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B111" s="14" t="s">
         <v>441</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>442</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>56</v>
@@ -5658,35 +5934,35 @@
     </row>
     <row r="112" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B112" s="14" t="s">
         <v>443</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>444</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="9"/>
       <c r="G112" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B113" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="B113" s="14" t="s">
-        <v>446</v>
-      </c>
       <c r="C113" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="8"/>
@@ -5694,13 +5970,13 @@
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>14</v>
@@ -5708,89 +5984,89 @@
     </row>
     <row r="115" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A117" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A118" s="28" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A119" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -5803,15 +6079,15 @@
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="B122" s="45"/>
-      <c r="C122" s="45"/>
-      <c r="D122" s="45"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="45"/>
+      <c r="A122" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
     </row>
     <row r="123" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
@@ -5838,10 +6114,10 @@
     </row>
     <row r="124" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A124" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>56</v>
@@ -5857,10 +6133,10 @@
     </row>
     <row r="125" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>56</v>
@@ -5874,10 +6150,10 @@
     </row>
     <row r="126" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>56</v>
@@ -5888,21 +6164,21 @@
       <c r="E126" s="6"/>
       <c r="F126" s="9"/>
       <c r="G126" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="8"/>
@@ -5913,25 +6189,25 @@
         <v>13</v>
       </c>
       <c r="B128" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B134" s="45"/>
-      <c r="C134" s="45"/>
-      <c r="D134" s="45"/>
-      <c r="E134" s="45"/>
-      <c r="F134" s="45"/>
-      <c r="G134" s="45"/>
+      <c r="A134" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B134" s="47"/>
+      <c r="C134" s="47"/>
+      <c r="D134" s="47"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
     </row>
     <row r="135" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
@@ -5958,10 +6234,10 @@
     </row>
     <row r="136" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A136" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>56</v>
@@ -5980,7 +6256,7 @@
         <v>28</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>56</v>
@@ -5994,35 +6270,35 @@
     </row>
     <row r="138" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="9"/>
       <c r="G138" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="8"/>
@@ -6030,60 +6306,60 @@
     </row>
     <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A141" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C141" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A143" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C143" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A144" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C144" s="18" t="s">
         <v>56</v>
@@ -6091,16 +6367,16 @@
     </row>
     <row r="145" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A145" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C145" s="18" t="s">
         <v>56</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -6108,22 +6384,22 @@
         <v>13</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C146" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B150" s="45"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="45"/>
+      <c r="A150" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B150" s="47"/>
+      <c r="C150" s="47"/>
+      <c r="D150" s="47"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="47"/>
+      <c r="G150" s="47"/>
     </row>
     <row r="151" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
@@ -6150,10 +6426,10 @@
     </row>
     <row r="152" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A152" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B152" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>56</v>
@@ -6169,10 +6445,10 @@
     </row>
     <row r="153" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>56</v>
@@ -6186,16 +6462,16 @@
     </row>
     <row r="154" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="9"/>
@@ -6203,16 +6479,16 @@
     </row>
     <row r="155" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="8"/>
@@ -6220,13 +6496,13 @@
     </row>
     <row r="156" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>58</v>
@@ -6234,13 +6510,13 @@
     </row>
     <row r="157" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C157" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>58</v>
@@ -6301,15 +6577,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="A1" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6336,10 +6612,10 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -6355,13 +6631,13 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -6372,16 +6648,16 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="9"/>
@@ -6389,16 +6665,16 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8"/>
@@ -6406,54 +6682,54 @@
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
+      <c r="A14" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -6486,7 +6762,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>7</v>
@@ -6496,18 +6772,18 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>9</v>
@@ -6515,15 +6791,15 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>57</v>
@@ -6534,37 +6810,37 @@
       <c r="E18" s="6"/>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>267</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>268</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8"/>
       <c r="G19" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>14</v>
@@ -6573,13 +6849,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
@@ -6587,13 +6863,13 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>14</v>
@@ -6601,13 +6877,13 @@
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>14</v>
@@ -6615,65 +6891,65 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F24" t="s">
         <v>260</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F24" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="G25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G26" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="47" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -6703,10 +6979,10 @@
         <v>64</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>7</v>
@@ -6716,18 +6992,18 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>9</v>
@@ -6738,10 +7014,10 @@
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>57</v>
@@ -6755,33 +7031,33 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
+      <c r="A38" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -6811,10 +7087,10 @@
         <v>64</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>7</v>
@@ -6824,18 +7100,18 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
@@ -6843,15 +7119,15 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>57</v>
@@ -6862,18 +7138,18 @@
       <c r="E42" s="6"/>
       <c r="F42" s="9"/>
       <c r="G42" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>9</v>
@@ -6881,15 +7157,15 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>57</v>
@@ -6900,18 +7176,18 @@
       <c r="E44" s="6"/>
       <c r="F44" s="9"/>
       <c r="G44" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
@@ -6919,15 +7195,15 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>57</v>
@@ -6938,18 +7214,18 @@
       <c r="E46" s="6"/>
       <c r="F46" s="9"/>
       <c r="G46" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
@@ -6957,15 +7233,15 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>57</v>
@@ -6976,18 +7252,18 @@
       <c r="E48" s="6"/>
       <c r="F48" s="9"/>
       <c r="G48" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>9</v>
@@ -6995,19 +7271,19 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="45" t="s">
-        <v>361</v>
-      </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="45"/>
+      <c r="A56" s="47" t="s">
+        <v>360</v>
+      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -7034,72 +7310,72 @@
     </row>
     <row r="58" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>366</v>
-      </c>
       <c r="C60" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>9</v>
@@ -7110,13 +7386,13 @@
     </row>
     <row r="62" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>9</v>
@@ -7127,13 +7403,13 @@
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>9</v>
@@ -7144,13 +7420,13 @@
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>9</v>
@@ -7161,13 +7437,13 @@
     </row>
     <row r="65" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>9</v>
@@ -7178,13 +7454,13 @@
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>9</v>
@@ -7195,13 +7471,13 @@
     </row>
     <row r="67" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>9</v>
@@ -7209,15 +7485,15 @@
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>57</v>
@@ -7228,18 +7504,18 @@
       <c r="E68" s="6"/>
       <c r="F68" s="9"/>
       <c r="G68" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>14</v>
@@ -7250,19 +7526,19 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B70" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G70" t="s">
         <v>362</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="G70" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -7297,15 +7573,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>498</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="A1" s="47" t="s">
+        <v>497</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -7332,13 +7608,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -7348,18 +7624,18 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -7370,13 +7646,13 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -7387,13 +7663,13 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -7404,10 +7680,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>57</v>
@@ -7418,15 +7694,15 @@
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>57</v>
@@ -7437,15 +7713,15 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
@@ -7453,28 +7729,28 @@
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="45" t="s">
-        <v>506</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="A12" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -7501,10 +7777,10 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>57</v>
@@ -7517,15 +7793,15 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>57</v>
@@ -7539,13 +7815,13 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>9</v>
@@ -7556,16 +7832,16 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -7573,13 +7849,13 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
@@ -7587,21 +7863,21 @@
       <c r="E18" s="6"/>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="9"/>
@@ -7609,40 +7885,40 @@
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="9"/>
       <c r="G20" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -7659,8 +7935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7674,15 +7950,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>606</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="A1" s="47" t="s">
+        <v>601</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -7709,13 +7985,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -7725,116 +8001,116 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>571</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="9"/>
       <c r="G8" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
@@ -7842,16 +8118,16 @@
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
@@ -7859,140 +8135,140 @@
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="46" t="s">
-        <v>584</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>596</v>
+      <c r="A12" s="44" t="s">
+        <v>579</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>591</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>547</v>
+        <v>11</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="46" t="s">
-        <v>585</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>597</v>
+      <c r="A13" s="44" t="s">
+        <v>580</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>592</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="46" t="s">
-        <v>586</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>598</v>
+      <c r="A14" s="44" t="s">
+        <v>581</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>593</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="46" t="s">
-        <v>587</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>599</v>
+      <c r="A15" s="44" t="s">
+        <v>582</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>594</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G17" t="s">
-        <v>568</v>
+        <v>627</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G18" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="45" t="s">
-        <v>600</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="A21" s="47" t="s">
+        <v>595</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -8019,13 +8295,13 @@
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>7</v>
@@ -8035,59 +8311,59 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>557</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>560</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="9"/>
@@ -8095,16 +8371,16 @@
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="27" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -8116,4 +8392,790 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
+        <v>608</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="31"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="4"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="47" t="s">
+        <v>609</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="31"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="4"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+    </row>
+    <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="31" t="s">
+        <v>661</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="31" t="s">
+        <v>617</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="31" t="s">
+        <v>652</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A36:G36"/>
+  </mergeCells>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -1368,14 +1368,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>重复签到允许的时间间隔</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复间隔</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>DDdizhi</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -1396,10 +1388,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>上班有效签到开始时间，只对上下班类型有效，此时间段之外不允许签到</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>上班有效签到结束时间，只对上下班类型有效，此时间段之外不允许签到</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -1428,9 +1416,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>上班迟到开始时间，只对上下班类型有效，此时间段内签到会被判定为迟到</t>
-  </si>
-  <si>
     <t>上班迟到结束时间，只对上下班类型有效，此时间段内签到会被判定为迟到</t>
   </si>
   <si>
@@ -1440,10 +1425,6 @@
     <t>下班早退结束时间，只对上下班类型有效，此时间段内签到会被判定为早退</t>
   </si>
   <si>
-    <t>上班迟到开始</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>上班迟到结束</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -1453,14 +1434,6 @@
   </si>
   <si>
     <t>下班早退结束</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>上班签到开始</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>上班签到结束</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -3042,6 +3015,34 @@
   </si>
   <si>
     <t>档案类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班有效签到开始时间，只对上下班类型有效，此时间段之外不允许签到</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班签到开始</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复间隔</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复签到允许的时间间隔</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班签到结束</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班迟到开始</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上班迟到开始时间，只对上下班类型有效，此时间段内签到会被判定为迟到</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -4325,7 +4326,7 @@
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="47" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -4362,7 +4363,7 @@
         <v>179</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>56</v>
@@ -4381,7 +4382,7 @@
         <v>180</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -4524,7 +4525,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>41</v>
@@ -4538,7 +4539,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>41</v>
@@ -4546,36 +4547,36 @@
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -4913,7 +4914,7 @@
         <v>152</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>56</v>
@@ -4978,7 +4979,7 @@
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>157</v>
@@ -4992,7 +4993,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="43" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5062,7 +5063,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
       <c r="G52" s="2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5171,7 +5172,7 @@
     </row>
     <row r="64" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="47" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B64" s="47"/>
       <c r="C64" s="47"/>
@@ -5205,7 +5206,7 @@
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>136</v>
@@ -5227,7 +5228,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>56</v>
@@ -5260,13 +5261,13 @@
     </row>
     <row r="69" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D69" s="35" t="s">
         <v>9</v>
@@ -5274,18 +5275,18 @@
       <c r="E69" s="35"/>
       <c r="F69" s="36"/>
       <c r="G69" s="35" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D70" s="35" t="s">
         <v>9</v>
@@ -5296,13 +5297,13 @@
     </row>
     <row r="71" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D71" s="35" t="s">
         <v>9</v>
@@ -5344,7 +5345,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>76</v>
@@ -5372,7 +5373,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>187</v>
@@ -5384,7 +5385,7 @@
     </row>
     <row r="77" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B77" s="39" t="s">
         <v>78</v>
@@ -5399,7 +5400,7 @@
     </row>
     <row r="78" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B78" s="39" t="s">
         <v>79</v>
@@ -5417,7 +5418,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>56</v>
@@ -5426,7 +5427,7 @@
         <v>81</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5454,7 +5455,7 @@
         <v>87</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>75</v>
@@ -5468,7 +5469,7 @@
         <v>90</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>75</v>
@@ -5490,7 +5491,7 @@
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="47" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B85" s="47"/>
       <c r="C85" s="47"/>
@@ -5524,13 +5525,13 @@
     </row>
     <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>204</v>
@@ -5543,16 +5544,16 @@
     </row>
     <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
@@ -5560,16 +5561,16 @@
     </row>
     <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
@@ -5577,16 +5578,16 @@
     </row>
     <row r="90" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -5594,16 +5595,16 @@
     </row>
     <row r="91" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -5611,16 +5612,16 @@
     </row>
     <row r="92" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -5628,16 +5629,16 @@
     </row>
     <row r="93" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C93" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="D93" s="28" t="s">
         <v>403</v>
-      </c>
-      <c r="D93" s="28" t="s">
-        <v>410</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
@@ -5645,16 +5646,16 @@
     </row>
     <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C94" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="D94" s="28" t="s">
         <v>402</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>409</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
@@ -5662,16 +5663,16 @@
     </row>
     <row r="95" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -5679,16 +5680,16 @@
     </row>
     <row r="96" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
@@ -5696,16 +5697,16 @@
     </row>
     <row r="97" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
@@ -5713,29 +5714,29 @@
     </row>
     <row r="98" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
       <c r="G98" s="28" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>203</v>
@@ -5749,7 +5750,7 @@
     </row>
     <row r="101" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="47" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B101" s="47"/>
       <c r="C101" s="47"/>
@@ -5864,7 +5865,7 @@
     </row>
     <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="47" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B108" s="47"/>
       <c r="C108" s="47"/>
@@ -5898,10 +5899,10 @@
     </row>
     <row r="110" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>56</v>
@@ -5917,10 +5918,10 @@
     </row>
     <row r="111" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>56</v>
@@ -5934,16 +5935,16 @@
     </row>
     <row r="112" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="9"/>
@@ -5953,16 +5954,16 @@
     </row>
     <row r="113" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="8"/>
@@ -5970,10 +5971,10 @@
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>117</v>
@@ -5984,89 +5985,89 @@
     </row>
     <row r="115" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="28" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="28" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A117" s="28" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A118" s="28" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A119" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="31" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -6164,7 +6165,7 @@
       <c r="E126" s="6"/>
       <c r="F126" s="9"/>
       <c r="G126" s="6" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -6562,8 +6563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7031,21 +7032,21 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B35" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>301</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>302</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -7105,7 +7106,7 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>300</v>
+        <v>659</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>294</v>
@@ -7119,12 +7120,12 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>299</v>
+        <v>660</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>322</v>
+        <v>658</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>295</v>
@@ -7138,12 +7139,12 @@
       <c r="E42" s="6"/>
       <c r="F42" s="9"/>
       <c r="G42" s="6" t="s">
-        <v>306</v>
+        <v>657</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>323</v>
+        <v>661</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>296</v>
@@ -7157,12 +7158,12 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>297</v>
@@ -7176,12 +7177,12 @@
       <c r="E44" s="6"/>
       <c r="F44" s="9"/>
       <c r="G44" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>298</v>
@@ -7195,15 +7196,15 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>318</v>
+        <v>662</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>57</v>
@@ -7214,15 +7215,15 @@
       <c r="E46" s="6"/>
       <c r="F46" s="9"/>
       <c r="G46" s="6" t="s">
-        <v>314</v>
+        <v>663</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>214</v>
@@ -7233,15 +7234,15 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>57</v>
@@ -7252,15 +7253,15 @@
       <c r="E48" s="6"/>
       <c r="F48" s="9"/>
       <c r="G48" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>214</v>
@@ -7271,12 +7272,12 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="47" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -7310,72 +7311,72 @@
     </row>
     <row r="58" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>9</v>
@@ -7386,13 +7387,13 @@
     </row>
     <row r="62" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>9</v>
@@ -7403,10 +7404,10 @@
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>256</v>
@@ -7420,10 +7421,10 @@
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>256</v>
@@ -7437,10 +7438,10 @@
     </row>
     <row r="65" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>256</v>
@@ -7454,10 +7455,10 @@
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>203</v>
@@ -7471,13 +7472,13 @@
     </row>
     <row r="67" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>9</v>
@@ -7485,15 +7486,15 @@
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>57</v>
@@ -7504,18 +7505,18 @@
       <c r="E68" s="6"/>
       <c r="F68" s="9"/>
       <c r="G68" s="6" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>14</v>
@@ -7526,19 +7527,19 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="27" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G70" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7574,7 +7575,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="47" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -7608,13 +7609,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -7624,18 +7625,18 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -7646,13 +7647,13 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -7663,13 +7664,13 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -7680,10 +7681,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>57</v>
@@ -7694,15 +7695,15 @@
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>57</v>
@@ -7713,15 +7714,15 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
@@ -7729,21 +7730,21 @@
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="47" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -7777,10 +7778,10 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>57</v>
@@ -7793,15 +7794,15 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>57</v>
@@ -7815,13 +7816,13 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>9</v>
@@ -7832,16 +7833,16 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -7849,13 +7850,13 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
@@ -7863,21 +7864,21 @@
       <c r="E18" s="6"/>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="9"/>
@@ -7885,40 +7886,40 @@
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="9"/>
       <c r="G20" s="6" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -7951,7 +7952,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="47" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -7985,13 +7986,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -8001,7 +8002,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -8009,10 +8010,10 @@
         <v>179</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>135</v>
@@ -8020,53 +8021,53 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="9" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>57</v>
@@ -8077,40 +8078,40 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="9"/>
       <c r="G8" s="6" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
@@ -8118,16 +8119,16 @@
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
@@ -8135,29 +8136,29 @@
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="44" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>11</v>
@@ -8168,24 +8169,24 @@
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="44" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>57</v>
@@ -8196,10 +8197,10 @@
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="44" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>57</v>
@@ -8208,60 +8209,60 @@
         <v>164</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="27" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G17" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="G18" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="47" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -8295,13 +8296,13 @@
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>7</v>
@@ -8311,59 +8312,59 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="9"/>
@@ -8371,13 +8372,13 @@
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="27" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>164</v>
@@ -8398,7 +8399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -8413,7 +8414,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="47" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -8469,7 +8470,7 @@
         <v>180</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>56</v>
@@ -8641,10 +8642,10 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>57</v>
@@ -8653,15 +8654,15 @@
         <v>14</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>57</v>
@@ -8670,7 +8671,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -8718,7 +8719,7 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="47" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
@@ -8774,7 +8775,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>56</v>
@@ -8896,7 +8897,7 @@
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="47" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -8930,10 +8931,10 @@
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>56</v>
@@ -8946,21 +8947,21 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>653</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -8968,13 +8969,13 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>9</v>
@@ -8985,10 +8986,10 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>56</v>
@@ -8999,21 +9000,21 @@
       <c r="E41" s="6"/>
       <c r="F41" s="9"/>
       <c r="G41" s="6" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="8"/>
@@ -9021,55 +9022,55 @@
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>84</v>
@@ -9080,13 +9081,13 @@
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>14</v>
@@ -9094,43 +9095,43 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="27" t="s">
+        <v>609</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>632</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>623</v>
-      </c>
       <c r="D49" s="6" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="C50" s="30" t="s">
         <v>617</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>624</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>14</v>
@@ -9139,24 +9140,24 @@
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="31" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>57</v>
@@ -9165,7 +9166,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="670">
   <si>
     <t>界面字段名</t>
   </si>
@@ -2683,10 +2683,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>草稿，提交，审核，在途，收件</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>单据状态</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3043,6 +3039,34 @@
   </si>
   <si>
     <t>上班迟到开始时间，只对上下班类型有效，此时间段内签到会被判定为迟到</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>会签单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联的会签单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fhuiqiandanhao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿,提交,审核,在途,已收件</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -4363,7 +4387,7 @@
         <v>179</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>56</v>
@@ -5228,7 +5252,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>56</v>
@@ -6563,8 +6587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7106,7 +7130,7 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>294</v>
@@ -7120,12 +7144,12 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>295</v>
@@ -7139,12 +7163,12 @@
       <c r="E42" s="6"/>
       <c r="F42" s="9"/>
       <c r="G42" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>296</v>
@@ -7201,7 +7225,7 @@
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>307</v>
@@ -7215,7 +7239,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="9"/>
       <c r="G46" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -7934,10 +7958,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7952,7 +7976,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="47" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -7989,7 +8013,7 @@
         <v>544</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>563</v>
@@ -8048,7 +8072,7 @@
         <v>528</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>543</v>
@@ -8064,71 +8088,73 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>577</v>
+        <v>663</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>57</v>
+        <v>666</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>164</v>
+        <v>664</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="6" t="s">
-        <v>547</v>
+        <v>667</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B9" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
@@ -8136,71 +8162,74 @@
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="44" t="s">
-        <v>572</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>584</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>534</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>164</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>57</v>
@@ -8208,186 +8237,200 @@
       <c r="D15" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="25" t="s">
+    </row>
+    <row r="16" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>587</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="25" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>597</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="G17" t="s">
-        <v>620</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="G18" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="27" t="s">
+        <v>589</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>561</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="G18" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="G19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="47" t="s">
         <v>588</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="E24" s="4"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>57</v>
+        <v>539</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>536</v>
+      </c>
+      <c r="E25" s="4"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B27" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C27" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="27" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="27" t="s">
         <v>554</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B28" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:G22"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8414,7 +8457,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="47" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -8719,7 +8762,7 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="47" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
@@ -8775,7 +8818,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>56</v>
@@ -8897,7 +8940,7 @@
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="47" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -8931,10 +8974,10 @@
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>56</v>
@@ -8947,21 +8990,21 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -8969,13 +9012,13 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>9</v>
@@ -8986,10 +9029,10 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>56</v>
@@ -9000,21 +9043,21 @@
       <c r="E41" s="6"/>
       <c r="F41" s="9"/>
       <c r="G41" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>631</v>
-      </c>
       <c r="D42" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="8"/>
@@ -9022,55 +9065,55 @@
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>651</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>652</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>325</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>84</v>
@@ -9081,13 +9124,13 @@
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>14</v>
@@ -9095,43 +9138,43 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>14</v>
@@ -9140,24 +9183,24 @@
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="31" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>57</v>
@@ -9166,7 +9209,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="会签" sheetId="5" r:id="rId4"/>
     <sheet name="返厂单据" sheetId="6" r:id="rId5"/>
     <sheet name="情报管理" sheetId="7" r:id="rId6"/>
+    <sheet name="零配件管理" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="795">
   <si>
     <t>界面字段名</t>
   </si>
@@ -1999,15 +2000,7 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>Lguige</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>单位</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ldanwei</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -2152,10 +2145,6 @@
   </si>
   <si>
     <t>Lzhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>LID</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -3069,12 +3058,555 @@
     <t>草稿,提交,审核,在途,已收件</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
+  <si>
+    <t>iid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_dpid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_pid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>danwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存量</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属库位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>kucun</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存调整单主表  表名：ZZZ_C_record</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前库存表  表名：ZZZ_C_Inventory</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdb</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>单别</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨单、(出库单、发货单)、(入库单、退回单)、调整单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存调整单子表  表名：ZZZ_C_record_sub</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>subid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_ru</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_shuliang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_danwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表id</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_chu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库库位编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更数量</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更单位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库仓库编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库库位编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流公司</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>编制人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收件人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库信息表  表名：ZZZ_C_warehouse</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位信息表。这是仓库信息表的子表  表名：ZZZ_C_depot</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmtype</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmweizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>addtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库位置</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp_wmid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>dptype</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属仓库</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属仓库的wmid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常,锁定,弃用</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_wmid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>隶属仓库</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">仅做记录，要求强制启用库位管理。 </t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>LID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lguige</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ldanwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅做记录，暂时没用</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅做记录，暂时没用</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_chu_w</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_ru_w</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库仓库编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_pihao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rjisongdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rshoujianren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nvarchar(50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nvarchar(10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0)</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rwuliudan</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rwuliugongsi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfahuoshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlianxifangshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rshoujianshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿,已提交，已审核，在途，已收货</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rfahuoren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rqurenren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_cpbh</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>pihao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rshr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rshenheshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3315,6 +3847,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3823,7 +4372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3951,6 +4500,35 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4333,8 +4911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G157"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD35"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4349,15 +4927,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47" t="s">
-        <v>566</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="A3" s="58" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -4387,7 +4965,7 @@
         <v>179</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>56</v>
@@ -4406,7 +4984,7 @@
         <v>180</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -4638,15 +5216,15 @@
       <c r="D21" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -4809,15 +5387,15 @@
       <c r="D35" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -4938,7 +5516,7 @@
         <v>152</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>56</v>
@@ -5003,7 +5581,7 @@
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>157</v>
@@ -5017,7 +5595,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="43" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5087,19 +5665,19 @@
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
       <c r="G52" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -5195,15 +5773,15 @@
       <c r="G61" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="47" t="s">
-        <v>464</v>
-      </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
+      <c r="A64" s="58" t="s">
+        <v>462</v>
+      </c>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -5252,7 +5830,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>56</v>
@@ -5442,7 +6020,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>56</v>
@@ -5451,7 +6029,7 @@
         <v>81</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -5514,15 +6092,15 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
+      <c r="A85" s="58" t="s">
+        <v>464</v>
+      </c>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="58"/>
     </row>
     <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -5741,7 +6319,7 @@
         <v>424</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C98" s="28" t="s">
         <v>393</v>
@@ -5760,7 +6338,7 @@
         <v>398</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>203</v>
@@ -5773,15 +6351,15 @@
       <c r="G99" s="4"/>
     </row>
     <row r="101" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="47" t="s">
+      <c r="A101" s="58" t="s">
         <v>430</v>
       </c>
-      <c r="B101" s="47"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="47"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="47"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="58"/>
     </row>
     <row r="102" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -5888,15 +6466,15 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="47" t="s">
+      <c r="A108" s="58" t="s">
         <v>431</v>
       </c>
-      <c r="B108" s="47"/>
-      <c r="C108" s="47"/>
-      <c r="D108" s="47"/>
-      <c r="E108" s="47"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="47"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="58"/>
     </row>
     <row r="109" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -5926,7 +6504,7 @@
         <v>432</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>472</v>
+        <v>759</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>56</v>
@@ -5962,13 +6540,13 @@
         <v>435</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>436</v>
+        <v>760</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="9"/>
@@ -5978,16 +6556,16 @@
     </row>
     <row r="113" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>438</v>
+        <v>761</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="8"/>
@@ -5995,10 +6573,10 @@
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>117</v>
@@ -6009,89 +6587,89 @@
     </row>
     <row r="115" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="28" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="28" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A117" s="28" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A118" s="28" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A119" s="31" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C119" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="B120" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G120" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -6104,15 +6682,15 @@
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="47" t="s">
+      <c r="A122" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="B122" s="47"/>
-      <c r="C122" s="47"/>
-      <c r="D122" s="47"/>
-      <c r="E122" s="47"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="47"/>
+      <c r="B122" s="58"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="58"/>
+      <c r="E122" s="58"/>
+      <c r="F122" s="58"/>
+      <c r="G122" s="58"/>
     </row>
     <row r="123" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
@@ -6189,7 +6767,7 @@
       <c r="E126" s="6"/>
       <c r="F126" s="9"/>
       <c r="G126" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -6224,15 +6802,15 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="46" t="s">
+      <c r="A134" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="B134" s="47"/>
-      <c r="C134" s="47"/>
-      <c r="D134" s="47"/>
-      <c r="E134" s="47"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="47"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="58"/>
+      <c r="F134" s="58"/>
+      <c r="G134" s="58"/>
     </row>
     <row r="135" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
@@ -6416,15 +6994,15 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="46" t="s">
+      <c r="A150" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="B150" s="47"/>
-      <c r="C150" s="47"/>
-      <c r="D150" s="47"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="47"/>
-      <c r="G150" s="47"/>
+      <c r="B150" s="58"/>
+      <c r="C150" s="58"/>
+      <c r="D150" s="58"/>
+      <c r="E150" s="58"/>
+      <c r="F150" s="58"/>
+      <c r="G150" s="58"/>
     </row>
     <row r="151" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
@@ -6602,15 +7180,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -6746,15 +7324,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -6966,15 +7544,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -7074,15 +7652,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -7130,7 +7708,7 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>294</v>
@@ -7144,12 +7722,12 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>295</v>
@@ -7163,12 +7741,12 @@
       <c r="E42" s="6"/>
       <c r="F42" s="9"/>
       <c r="G42" s="6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>296</v>
@@ -7225,7 +7803,7 @@
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>307</v>
@@ -7239,7 +7817,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="9"/>
       <c r="G46" s="6" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -7300,15 +7878,15 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -7598,15 +8176,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
-        <v>490</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="A1" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -7633,13 +8211,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -7649,18 +8227,18 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -7671,13 +8249,13 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -7688,13 +8266,13 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -7705,10 +8283,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>57</v>
@@ -7719,15 +8297,15 @@
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>57</v>
@@ -7738,15 +8316,15 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
@@ -7754,28 +8332,28 @@
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="47" t="s">
-        <v>498</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="A12" s="58" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -7802,10 +8380,10 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>57</v>
@@ -7818,15 +8396,15 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>57</v>
@@ -7840,13 +8418,13 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>9</v>
@@ -7857,16 +8435,16 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -7874,13 +8452,13 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
@@ -7888,21 +8466,21 @@
       <c r="E18" s="6"/>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="9"/>
@@ -7910,40 +8488,40 @@
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="9"/>
       <c r="G20" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -7960,7 +8538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -7975,15 +8553,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
-        <v>593</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="A1" s="58" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -8010,13 +8588,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -8026,7 +8604,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -8034,10 +8612,10 @@
         <v>179</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>135</v>
@@ -8045,75 +8623,75 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>560</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="9" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>665</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>666</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>164</v>
@@ -8121,40 +8699,40 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
@@ -8162,16 +8740,16 @@
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
@@ -8179,29 +8757,29 @@
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>11</v>
@@ -8212,24 +8790,24 @@
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="44" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="44" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>57</v>
@@ -8240,10 +8818,10 @@
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="44" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>57</v>
@@ -8252,67 +8830,67 @@
         <v>164</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G18" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G19" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
-        <v>588</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="A22" s="58" t="s">
+        <v>585</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -8339,13 +8917,13 @@
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>7</v>
@@ -8355,59 +8933,59 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="9"/>
@@ -8415,13 +8993,13 @@
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="27" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>164</v>
@@ -8442,8 +9020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8456,15 +9034,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
-        <v>600</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="A1" s="58" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -8513,7 +9091,7 @@
         <v>180</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>56</v>
@@ -8761,15 +9339,15 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="47" t="s">
-        <v>601</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="A22" s="58" t="s">
+        <v>598</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -8818,7 +9396,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>56</v>
@@ -8939,15 +9517,15 @@
       <c r="G33" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="47" t="s">
-        <v>627</v>
-      </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
+      <c r="A36" s="58" t="s">
+        <v>624</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -8974,10 +9552,10 @@
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>56</v>
@@ -8990,21 +9568,21 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -9012,13 +9590,13 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>9</v>
@@ -9029,10 +9607,10 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>56</v>
@@ -9043,21 +9621,21 @@
       <c r="E41" s="6"/>
       <c r="F41" s="9"/>
       <c r="G41" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="8"/>
@@ -9065,55 +9643,55 @@
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>604</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>607</v>
       </c>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>325</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>84</v>
@@ -9124,13 +9702,13 @@
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>14</v>
@@ -9138,43 +9716,43 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>608</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>611</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="31" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>14</v>
@@ -9183,24 +9761,24 @@
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="31" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>57</v>
@@ -9209,7 +9787,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -9222,4 +9800,962 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="7" max="7" width="44.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
+        <v>722</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>729</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>752</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
+        <v>730</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>724</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
+        <v>731</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>725</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>726</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
+        <v>733</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>727</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>736</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="58" t="s">
+        <v>723</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>739</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="50" t="s">
+        <v>747</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>740</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50" t="s">
+        <v>749</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>741</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50" t="s">
+        <v>751</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46" t="s">
+        <v>756</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" s="47" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="46" t="s">
+        <v>758</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A38" s="58" t="s">
+        <v>679</v>
+      </c>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>792</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>781</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>715</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>782</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>771</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>778</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
+        <v>718</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>784</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>775</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>735</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>779</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="49" t="s">
+        <v>694</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>684</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>685</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A61" s="58" t="s">
+        <v>697</v>
+      </c>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+    </row>
+    <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
+        <v>711</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="4"/>
+    </row>
+    <row r="67" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="23"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="23" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>770</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>765</v>
+      </c>
+      <c r="G70" s="26"/>
+    </row>
+    <row r="71" spans="1:7" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="49" t="s">
+        <v>708</v>
+      </c>
+      <c r="B71" s="50" t="s">
+        <v>701</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="G71" s="52"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>702</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="794">
   <si>
     <t>界面字段名</t>
   </si>
@@ -3055,10 +3055,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>草稿,提交,审核,在途,已收件</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>iid</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3107,34 +3103,14 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>库存调整单主表  表名：ZZZ_C_record</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>当前库存表  表名：ZZZ_C_Inventory</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>rid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>rdb</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>rtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>rzhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>识别编号</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3143,10 +3119,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>调拨单、(出库单、发货单)、(入库单、退回单)、调整单</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>提交日期</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3167,10 +3139,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3183,14 +3151,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>subid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>rid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>r_ru</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3247,30 +3207,10 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>物流公司</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>编制人uaid</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>发货时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认收件人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>发货人uaid</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3476,10 +3416,6 @@
   </si>
   <si>
     <t>rjisongdizhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>rshoujianren</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -3546,10 +3482,82 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>rshoujianshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_cpbh</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>pihao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>调拨单,申请单,退回单,调整单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>subid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rshoujianren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认收件人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>rwuliugongsi</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>rfahuoren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>rfahuoshijian</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3558,15 +3566,23 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>rshoujianshijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>草稿,已提交，已审核，在途，已收货</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>rfahuoren</t>
+    <t>草稿,提交,审核,在途,已收件</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿,提交,审核,在途,已收件</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rshr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rshenheshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rid</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -3574,31 +3590,11 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>r_cpbh</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>pihao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>rbzr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>rshr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>rshenheshijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
+    <t>库存调整单主表  表名：ZZZ_C_record</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>rzhuangtai</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -6504,7 +6500,7 @@
         <v>432</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>56</v>
@@ -6540,7 +6536,7 @@
         <v>435</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>56</v>
@@ -6559,7 +6555,7 @@
         <v>436</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>449</v>
@@ -8538,8 +8534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8878,7 +8874,7 @@
         <v>533</v>
       </c>
       <c r="G19" t="s">
-        <v>666</v>
+        <v>786</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -9806,8 +9802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9821,7 +9817,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -9855,10 +9851,10 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -9874,13 +9870,13 @@
     </row>
     <row r="4" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>9</v>
@@ -9891,10 +9887,10 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>57</v>
@@ -9908,13 +9904,13 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -9925,10 +9921,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>235</v>
@@ -9942,13 +9938,13 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
@@ -9957,7 +9953,7 @@
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="58" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
@@ -9991,16 +9987,16 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>8</v>
@@ -10010,29 +10006,29 @@
     </row>
     <row r="15" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>56</v>
@@ -10046,10 +10042,10 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>56</v>
@@ -10063,10 +10059,10 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>83</v>
@@ -10077,12 +10073,12 @@
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
       <c r="G18" s="6" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="58" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
@@ -10116,13 +10112,13 @@
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>7</v>
@@ -10135,29 +10131,29 @@
     </row>
     <row r="27" spans="1:7" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>56</v>
@@ -10171,10 +10167,10 @@
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>56</v>
@@ -10188,10 +10184,10 @@
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>83</v>
@@ -10205,10 +10201,10 @@
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>56</v>
@@ -10220,10 +10216,10 @@
     </row>
     <row r="32" spans="1:7" s="47" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>56</v>
@@ -10235,7 +10231,7 @@
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="58" t="s">
-        <v>679</v>
+        <v>792</v>
       </c>
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
@@ -10269,10 +10265,10 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>681</v>
+        <v>790</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>56</v>
@@ -10288,10 +10284,10 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>56</v>
@@ -10302,18 +10298,18 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>688</v>
+        <v>770</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>683</v>
+        <v>776</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
@@ -10324,29 +10320,29 @@
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="8"/>
       <c r="G43" s="6" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>56</v>
@@ -10355,21 +10351,21 @@
         <v>14</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="G45" s="26"/>
     </row>
@@ -10378,60 +10374,60 @@
         <v>567</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>714</v>
+        <v>568</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>715</v>
+        <v>777</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>717</v>
+        <v>778</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="G49" s="26"/>
     </row>
@@ -10440,13 +10436,13 @@
         <v>570</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="G50" s="26"/>
     </row>
@@ -10455,78 +10451,78 @@
         <v>571</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>572</v>
+        <v>779</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>718</v>
+        <v>573</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="G53" s="26"/>
     </row>
     <row r="54" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>719</v>
+        <v>780</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="49" t="s">
-        <v>694</v>
+        <v>781</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>684</v>
+        <v>793</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -10534,18 +10530,18 @@
         <v>189</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>685</v>
+        <v>772</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="58" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B61" s="58"/>
       <c r="C61" s="58"/>
@@ -10579,10 +10575,10 @@
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>698</v>
+        <v>774</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>56</v>
@@ -10598,13 +10594,13 @@
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>699</v>
+        <v>773</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
@@ -10612,15 +10608,15 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>57</v>
@@ -10631,15 +10627,15 @@
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>57</v>
@@ -10653,10 +10649,10 @@
     </row>
     <row r="67" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>57</v>
@@ -10667,18 +10663,18 @@
       <c r="E67" s="23"/>
       <c r="F67" s="24"/>
       <c r="G67" s="23" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>9</v>
@@ -10689,10 +10685,10 @@
     </row>
     <row r="69" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>57</v>
@@ -10704,46 +10700,46 @@
     </row>
     <row r="70" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:7" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="49" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="G71" s="52"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="27" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1002">
   <si>
     <t>界面字段名</t>
   </si>
@@ -645,10 +645,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>SID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>HSBend</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -879,10 +875,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>decimal(18, 0)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -1184,10 +1176,6 @@
   </si>
   <si>
     <t>nvarchar(100)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datatime()</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -2708,14 +2696,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>未成交客户信息  表名：ZZZ_KHDA_wcj</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3279,10 +3259,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>dpid</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3364,10 +3340,6 @@
   </si>
   <si>
     <t>批号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>LID</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -3597,12 +3569,918 @@
     <t>rzhuangtai</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>nvarchar(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0)</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdate()</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修申请表单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blianxiren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bdianhua</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bmiaoshu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bjstime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bwctime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系电话</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障简述</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理完成时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务负责人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD_BID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>caozuoren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>原服务负责人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>现服务负责人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修保养类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联单据</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">故障描述(详细) </t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>带入申报单产生日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据子表的技术服务费和配件价格合计</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(4000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、 状态：保存，提交，审核，驳回
+2、 提交、审核后不允许修改，驳回、保存可修改。
+3、 仅提交态允许驳回和审核。
+4、 修改单据变为保存状态。
+5、 只允许删除保存状态的单据。
+6、 审核后不允许修改和驳回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gfwlx</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gbylx</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguzhang_b</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gzongjia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告子表-设备信息  (维修类型只能填写一条)  表名：ZZZ_FWBG_shebei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告子表-错误报警 表名：ZZZ_FWBG_baojing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>LID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkeshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glianxiren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkehuyaoqiu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguzhang_a</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguocheng_a</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguocheng_b</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gjiedan</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkaigongtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangongtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gjishufuwufei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ggongshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gneibujiesuan</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkehuyijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gfujian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaddtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据填写日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsbtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gsbtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gspyj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗选择，或自动打入关联单据中的客户</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联申报单。 选择未关闭的单据，优先显示最近的单据.只列出自己负责的单据。</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写客户联系人或服务报告的确认人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户要求</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障摘要</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理过程摘要</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">处理过程描述(详细) </t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否结单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串 是，否。  选择是，关闭申报单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批意见</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>开工时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>完工时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术服务费</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务工时</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部结算</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修报告总价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户意见</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传附件</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb_GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb_SID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbguige</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sberpbianhao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbyzsj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bj_GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bj_EID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告子表-零件信息 表名：ZZZ_FWBG_lingjian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>lj_GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>lj_LID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备规格</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>运转时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljxinghao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljdanwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljsjsj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljlsj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljshuliang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljzje</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljbaoxiujiezhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljpihao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件单位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际售价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件数量</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修截止日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带零售价,可修改</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYsheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsbr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bfwfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修申请表  表名：ZZZ_BXSQ</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDnewfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDoldfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修申请调度历史记录表  表名：ZZZ_BXSQ_DD</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gtianxieren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gspshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_BID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>BID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gspren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告主表  表名：ZZZ_FWBG</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>待处理，已接收，已结单，作废</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3862,6 +4740,30 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4368,7 +5270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4530,6 +5432,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4907,15 +5819,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G157"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
@@ -4924,7 +5836,7 @@
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="58" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B3" s="58"/>
       <c r="C3" s="58"/>
@@ -4958,10 +5870,10 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>595</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>56</v>
@@ -4977,10 +5889,10 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>564</v>
+        <v>983</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -4994,10 +5906,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>172</v>
+        <v>982</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>56</v>
@@ -5013,10 +5925,10 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>56</v>
@@ -5030,7 +5942,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>44</v>
@@ -5044,10 +5956,10 @@
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>194</v>
+        <v>984</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
@@ -5061,10 +5973,10 @@
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>56</v>
@@ -5075,7 +5987,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>45</v>
@@ -5089,7 +6001,7 @@
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>46</v>
@@ -5103,7 +6015,7 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>47</v>
@@ -5117,13 +6029,13 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>41</v>
@@ -5131,13 +6043,13 @@
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>41</v>
@@ -5145,64 +6057,64 @@
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C17" s="30" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C18" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="G18" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>117</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -5443,7 +6355,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>10</v>
@@ -5454,13 +6366,13 @@
     </row>
     <row r="41" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>14</v>
@@ -5477,10 +6389,10 @@
         <v>17</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E42" s="23"/>
       <c r="F42" s="24"/>
@@ -5499,7 +6411,7 @@
         <v>117</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="9"/>
@@ -5509,10 +6421,10 @@
     </row>
     <row r="44" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>56</v>
@@ -5560,7 +6472,7 @@
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>18</v>
@@ -5577,10 +6489,10 @@
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>56</v>
@@ -5591,18 +6503,18 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="43" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>14</v>
@@ -5613,10 +6525,10 @@
     </row>
     <row r="50" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>56</v>
@@ -5630,10 +6542,10 @@
     </row>
     <row r="51" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>56</v>
@@ -5647,7 +6559,7 @@
     </row>
     <row r="52" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>19</v>
@@ -5661,7 +6573,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
       <c r="G52" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5770,7 +6682,7 @@
     </row>
     <row r="64" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="58" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B64" s="58"/>
       <c r="C64" s="58"/>
@@ -5804,10 +6716,10 @@
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>136</v>
+        <v>867</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>56</v>
@@ -5826,7 +6738,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>596</v>
+        <v>852</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>56</v>
@@ -5859,13 +6771,13 @@
     </row>
     <row r="69" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D69" s="35" t="s">
         <v>9</v>
@@ -5873,18 +6785,18 @@
       <c r="E69" s="35"/>
       <c r="F69" s="36"/>
       <c r="G69" s="35" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D70" s="35" t="s">
         <v>9</v>
@@ -5895,13 +6807,13 @@
     </row>
     <row r="71" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D71" s="35" t="s">
         <v>9</v>
@@ -5926,13 +6838,13 @@
     </row>
     <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>75</v>
@@ -5943,7 +6855,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>76</v>
@@ -5966,15 +6878,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" s="41" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="33" t="s">
         <v>71</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>429</v>
-      </c>
-      <c r="C76" s="40" t="s">
-        <v>187</v>
+        <v>426</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>845</v>
       </c>
       <c r="D76" s="35" t="s">
         <v>75</v>
@@ -5983,7 +6895,7 @@
     </row>
     <row r="77" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B77" s="39" t="s">
         <v>78</v>
@@ -5998,7 +6910,7 @@
     </row>
     <row r="78" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B78" s="39" t="s">
         <v>79</v>
@@ -6016,7 +6928,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>56</v>
@@ -6025,7 +6937,7 @@
         <v>81</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -6053,7 +6965,7 @@
         <v>87</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>75</v>
@@ -6067,7 +6979,7 @@
         <v>90</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>75</v>
@@ -6084,12 +6996,12 @@
         <v>83</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="58" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B85" s="58"/>
       <c r="C85" s="58"/>
@@ -6123,35 +7035,35 @@
     </row>
     <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
       <c r="G87" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
@@ -6159,16 +7071,16 @@
     </row>
     <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
@@ -6176,16 +7088,16 @@
     </row>
     <row r="90" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -6193,16 +7105,16 @@
     </row>
     <row r="91" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -6210,16 +7122,16 @@
     </row>
     <row r="92" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -6227,16 +7139,16 @@
     </row>
     <row r="93" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
@@ -6244,16 +7156,16 @@
     </row>
     <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
@@ -6261,16 +7173,16 @@
     </row>
     <row r="95" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C95" s="28" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -6278,16 +7190,16 @@
     </row>
     <row r="96" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E96" s="28"/>
       <c r="F96" s="28"/>
@@ -6295,16 +7207,16 @@
     </row>
     <row r="97" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
@@ -6312,35 +7224,35 @@
     </row>
     <row r="98" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
       <c r="G98" s="28" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -6348,7 +7260,7 @@
     </row>
     <row r="101" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="58" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B101" s="58"/>
       <c r="C101" s="58"/>
@@ -6382,10 +7294,10 @@
     </row>
     <row r="103" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>56</v>
@@ -6398,21 +7310,21 @@
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="6"/>
@@ -6420,16 +7332,16 @@
     </row>
     <row r="105" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -6437,16 +7349,16 @@
     </row>
     <row r="106" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B106" s="29" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C106" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -6463,7 +7375,7 @@
     </row>
     <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="58" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B108" s="58"/>
       <c r="C108" s="58"/>
@@ -6497,10 +7409,10 @@
     </row>
     <row r="110" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>744</v>
+        <v>869</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>56</v>
@@ -6516,10 +7428,10 @@
     </row>
     <row r="111" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>56</v>
@@ -6533,16 +7445,16 @@
     </row>
     <row r="112" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="9"/>
@@ -6552,16 +7464,16 @@
     </row>
     <row r="113" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="8"/>
@@ -6569,10 +7481,10 @@
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>117</v>
@@ -6583,89 +7495,89 @@
     </row>
     <row r="115" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="28" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C116" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A117" s="28" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C117" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A118" s="28" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A119" s="31" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="B120" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>469</v>
-      </c>
       <c r="C120" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -6679,7 +7591,7 @@
     </row>
     <row r="122" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B122" s="58"/>
       <c r="C122" s="58"/>
@@ -6713,7 +7625,7 @@
     </row>
     <row r="124" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A124" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>95</v>
@@ -6763,7 +7675,7 @@
       <c r="E126" s="6"/>
       <c r="F126" s="9"/>
       <c r="G126" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -6855,7 +7767,7 @@
         <v>28</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>56</v>
@@ -6878,7 +7790,7 @@
         <v>56</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="9"/>
@@ -6897,7 +7809,7 @@
         <v>56</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="8"/>
@@ -6914,7 +7826,7 @@
         <v>119</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -6928,7 +7840,7 @@
         <v>113</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -6983,7 +7895,7 @@
         <v>13</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C146" t="s">
         <v>117</v>
@@ -6991,7 +7903,7 @@
     </row>
     <row r="150" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B150" s="58"/>
       <c r="C150" s="58"/>
@@ -7025,7 +7937,7 @@
     </row>
     <row r="152" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A152" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>131</v>
@@ -7044,10 +7956,10 @@
     </row>
     <row r="153" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A153" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>56</v>
@@ -7061,10 +7973,10 @@
     </row>
     <row r="154" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>57</v>
@@ -7078,10 +7990,10 @@
     </row>
     <row r="155" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>11</v>
@@ -7095,13 +8007,13 @@
     </row>
     <row r="156" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>58</v>
@@ -7109,10 +8021,10 @@
     </row>
     <row r="157" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A157" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C157" s="18" t="s">
         <v>83</v>
@@ -7143,14 +8055,1414 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="74.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
+        <v>987</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>810</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>811</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>981</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
+        <v>812</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>803</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="50" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>804</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="50" t="s">
+        <v>814</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>805</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>815</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>893</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="44" t="s">
+        <v>816</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>985</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="B10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="27" t="s">
+        <v>818</v>
+      </c>
+      <c r="B11" t="s">
+        <v>807</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="B12" t="s">
+        <v>808</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="44" t="s">
+        <v>820</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>809</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>787</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="58" t="s">
+        <v>990</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="49" t="s">
+        <v>828</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>822</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>989</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>988</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>798</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="50" t="s">
+        <v>831</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>823</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>799</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="58" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+    </row>
+    <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>826</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="49" t="s">
+        <v>901</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>851</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>902</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>992</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="50" t="s">
+        <v>832</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>853</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>833</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>997</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="23" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>903</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="27" t="s">
+        <v>904</v>
+      </c>
+      <c r="B38" t="s">
+        <v>870</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="27" t="s">
+        <v>908</v>
+      </c>
+      <c r="B39" t="s">
+        <v>871</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>842</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="G39" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="27" t="s">
+        <v>910</v>
+      </c>
+      <c r="B40" t="s">
+        <v>894</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="G40" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="31" t="s">
+        <v>911</v>
+      </c>
+      <c r="B41" t="s">
+        <v>890</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>891</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="59" t="s">
+        <v>912</v>
+      </c>
+      <c r="B42" t="s">
+        <v>872</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>896</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="31" t="s">
+        <v>913</v>
+      </c>
+      <c r="B43" t="s">
+        <v>873</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="31" t="s">
+        <v>834</v>
+      </c>
+      <c r="B44" t="s">
+        <v>854</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="31" t="s">
+        <v>914</v>
+      </c>
+      <c r="B45" t="s">
+        <v>874</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="31" t="s">
+        <v>915</v>
+      </c>
+      <c r="B46" t="s">
+        <v>875</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>844</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" s="31" t="s">
+        <v>916</v>
+      </c>
+      <c r="B47" t="s">
+        <v>876</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="87" x14ac:dyDescent="0.15">
+      <c r="A48" s="31" t="s">
+        <v>918</v>
+      </c>
+      <c r="B48" t="s">
+        <v>877</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>809</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="60" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="31" t="s">
+        <v>919</v>
+      </c>
+      <c r="B49" t="s">
+        <v>897</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>898</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="61" t="s">
+        <v>993</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>999</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>995</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="31" t="s">
+        <v>994</v>
+      </c>
+      <c r="B51" t="s">
+        <v>996</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="31" t="s">
+        <v>920</v>
+      </c>
+      <c r="B52" t="s">
+        <v>878</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>886</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="31" t="s">
+        <v>921</v>
+      </c>
+      <c r="B53" t="s">
+        <v>879</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="31" t="s">
+        <v>922</v>
+      </c>
+      <c r="B54" t="s">
+        <v>880</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>899</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="31" t="s">
+        <v>923</v>
+      </c>
+      <c r="B55" t="s">
+        <v>881</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="31" t="s">
+        <v>924</v>
+      </c>
+      <c r="B56" t="s">
+        <v>882</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="31" t="s">
+        <v>925</v>
+      </c>
+      <c r="B57" t="s">
+        <v>855</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="31" t="s">
+        <v>926</v>
+      </c>
+      <c r="B58" t="s">
+        <v>883</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>900</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="31" t="s">
+        <v>927</v>
+      </c>
+      <c r="B59" t="s">
+        <v>884</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>848</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="31" t="s">
+        <v>928</v>
+      </c>
+      <c r="B60" t="s">
+        <v>885</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>849</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="58" t="s">
+        <v>856</v>
+      </c>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="4"/>
+    </row>
+    <row r="68" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="49" t="s">
+        <v>952</v>
+      </c>
+      <c r="B68" s="54" t="s">
+        <v>930</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="50" t="s">
+        <v>549</v>
+      </c>
+      <c r="B69" s="55" t="s">
+        <v>931</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="50" t="s">
+        <v>857</v>
+      </c>
+      <c r="B70" s="55" t="s">
+        <v>932</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="50" t="s">
+        <v>953</v>
+      </c>
+      <c r="B71" s="50" t="s">
+        <v>933</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="50" t="s">
+        <v>954</v>
+      </c>
+      <c r="B72" s="50" t="s">
+        <v>934</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="G72" s="56"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73" s="27" t="s">
+        <v>955</v>
+      </c>
+      <c r="B73" t="s">
+        <v>935</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="B74" t="s">
+        <v>936</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A79" s="58" t="s">
+        <v>861</v>
+      </c>
+      <c r="B79" s="58"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="58"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
+    </row>
+    <row r="80" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>937</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="49" t="s">
+        <v>948</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>938</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="50" t="s">
+        <v>949</v>
+      </c>
+      <c r="B83" s="55" t="s">
+        <v>939</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="50" t="s">
+        <v>862</v>
+      </c>
+      <c r="B84" s="55" t="s">
+        <v>940</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="6"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="50" t="s">
+        <v>950</v>
+      </c>
+      <c r="B85" s="50" t="s">
+        <v>941</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="6"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A86" s="27" t="s">
+        <v>951</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>868</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A93" s="58" t="s">
+        <v>943</v>
+      </c>
+      <c r="B93" s="58"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+    </row>
+    <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="16" t="s">
+        <v>967</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>944</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="49" t="s">
+        <v>968</v>
+      </c>
+      <c r="B96" s="54" t="s">
+        <v>945</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+    </row>
+    <row r="97" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="50" t="s">
+        <v>969</v>
+      </c>
+      <c r="B97" s="55" t="s">
+        <v>946</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="50" t="s">
+        <v>970</v>
+      </c>
+      <c r="B98" s="55" t="s">
+        <v>956</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="50" t="s">
+        <v>971</v>
+      </c>
+      <c r="B99" s="50" t="s">
+        <v>957</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A100" s="27" t="s">
+        <v>972</v>
+      </c>
+      <c r="B100" s="32" t="s">
+        <v>958</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A101" s="27" t="s">
+        <v>973</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>959</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A102" s="27" t="s">
+        <v>974</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>960</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A103" s="27" t="s">
+        <v>975</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>961</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A104" s="27" t="s">
+        <v>976</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>962</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A105" s="27" t="s">
+        <v>977</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>963</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A106" s="27" t="s">
+        <v>978</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>964</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>966</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A107" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>965</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>840</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A79:G79"/>
+    <mergeCell ref="A93:G93"/>
+  </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7161,8 +9473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7177,7 +9489,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -7211,10 +9523,10 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -7230,13 +9542,13 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -7247,16 +9559,16 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="9"/>
@@ -7264,16 +9576,16 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>228</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8"/>
@@ -7281,47 +9593,47 @@
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>235</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>245</v>
-      </c>
       <c r="C9" s="30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="58" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
@@ -7361,7 +9673,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>7</v>
@@ -7371,18 +9683,18 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>9</v>
@@ -7390,15 +9702,15 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>57</v>
@@ -7409,37 +9721,37 @@
       <c r="E18" s="6"/>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8"/>
       <c r="G19" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>14</v>
@@ -7448,13 +9760,13 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
@@ -7462,13 +9774,13 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="27" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>14</v>
@@ -7476,13 +9788,13 @@
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="27" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>14</v>
@@ -7490,58 +9802,58 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F24" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="27" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>276</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="27" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="58" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B30" s="58"/>
       <c r="C30" s="58"/>
@@ -7578,10 +9890,10 @@
         <v>64</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>7</v>
@@ -7591,18 +9903,18 @@
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>9</v>
@@ -7613,10 +9925,10 @@
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>57</v>
@@ -7630,26 +9942,26 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="17" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="58" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
@@ -7686,10 +9998,10 @@
         <v>64</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>7</v>
@@ -7699,18 +10011,18 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
@@ -7718,15 +10030,15 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>57</v>
@@ -7737,18 +10049,18 @@
       <c r="E42" s="6"/>
       <c r="F42" s="9"/>
       <c r="G42" s="6" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>9</v>
@@ -7756,15 +10068,15 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>57</v>
@@ -7775,18 +10087,18 @@
       <c r="E44" s="6"/>
       <c r="F44" s="9"/>
       <c r="G44" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
@@ -7794,15 +10106,15 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>57</v>
@@ -7813,18 +10125,18 @@
       <c r="E46" s="6"/>
       <c r="F46" s="9"/>
       <c r="G46" s="6" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
@@ -7832,15 +10144,15 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>57</v>
@@ -7851,18 +10163,18 @@
       <c r="E48" s="6"/>
       <c r="F48" s="9"/>
       <c r="G48" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>9</v>
@@ -7870,12 +10182,12 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="58" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B56" s="58"/>
       <c r="C56" s="58"/>
@@ -7909,72 +10221,72 @@
     </row>
     <row r="58" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>360</v>
-      </c>
       <c r="D60" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>9</v>
@@ -7985,13 +10297,13 @@
     </row>
     <row r="62" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>9</v>
@@ -8002,13 +10314,13 @@
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>9</v>
@@ -8019,13 +10331,13 @@
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>9</v>
@@ -8036,13 +10348,13 @@
     </row>
     <row r="65" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>9</v>
@@ -8053,13 +10365,13 @@
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>9</v>
@@ -8070,13 +10382,13 @@
     </row>
     <row r="67" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>9</v>
@@ -8084,15 +10396,15 @@
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>57</v>
@@ -8103,18 +10415,18 @@
       <c r="E68" s="6"/>
       <c r="F68" s="9"/>
       <c r="G68" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B69" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>14</v>
@@ -8125,19 +10437,19 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="27" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G70" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -8173,7 +10485,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -8207,13 +10519,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -8223,18 +10535,18 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -8245,13 +10557,13 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -8262,13 +10574,13 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -8279,10 +10591,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>57</v>
@@ -8293,15 +10605,15 @@
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>57</v>
@@ -8312,15 +10624,15 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
@@ -8328,21 +10640,21 @@
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="58" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
@@ -8376,10 +10688,10 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>57</v>
@@ -8392,15 +10704,15 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>57</v>
@@ -8414,13 +10726,13 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>9</v>
@@ -8431,16 +10743,16 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -8448,13 +10760,13 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
@@ -8462,21 +10774,21 @@
       <c r="E18" s="6"/>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="9"/>
@@ -8484,40 +10796,40 @@
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="9"/>
       <c r="G20" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -8550,7 +10862,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -8584,13 +10896,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -8600,18 +10912,18 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>135</v>
@@ -8619,116 +10931,116 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>557</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="9" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>665</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
@@ -8736,16 +11048,16 @@
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
@@ -8753,133 +11065,133 @@
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="44" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="44" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="44" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G18" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G19" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="58" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
@@ -8913,13 +11225,13 @@
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>7</v>
@@ -8929,59 +11241,59 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="9"/>
@@ -8989,16 +11301,16 @@
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="27" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -9016,7 +11328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -9031,7 +11343,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -9065,7 +11377,7 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>62</v>
@@ -9084,10 +11396,10 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>56</v>
@@ -9101,10 +11413,10 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>56</v>
@@ -9120,10 +11432,10 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -9137,7 +11449,7 @@
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>44</v>
@@ -9152,10 +11464,10 @@
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>56</v>
@@ -9169,10 +11481,10 @@
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>56</v>
@@ -9184,7 +11496,7 @@
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>45</v>
@@ -9199,7 +11511,7 @@
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>46</v>
@@ -9214,7 +11526,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>47</v>
@@ -9229,7 +11541,7 @@
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>48</v>
@@ -9244,13 +11556,13 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>14</v>
@@ -9259,10 +11571,10 @@
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>57</v>
@@ -9271,15 +11583,15 @@
         <v>14</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>57</v>
@@ -9288,36 +11600,36 @@
         <v>14</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>117</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -9336,7 +11648,7 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="58" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B22" s="58"/>
       <c r="C22" s="58"/>
@@ -9392,7 +11704,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>56</v>
@@ -9514,7 +11826,7 @@
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="58" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B36" s="58"/>
       <c r="C36" s="58"/>
@@ -9548,10 +11860,10 @@
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>56</v>
@@ -9564,21 +11876,21 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -9586,13 +11898,13 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>9</v>
@@ -9603,10 +11915,10 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>56</v>
@@ -9617,21 +11929,21 @@
       <c r="E41" s="6"/>
       <c r="F41" s="9"/>
       <c r="G41" s="6" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="8"/>
@@ -9639,55 +11951,55 @@
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>84</v>
@@ -9698,13 +12010,13 @@
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>14</v>
@@ -9712,43 +12024,43 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="27" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="31" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>14</v>
@@ -9757,24 +12069,24 @@
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="31" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C51" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>614</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>57</v>
@@ -9783,7 +12095,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -9802,8 +12114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9817,7 +12129,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -9851,10 +12163,10 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -9870,13 +12182,13 @@
     </row>
     <row r="4" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
+        <v>710</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>704</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>715</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>709</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>720</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>9</v>
@@ -9887,10 +12199,10 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>57</v>
@@ -9904,13 +12216,13 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -9921,13 +12233,13 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>14</v>
@@ -9938,13 +12250,13 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>722</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
@@ -9953,7 +12265,7 @@
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="58" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
@@ -9987,16 +12299,16 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>723</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>729</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>8</v>
@@ -10006,29 +12318,29 @@
     </row>
     <row r="15" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>56</v>
@@ -10042,10 +12354,10 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>56</v>
@@ -10059,10 +12371,10 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>83</v>
@@ -10073,12 +12385,12 @@
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
       <c r="G18" s="6" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="58" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B24" s="58"/>
       <c r="C24" s="58"/>
@@ -10112,13 +12424,13 @@
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>7</v>
@@ -10131,29 +12443,29 @@
     </row>
     <row r="27" spans="1:7" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>56</v>
@@ -10167,10 +12479,10 @@
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>56</v>
@@ -10184,10 +12496,10 @@
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>83</v>
@@ -10201,10 +12513,10 @@
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>56</v>
@@ -10216,10 +12528,10 @@
     </row>
     <row r="32" spans="1:7" s="47" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>56</v>
@@ -10231,7 +12543,7 @@
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="58" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
@@ -10265,10 +12577,10 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>56</v>
@@ -10284,10 +12596,10 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>56</v>
@@ -10298,18 +12610,18 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
@@ -10320,29 +12632,29 @@
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="8"/>
       <c r="G43" s="6" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>56</v>
@@ -10351,197 +12663,197 @@
         <v>14</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B50" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>754</v>
+      </c>
+      <c r="D50" s="23" t="s">
         <v>756</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>761</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>763</v>
       </c>
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="G53" s="26"/>
     </row>
     <row r="54" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="49" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="58" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B61" s="58"/>
       <c r="C61" s="58"/>
@@ -10575,10 +12887,10 @@
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>56</v>
@@ -10594,13 +12906,13 @@
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
@@ -10608,15 +12920,15 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>57</v>
@@ -10627,15 +12939,15 @@
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>57</v>
@@ -10649,10 +12961,10 @@
     </row>
     <row r="67" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>57</v>
@@ -10663,18 +12975,18 @@
       <c r="E67" s="23"/>
       <c r="F67" s="24"/>
       <c r="G67" s="23" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>9</v>
@@ -10685,10 +12997,10 @@
     </row>
     <row r="69" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>57</v>
@@ -10700,46 +13012,46 @@
     </row>
     <row r="70" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:7" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="49" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G71" s="52"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="27" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1004">
   <si>
     <t>界面字段名</t>
   </si>
@@ -3666,6 +3666,686 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>Bwctime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系电话</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障简述</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>申报人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理完成时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务负责人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>原服务负责人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>现服务负责人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>调度时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修保养类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联单据</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">故障描述(详细) </t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>带入申报单产生日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据子表的技术服务费和配件价格合计</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(4000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gfwlx</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguzhang_b</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gzongjia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告子表-设备信息  (维修类型只能填写一条)  表名：ZZZ_FWBG_shebei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告子表-错误报警 表名：ZZZ_FWBG_baojing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>LID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkehuyaoqiu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguocheng_a</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkaigongtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangongtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gjishufuwufei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ggongshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gneibujiesuan</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkehuyijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gfujian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaddtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据填写日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsbtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gspyj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗选择，或自动打入关联单据中的客户</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联申报单。 选择未关闭的单据，优先显示最近的单据.只列出自己负责的单据。</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写客户联系人或服务报告的确认人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户要求</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">处理过程描述(详细) </t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串 是，否。  选择是，关闭申报单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批意见</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>开工时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>完工时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术服务费</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务工时</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部结算</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修报告总价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户意见</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传附件</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb_GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb_SID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbguige</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sberpbianhao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbyzsj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bj_GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bj_EID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告子表-零件信息 表名：ZZZ_FWBG_lingjian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>lj_GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>lj_LID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备规格</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>运转时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljxinghao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljdanwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljsjsj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljlsj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljshuliang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljzje</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljbaoxiujiezhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljpihao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件单位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际售价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件数量</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修截止日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带零售价,可修改</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYsheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDnewfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDoldfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gspshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gspren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告主表  表名：ZZZ_FWBG</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>Bzhuangtai</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3674,55 +4354,27 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>Bwctime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请单号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户联系人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户联系电话</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障简述</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>申报人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理完成时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务负责人</t>
+    <t>待处理，已接收，已结单，作废</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsbr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修申请调度历史记录表  表名：ZZZ_BXSQ_DD</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD_BID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>caozuoren</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -3730,122 +4382,82 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>DD_BID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>caozuoren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告单号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度单号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请单号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>原服务负责人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>现服务负责人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>调度时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修保养类型</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联单据</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">故障描述(详细) </t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>带入申报单产生日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据子表的技术服务费和配件价格合计</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(4000)</t>
+    <t>报修申请表  表名：ZZZ_BXSQ</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bfwfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>BID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_BID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gbylx</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gtianxieren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkeshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glianxiren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gsbtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguzhang_a</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障摘要</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理过程摘要</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguocheng_b</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否结单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gjiedan</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -3861,9 +4473,10 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -3871,616 +4484,12 @@
     </r>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
-  <si>
-    <t>Gfwlx</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gbylx</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gguzhang_b</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gzongjia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务报告子表-设备信息  (维修类型只能填写一条)  表名：ZZZ_FWBG_shebei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务报告子表-错误报警 表名：ZZZ_FWBG_baojing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>LID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gkeshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glianxiren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gkehuyaoqiu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gguzhang_a</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gguocheng_a</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gguocheng_b</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gjiedan</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gzhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gkaigongtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gwangongtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gjishufuwufei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ggongshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gneibujiesuan</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gkehuyijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gfujian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaddtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据填写日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bsbtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gsbtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gspyj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务类型</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>科室</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗选择，或自动打入关联单据中的客户</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联申报单。 选择未关闭的单据，优先显示最近的单据.只列出自己负责的单据。</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写人uaid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户联系人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写客户联系人或服务报告的确认人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户要求</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障摘要</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理过程摘要</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">处理过程描述(详细) </t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否结单</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串 是，否。  选择是，关闭申报单</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批意见</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>开工时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>完工时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术服务费</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务工时</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部结算</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修报告总价</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户意见</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传附件</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb_GID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb_SID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbguige</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sberpbianhao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbyzsj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bj_GID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bj_EID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjleixing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务报告子表-零件信息 表名：ZZZ_FWBG_lingjian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>lj_GID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>lj_LID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误类型</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备规格</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>运转时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljxinghao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljdanwei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljsjsj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljlsj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljshuliang</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljzje</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljbaoxiujiezhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljpihao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格型号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件单位</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际售价</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售价</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件数量</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>保修截止日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>批号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>携带零售价,可修改</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作人uaid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYsheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYname</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYdizhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bsbr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bfwfzr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修申请表  表名：ZZZ_BXSQ</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDnewfzr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDoldfzr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修申请调度历史记录表  表名：ZZZ_BXSQ_DD</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gtianxieren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gspshijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_BID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>BID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gspren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务报告主表  表名：ZZZ_FWBG</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>待处理，已接收，已结单，作废</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4751,8 +4760,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -4760,7 +4776,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -5270,7 +5293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5428,20 +5451,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5820,7 +5857,7 @@
   <dimension ref="A3:G157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5835,15 +5872,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>560</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -5892,7 +5929,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>983</v>
+        <v>965</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -5909,7 +5946,7 @@
         <v>180</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>982</v>
+        <v>964</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>56</v>
@@ -5959,7 +5996,7 @@
         <v>182</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>984</v>
+        <v>966</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
@@ -6124,15 +6161,15 @@
       <c r="D21" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -6295,15 +6332,15 @@
       <c r="D35" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -6577,15 +6614,15 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -6651,7 +6688,7 @@
         <v>66</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>62</v>
+        <v>975</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>56</v>
@@ -6681,15 +6718,15 @@
       <c r="G61" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -6719,7 +6756,7 @@
         <v>371</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>56</v>
@@ -6738,7 +6775,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>56</v>
@@ -6886,14 +6923,14 @@
         <v>426</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="D76" s="35" t="s">
         <v>75</v>
       </c>
       <c r="G76" s="42"/>
     </row>
-    <row r="77" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" s="41" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="33" t="s">
         <v>372</v>
       </c>
@@ -6908,7 +6945,7 @@
       </c>
       <c r="G77" s="42"/>
     </row>
-    <row r="78" spans="1:7" s="41" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" s="41" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="33" t="s">
         <v>373</v>
       </c>
@@ -7000,15 +7037,15 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="58" t="s">
+      <c r="A85" s="59" t="s">
         <v>461</v>
       </c>
-      <c r="B85" s="58"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="59"/>
     </row>
     <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -7259,15 +7296,15 @@
       <c r="G99" s="4"/>
     </row>
     <row r="101" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="58" t="s">
+      <c r="A101" s="59" t="s">
         <v>427</v>
       </c>
-      <c r="B101" s="58"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="58"/>
-      <c r="E101" s="58"/>
-      <c r="F101" s="58"/>
-      <c r="G101" s="58"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="59"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="59"/>
     </row>
     <row r="102" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -7374,15 +7411,15 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="58" t="s">
+      <c r="A108" s="59" t="s">
         <v>428</v>
       </c>
-      <c r="B108" s="58"/>
-      <c r="C108" s="58"/>
-      <c r="D108" s="58"/>
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
+      <c r="B108" s="59"/>
+      <c r="C108" s="59"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
     </row>
     <row r="109" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -7412,7 +7449,7 @@
         <v>429</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>56</v>
@@ -7590,15 +7627,15 @@
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="58" t="s">
+      <c r="A122" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="B122" s="58"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="58"/>
-      <c r="E122" s="58"/>
-      <c r="F122" s="58"/>
-      <c r="G122" s="58"/>
+      <c r="B122" s="59"/>
+      <c r="C122" s="59"/>
+      <c r="D122" s="59"/>
+      <c r="E122" s="59"/>
+      <c r="F122" s="59"/>
+      <c r="G122" s="59"/>
     </row>
     <row r="123" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
@@ -7710,15 +7747,15 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="57" t="s">
+      <c r="A134" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="B134" s="58"/>
-      <c r="C134" s="58"/>
-      <c r="D134" s="58"/>
-      <c r="E134" s="58"/>
-      <c r="F134" s="58"/>
-      <c r="G134" s="58"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="59"/>
+      <c r="D134" s="59"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="59"/>
+      <c r="G134" s="59"/>
     </row>
     <row r="135" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
@@ -7902,15 +7939,15 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="57" t="s">
+      <c r="A150" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="B150" s="58"/>
-      <c r="C150" s="58"/>
-      <c r="D150" s="58"/>
-      <c r="E150" s="58"/>
-      <c r="F150" s="58"/>
-      <c r="G150" s="58"/>
+      <c r="B150" s="59"/>
+      <c r="C150" s="59"/>
+      <c r="D150" s="59"/>
+      <c r="E150" s="59"/>
+      <c r="F150" s="59"/>
+      <c r="G150" s="59"/>
     </row>
     <row r="151" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
@@ -8057,8 +8094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8071,15 +8108,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
-        <v>987</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="A1" s="59" t="s">
+        <v>985</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -8106,10 +8143,10 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -8125,10 +8162,10 @@
     </row>
     <row r="4" spans="1:7" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>56</v>
@@ -8142,7 +8179,7 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>803</v>
@@ -8159,7 +8196,7 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>804</v>
@@ -8176,7 +8213,7 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>805</v>
@@ -8193,10 +8230,10 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -8211,10 +8248,10 @@
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="44" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>56</v>
@@ -8228,10 +8265,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B10" t="s">
-        <v>806</v>
+        <v>976</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
@@ -8240,15 +8277,15 @@
         <v>789</v>
       </c>
       <c r="G10" t="s">
-        <v>1001</v>
+        <v>978</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B11" t="s">
-        <v>807</v>
+        <v>977</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>11</v>
@@ -8259,10 +8296,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B12" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>24</v>
@@ -8273,13 +8310,13 @@
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>986</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>787</v>
@@ -8289,15 +8326,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="s">
-        <v>990</v>
-      </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
+      <c r="A16" s="59" t="s">
+        <v>981</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -8324,10 +8361,10 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>821</v>
+        <v>984</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>56</v>
@@ -8343,10 +8380,10 @@
     </row>
     <row r="19" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>822</v>
+        <v>982</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>56</v>
@@ -8362,10 +8399,10 @@
     </row>
     <row r="20" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>56</v>
@@ -8381,10 +8418,10 @@
     </row>
     <row r="21" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>798</v>
@@ -8400,16 +8437,16 @@
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>797</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="9" t="s">
@@ -8422,7 +8459,7 @@
         <v>796</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>824</v>
+        <v>983</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>799</v>
@@ -8431,19 +8468,19 @@
         <v>9</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="58" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
+      <c r="A30" s="59" t="s">
+        <v>974</v>
+      </c>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -8470,10 +8507,10 @@
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>326</v>
+        <v>988</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>57</v>
@@ -8489,10 +8526,10 @@
     </row>
     <row r="33" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="49" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>56</v>
@@ -8506,10 +8543,10 @@
     </row>
     <row r="34" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>56</v>
@@ -8520,15 +8557,15 @@
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>853</v>
+        <v>990</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>798</v>
@@ -8542,10 +8579,10 @@
     </row>
     <row r="36" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>57</v>
@@ -8556,100 +8593,100 @@
       <c r="E36" s="23"/>
       <c r="F36" s="24"/>
       <c r="G36" s="23" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="B38" t="s">
-        <v>870</v>
+        <v>993</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="27" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="B39" t="s">
-        <v>871</v>
+        <v>994</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>789</v>
       </c>
       <c r="G39" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="27" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="B40" t="s">
-        <v>894</v>
+        <v>995</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>791</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="G40" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="31" t="s">
-        <v>911</v>
+        <v>996</v>
       </c>
       <c r="B41" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="59" t="s">
-        <v>912</v>
+      <c r="A42" s="57" t="s">
+        <v>898</v>
       </c>
       <c r="B42" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>14</v>
@@ -8657,10 +8694,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="31" t="s">
-        <v>913</v>
+        <v>998</v>
       </c>
       <c r="B43" t="s">
-        <v>873</v>
+        <v>997</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>322</v>
@@ -8671,13 +8708,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="31" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B44" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>14</v>
@@ -8685,10 +8722,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="31" t="s">
-        <v>914</v>
+        <v>999</v>
       </c>
       <c r="B45" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>322</v>
@@ -8699,13 +8736,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="B46" t="s">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>14</v>
@@ -8713,10 +8750,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
-        <v>916</v>
+        <v>1001</v>
       </c>
       <c r="B47" t="s">
-        <v>876</v>
+        <v>1002</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>57</v>
@@ -8725,122 +8762,122 @@
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="87" x14ac:dyDescent="0.15">
-      <c r="A48" s="31" t="s">
-        <v>918</v>
-      </c>
-      <c r="B48" t="s">
-        <v>877</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>809</v>
-      </c>
-      <c r="D48" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="61" customFormat="1" ht="87" x14ac:dyDescent="0.15">
+      <c r="A48" s="60" t="s">
+        <v>901</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>865</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>807</v>
+      </c>
+      <c r="D48" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="60" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49" s="31" t="s">
-        <v>919</v>
-      </c>
-      <c r="B49" t="s">
-        <v>897</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>898</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="61" t="s">
-        <v>993</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>999</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>995</v>
-      </c>
-      <c r="D50" s="23" t="s">
+      <c r="G48" s="64" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="60" t="s">
+        <v>902</v>
+      </c>
+      <c r="B49" s="61" t="s">
+        <v>884</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>885</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="65" t="s">
+        <v>969</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>973</v>
+      </c>
+      <c r="C50" s="67" t="s">
+        <v>971</v>
+      </c>
+      <c r="D50" s="68" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A51" s="31" t="s">
-        <v>994</v>
-      </c>
-      <c r="B51" t="s">
-        <v>996</v>
-      </c>
-      <c r="C51" s="30" t="s">
+    <row r="51" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="60" t="s">
+        <v>970</v>
+      </c>
+      <c r="B51" s="61" t="s">
+        <v>972</v>
+      </c>
+      <c r="C51" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>840</v>
+      <c r="D51" s="63" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="B52" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="31" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
       <c r="B53" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="31" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="B54" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="31" t="s">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="B55" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>9</v>
@@ -8848,13 +8885,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="B56" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>9</v>
@@ -8862,10 +8899,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="31" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="B57" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>83</v>
@@ -8876,13 +8913,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="31" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="B58" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>14</v>
@@ -8890,42 +8927,42 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="31" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="B59" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="31" t="s">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="B60" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="C60" s="30" t="s">
+        <v>844</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="59" t="s">
         <v>849</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="58" t="s">
-        <v>856</v>
-      </c>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -8955,10 +8992,10 @@
         <v>475</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>7</v>
@@ -8971,10 +9008,10 @@
     </row>
     <row r="68" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="49" t="s">
-        <v>952</v>
+        <v>935</v>
       </c>
       <c r="B68" s="54" t="s">
-        <v>930</v>
+        <v>913</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>57</v>
@@ -8991,7 +9028,7 @@
         <v>549</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>56</v>
@@ -9005,10 +9042,10 @@
     </row>
     <row r="70" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="50" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>798</v>
@@ -9022,10 +9059,10 @@
     </row>
     <row r="71" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="50" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>57</v>
@@ -9039,57 +9076,57 @@
     </row>
     <row r="72" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="50" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="G72" s="56"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="27" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="B73" t="s">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="27" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B74" t="s">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="58" t="s">
-        <v>861</v>
-      </c>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
+      <c r="A79" s="59" t="s">
+        <v>854</v>
+      </c>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
     </row>
     <row r="80" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -9116,13 +9153,13 @@
     </row>
     <row r="81" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>7</v>
@@ -9135,10 +9172,10 @@
     </row>
     <row r="82" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="49" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="B82" s="54" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>56</v>
@@ -9152,10 +9189,10 @@
     </row>
     <row r="83" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="50" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>56</v>
@@ -9169,10 +9206,10 @@
     </row>
     <row r="84" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="50" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>798</v>
@@ -9186,10 +9223,10 @@
     </row>
     <row r="85" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="50" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>57</v>
@@ -9203,28 +9240,28 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="27" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="C86" s="30" t="s">
         <v>233</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A93" s="58" t="s">
-        <v>943</v>
-      </c>
-      <c r="B93" s="58"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
+      <c r="A93" s="59" t="s">
+        <v>926</v>
+      </c>
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="59"/>
     </row>
     <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
@@ -9251,13 +9288,13 @@
     </row>
     <row r="95" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>7</v>
@@ -9270,10 +9307,10 @@
     </row>
     <row r="96" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="49" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>56</v>
@@ -9287,10 +9324,10 @@
     </row>
     <row r="97" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="50" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>56</v>
@@ -9304,10 +9341,10 @@
     </row>
     <row r="98" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="50" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="B98" s="55" t="s">
-        <v>956</v>
+        <v>939</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>798</v>
@@ -9321,10 +9358,10 @@
     </row>
     <row r="99" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="50" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>57</v>
@@ -9338,10 +9375,10 @@
     </row>
     <row r="100" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="27" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
       <c r="C100" s="30" t="s">
         <v>57</v>
@@ -9352,10 +9389,10 @@
     </row>
     <row r="101" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="27" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="C101" s="30" t="s">
         <v>83</v>
@@ -9364,18 +9401,18 @@
         <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>979</v>
+        <v>962</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
-        <v>974</v>
+        <v>957</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>9</v>
@@ -9383,13 +9420,13 @@
     </row>
     <row r="103" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="27" t="s">
-        <v>975</v>
+        <v>958</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>9</v>
@@ -9397,10 +9434,10 @@
     </row>
     <row r="104" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="27" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="C104" s="30" t="s">
         <v>83</v>
@@ -9409,15 +9446,15 @@
         <v>9</v>
       </c>
       <c r="G104" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="27" t="s">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
       <c r="C105" s="30" t="s">
         <v>242</v>
@@ -9428,13 +9465,13 @@
     </row>
     <row r="106" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="27" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>966</v>
+        <v>949</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>14</v>
@@ -9442,26 +9479,26 @@
     </row>
     <row r="107" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
+        <v>830</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>948</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>856</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>835</v>
-      </c>
-      <c r="B107" s="32" t="s">
-        <v>965</v>
-      </c>
-      <c r="C107" s="30" t="s">
-        <v>863</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>840</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A93:G93"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A65:G65"/>
     <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A93:G93"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9488,15 +9525,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -9632,15 +9669,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -9852,15 +9889,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -9960,15 +9997,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="59" t="s">
         <v>290</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -10186,15 +10223,15 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -10484,15 +10521,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>484</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10653,15 +10690,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -10861,15 +10898,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>587</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -11190,15 +11227,15 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="59" t="s">
         <v>582</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -11342,15 +11379,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -11647,15 +11684,15 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="59" t="s">
         <v>593</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -11825,15 +11862,15 @@
       <c r="G33" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="59" t="s">
         <v>619</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -12128,15 +12165,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>702</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -12264,15 +12301,15 @@
       <c r="G8" s="56"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="59" t="s">
         <v>703</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -12389,15 +12426,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="59" t="s">
         <v>673</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -12542,15 +12579,15 @@
       <c r="G32" s="48"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="59" t="s">
         <v>785</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -12852,15 +12889,15 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="59" t="s">
         <v>684</v>
       </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1003">
   <si>
     <t>界面字段名</t>
   </si>
@@ -1762,10 +1762,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>S_SBID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>设备名称</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -1968,19 +1964,11 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>零配件信息表  表名：ZZZ_WFLJ</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>配件编号</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lmingcheng</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -3039,18 +3027,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>i_dpid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_pid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>danwei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>单位</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3127,10 +3103,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>库存调整单子表  表名：ZZZ_C_record_sub</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>r_ru</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3340,10 +3312,6 @@
   </si>
   <si>
     <t>批号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lguige</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -3690,10 +3658,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>故障简述</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>申报日期</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3762,19 +3726,275 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>带入申报单产生日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据子表的技术服务费和配件价格合计</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(4000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gfwlx</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguzhang_b</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>LID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkehuyaoqiu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguocheng_a</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkehuyijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gfujian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaddtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据填写日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗选择，或自动打入关联单据中的客户</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联申报单。 选择未关闭的单据，优先显示最近的单据.只列出自己负责的单据。</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写客户联系人或服务报告的确认人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户要求</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">处理过程描述(详细) </t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串 是，否。  选择是，关闭申报单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批意见</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>开工时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>完工时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术服务费</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务工时</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部结算</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修报告总价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户意见</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>带入申报单产生日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据子表的技术服务费和配件价格合计</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
+    <t>上传附件</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb_GID</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -3782,11 +4002,39 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
+    <t>编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备规格</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>运转时间</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -3794,43 +4042,195 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(4000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gfwlx</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gguzhang_b</t>
+    <t>编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件单位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修截止日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带零售价,可修改</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYsheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDnewfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDoldfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告主表  表名：ZZZ_FWBG</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bjstime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>待处理，已接收，已结单，作废</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsbr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修申请调度历史记录表  表名：ZZZ_BXSQ_DD</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD_BID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>caozuoren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修申请表  表名：ZZZ_BXSQ</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bfwfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_BID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gbylx</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gtianxieren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkeshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glianxiren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gsbtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguzhang_a</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障摘要</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理过程摘要</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguocheng_b</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否结单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gjiedan</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkaigongtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangongtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gjishufuwufei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ggongshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gneibujiesuan</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -3838,619 +4238,19 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>Gbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>服务报告子表-设备信息  (维修类型只能填写一条)  表名：ZZZ_FWBG_shebei</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>设备名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务报告子表-错误报警 表名：ZZZ_FWBG_baojing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(500)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 0)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>SID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>LID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gkehuyaoqiu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gguocheng_a</t>
+    <t>服务报告子表-零件信息 表名：ZZZ_FWBG_lingjian</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>Gzhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gkaigongtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gwangongtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gjishufuwufei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ggongshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gneibujiesuan</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gkehuyijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gfujian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaddtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据填写日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bsbtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gspyj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务类型</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>科室</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗选择，或自动打入关联单据中的客户</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联申报单。 选择未关闭的单据，优先显示最近的单据.只列出自己负责的单据。</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写人uaid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户联系人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写客户联系人或服务报告的确认人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户要求</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">处理过程描述(详细) </t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串 是，否。  选择是，关闭申报单</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批意见</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>开工时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>完工时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术服务费</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务工时</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部结算</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修报告总价</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户意见</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传附件</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb_GID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb_SID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbguige</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sberpbianhao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbyzsj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bj_GID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bj_EID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjleixing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务报告子表-零件信息 表名：ZZZ_FWBG_lingjian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>lj_GID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>lj_LID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误类型</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备规格</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>运转时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljxinghao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljdanwei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljsjsj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljlsj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljshuliang</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljzje</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljbaoxiujiezhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljpihao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格型号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件单位</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际售价</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售价</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件数量</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>保修截止日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>批号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>携带零售价,可修改</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作人uaid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYsheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYname</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYdizhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDnewfzr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDoldfzr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gspshijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gspren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务报告主表  表名：ZZZ_FWBG</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bzhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bjstime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>待处理，已接收，已结单，作废</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bsbr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修申请调度历史记录表  表名：ZZZ_BXSQ_DD</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD_BID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>caozuoren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修申请表  表名：ZZZ_BXSQ</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bfwfzr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>BID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>GID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_BID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gbylx</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gtianxieren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gkeshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glianxiren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gsbtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gguzhang_a</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障摘要</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理过程摘要</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gguocheng_b</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否结单</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gjiedan</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -4482,6 +4282,202 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gspyj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gspren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gspshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbguige</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sberpbianhao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbyzsj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bj_EID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljxinghao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljdanwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljsjsj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际售价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljlsj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljshuliang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件数量</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljzje</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljbaoxiujiezhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljpihao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bj_GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告子表-错误报警 表名：ZZZ_FWBG_baojing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>lj_GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb_SID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>lj_LID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsbtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>BID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障简述</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_SBID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存调整单子表  表名：ZZZ_C_record_sub</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>danwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零配件信息表  表名：ZZZ_WFLJ</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_pid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lguige</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_dpid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdate()</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -5856,8 +5852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5873,7 +5869,7 @@
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="59" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -5929,7 +5925,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>965</v>
+        <v>910</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -5946,7 +5942,7 @@
         <v>180</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>964</v>
+        <v>909</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>56</v>
@@ -5996,7 +5992,7 @@
         <v>182</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>966</v>
+        <v>911</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
@@ -6461,7 +6457,7 @@
         <v>151</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>56</v>
@@ -6526,7 +6522,7 @@
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>156</v>
@@ -6540,7 +6536,7 @@
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="43" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -6610,7 +6606,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="3"/>
       <c r="G52" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -6688,7 +6684,7 @@
         <v>66</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>975</v>
+        <v>918</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>56</v>
@@ -6719,7 +6715,7 @@
     </row>
     <row r="64" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="59" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
@@ -6756,7 +6752,7 @@
         <v>371</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>56</v>
@@ -6775,7 +6771,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>846</v>
+        <v>994</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>56</v>
@@ -6811,7 +6807,7 @@
         <v>381</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>382</v>
+        <v>993</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>376</v>
@@ -6827,7 +6823,7 @@
     </row>
     <row r="70" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B70" s="38" t="s">
         <v>375</v>
@@ -6844,7 +6840,7 @@
     </row>
     <row r="71" spans="1:7" s="37" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B71" s="38" t="s">
         <v>380</v>
@@ -6920,10 +6916,10 @@
         <v>71</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="D76" s="35" t="s">
         <v>75</v>
@@ -6965,7 +6961,7 @@
         <v>72</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>56</v>
@@ -6974,7 +6970,7 @@
         <v>81</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -7002,7 +6998,7 @@
         <v>87</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>75</v>
@@ -7016,7 +7012,7 @@
         <v>90</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>75</v>
@@ -7038,7 +7034,7 @@
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="59" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
@@ -7072,13 +7068,13 @@
     </row>
     <row r="87" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="B87" s="16" t="s">
-        <v>409</v>
-      </c>
       <c r="C87" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>202</v>
@@ -7091,16 +7087,16 @@
     </row>
     <row r="88" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>378</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E88" s="28"/>
       <c r="F88" s="28"/>
@@ -7108,16 +7104,16 @@
     </row>
     <row r="89" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>378</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E89" s="28"/>
       <c r="F89" s="28"/>
@@ -7125,16 +7121,16 @@
     </row>
     <row r="90" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E90" s="28"/>
       <c r="F90" s="28"/>
@@ -7142,16 +7138,16 @@
     </row>
     <row r="91" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E91" s="28"/>
       <c r="F91" s="28"/>
@@ -7159,16 +7155,16 @@
     </row>
     <row r="92" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C92" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E92" s="28"/>
       <c r="F92" s="28"/>
@@ -7176,16 +7172,16 @@
     </row>
     <row r="93" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C93" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E93" s="28"/>
       <c r="F93" s="28"/>
@@ -7193,16 +7189,16 @@
     </row>
     <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E94" s="28"/>
       <c r="F94" s="28"/>
@@ -7210,16 +7206,16 @@
     </row>
     <row r="95" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B95" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="B95" s="15" t="s">
-        <v>417</v>
-      </c>
       <c r="C95" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E95" s="28"/>
       <c r="F95" s="28"/>
@@ -7227,13 +7223,13 @@
     </row>
     <row r="96" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C96" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D96" s="28" t="s">
         <v>368</v>
@@ -7244,16 +7240,16 @@
     </row>
     <row r="97" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B97" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="B97" s="15" t="s">
-        <v>420</v>
-      </c>
       <c r="C97" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E97" s="28"/>
       <c r="F97" s="28"/>
@@ -7261,29 +7257,29 @@
     </row>
     <row r="98" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E98" s="28"/>
       <c r="F98" s="28"/>
       <c r="G98" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>201</v>
@@ -7297,7 +7293,7 @@
     </row>
     <row r="101" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B101" s="59"/>
       <c r="C101" s="59"/>
@@ -7412,7 +7408,7 @@
     </row>
     <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="59" t="s">
-        <v>428</v>
+        <v>997</v>
       </c>
       <c r="B108" s="59"/>
       <c r="C108" s="59"/>
@@ -7446,10 +7442,10 @@
     </row>
     <row r="110" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>56</v>
@@ -7465,10 +7461,10 @@
     </row>
     <row r="111" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>431</v>
+        <v>999</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>56</v>
@@ -7482,16 +7478,16 @@
     </row>
     <row r="112" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>738</v>
+        <v>1000</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="9"/>
@@ -7501,16 +7497,16 @@
     </row>
     <row r="113" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="8"/>
@@ -7518,10 +7514,10 @@
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>117</v>
@@ -7532,89 +7528,89 @@
     </row>
     <row r="115" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="28" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="28" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C116" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D116" s="6" t="s">
         <v>448</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A117" s="28" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C117" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>449</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A118" s="28" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A119" s="31" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B120" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>466</v>
-      </c>
       <c r="C120" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -7712,7 +7708,7 @@
       <c r="E126" s="6"/>
       <c r="F126" s="9"/>
       <c r="G126" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -8094,8 +8090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8109,7 +8105,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="59" t="s">
-        <v>985</v>
+        <v>927</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -8143,10 +8139,10 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -8162,10 +8158,10 @@
     </row>
     <row r="4" spans="1:7" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>980</v>
+        <v>922</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>56</v>
@@ -8179,10 +8175,10 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>56</v>
@@ -8196,10 +8192,10 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -8213,13 +8209,13 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>812</v>
+        <v>992</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>9</v>
@@ -8230,10 +8226,10 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>881</v>
+        <v>990</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -8242,64 +8238,64 @@
         <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="44" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>979</v>
+        <v>921</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="B10" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="G10" t="s">
-        <v>978</v>
+        <v>920</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="B11" t="s">
-        <v>977</v>
+        <v>919</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B12" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>24</v>
@@ -8310,24 +8306,24 @@
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>986</v>
+        <v>928</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="59" t="s">
-        <v>981</v>
+        <v>923</v>
       </c>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -8361,10 +8357,10 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>984</v>
+        <v>926</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>56</v>
@@ -8380,10 +8376,10 @@
     </row>
     <row r="19" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>982</v>
+        <v>924</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>56</v>
@@ -8394,15 +8390,15 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>968</v>
+        <v>913</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>56</v>
@@ -8413,18 +8409,18 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>967</v>
+        <v>912</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>9</v>
@@ -8432,21 +8428,21 @@
       <c r="E21" s="23"/>
       <c r="F21" s="24"/>
       <c r="G21" s="23" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="9" t="s">
@@ -8456,24 +8452,24 @@
     </row>
     <row r="23" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>983</v>
+        <v>925</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>963</v>
+        <v>908</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="59" t="s">
-        <v>974</v>
+        <v>917</v>
       </c>
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
@@ -8507,10 +8503,10 @@
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>988</v>
+        <v>326</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>57</v>
@@ -8526,10 +8522,10 @@
     </row>
     <row r="33" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="49" t="s">
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>56</v>
@@ -8543,10 +8539,10 @@
     </row>
     <row r="34" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>889</v>
+        <v>865</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>991</v>
+        <v>931</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>56</v>
@@ -8557,18 +8553,18 @@
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23" t="s">
-        <v>894</v>
+        <v>870</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>990</v>
+        <v>930</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>9</v>
@@ -8579,10 +8575,10 @@
     </row>
     <row r="36" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>989</v>
+        <v>929</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>57</v>
@@ -8593,100 +8589,103 @@
       <c r="E36" s="23"/>
       <c r="F36" s="24"/>
       <c r="G36" s="23" t="s">
-        <v>893</v>
+        <v>869</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>992</v>
+        <v>932</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>892</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
-        <v>891</v>
+        <v>867</v>
       </c>
       <c r="B38" t="s">
-        <v>993</v>
+        <v>933</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="27" t="s">
-        <v>895</v>
+        <v>871</v>
       </c>
       <c r="B39" t="s">
-        <v>994</v>
+        <v>934</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="G39" t="s">
-        <v>896</v>
+        <v>872</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="27" t="s">
-        <v>897</v>
+        <v>873</v>
       </c>
       <c r="B40" t="s">
-        <v>995</v>
+        <v>935</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
       <c r="G40" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="31" t="s">
-        <v>996</v>
+        <v>936</v>
       </c>
       <c r="B41" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="F41" t="s">
+        <v>1002</v>
+      </c>
       <c r="G41" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="57" t="s">
-        <v>898</v>
+        <v>874</v>
       </c>
       <c r="B42" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>14</v>
@@ -8694,10 +8693,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="31" t="s">
-        <v>998</v>
+        <v>938</v>
       </c>
       <c r="B43" t="s">
-        <v>997</v>
+        <v>937</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>322</v>
@@ -8708,13 +8707,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="31" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="B44" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>14</v>
@@ -8722,10 +8721,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="31" t="s">
-        <v>999</v>
+        <v>939</v>
       </c>
       <c r="B45" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>322</v>
@@ -8736,13 +8735,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
-        <v>899</v>
+        <v>875</v>
       </c>
       <c r="B46" t="s">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>14</v>
@@ -8750,10 +8749,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
-        <v>1001</v>
+        <v>941</v>
       </c>
       <c r="B47" t="s">
-        <v>1002</v>
+        <v>942</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>57</v>
@@ -8762,49 +8761,49 @@
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>900</v>
+        <v>876</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="61" customFormat="1" ht="87" x14ac:dyDescent="0.15">
       <c r="A48" s="60" t="s">
-        <v>901</v>
+        <v>877</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>865</v>
+        <v>952</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="D48" s="63" t="s">
         <v>9</v>
       </c>
       <c r="G48" s="64" t="s">
-        <v>1003</v>
+        <v>953</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="60" t="s">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>884</v>
+        <v>954</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="D49" s="63" t="s">
-        <v>875</v>
+        <v>853</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="65" t="s">
-        <v>969</v>
+        <v>914</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>973</v>
+        <v>955</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>971</v>
+        <v>916</v>
       </c>
       <c r="D50" s="68" t="s">
         <v>14</v>
@@ -8812,72 +8811,72 @@
     </row>
     <row r="51" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="60" t="s">
-        <v>970</v>
+        <v>915</v>
       </c>
       <c r="B51" s="61" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="C51" s="62" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="63" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="B52" t="s">
-        <v>866</v>
+        <v>943</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="31" t="s">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="B53" t="s">
-        <v>867</v>
+        <v>944</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="31" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="B54" t="s">
-        <v>868</v>
+        <v>945</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>886</v>
+        <v>862</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="31" t="s">
-        <v>906</v>
+        <v>882</v>
       </c>
       <c r="B55" t="s">
-        <v>869</v>
+        <v>946</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>9</v>
@@ -8885,13 +8884,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
-        <v>907</v>
+        <v>883</v>
       </c>
       <c r="B56" t="s">
-        <v>870</v>
+        <v>947</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>9</v>
@@ -8899,27 +8898,27 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="31" t="s">
-        <v>908</v>
+        <v>884</v>
       </c>
       <c r="B57" t="s">
-        <v>848</v>
+        <v>948</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="31" t="s">
-        <v>909</v>
+        <v>885</v>
       </c>
       <c r="B58" t="s">
-        <v>871</v>
+        <v>850</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>887</v>
+        <v>863</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>14</v>
@@ -8927,35 +8926,35 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="31" t="s">
-        <v>910</v>
+        <v>886</v>
       </c>
       <c r="B59" t="s">
-        <v>872</v>
+        <v>949</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="31" t="s">
-        <v>911</v>
+        <v>887</v>
       </c>
       <c r="B60" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="59" t="s">
-        <v>849</v>
+        <v>950</v>
       </c>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -8989,13 +8988,13 @@
     </row>
     <row r="67" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>912</v>
+        <v>957</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>7</v>
@@ -9008,10 +9007,10 @@
     </row>
     <row r="68" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="49" t="s">
-        <v>935</v>
+        <v>895</v>
       </c>
       <c r="B68" s="54" t="s">
-        <v>913</v>
+        <v>888</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>57</v>
@@ -9025,10 +9024,10 @@
     </row>
     <row r="69" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="50" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>914</v>
+        <v>987</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>56</v>
@@ -9042,13 +9041,13 @@
     </row>
     <row r="70" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="50" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>915</v>
+        <v>958</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>14</v>
@@ -9059,10 +9058,10 @@
     </row>
     <row r="71" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="50" t="s">
-        <v>936</v>
+        <v>896</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>916</v>
+        <v>959</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>57</v>
@@ -9076,50 +9075,50 @@
     </row>
     <row r="72" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="50" t="s">
-        <v>937</v>
+        <v>897</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>917</v>
+        <v>960</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="G72" s="56"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="27" t="s">
-        <v>938</v>
+        <v>898</v>
       </c>
       <c r="B73" t="s">
-        <v>918</v>
+        <v>961</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="27" t="s">
-        <v>830</v>
+        <v>187</v>
       </c>
       <c r="B74" t="s">
-        <v>919</v>
+        <v>962</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="59" t="s">
-        <v>854</v>
+        <v>983</v>
       </c>
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
@@ -9153,13 +9152,13 @@
     </row>
     <row r="81" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>920</v>
+        <v>984</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>925</v>
+        <v>889</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>7</v>
@@ -9172,10 +9171,10 @@
     </row>
     <row r="82" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="49" t="s">
-        <v>931</v>
+        <v>891</v>
       </c>
       <c r="B82" s="54" t="s">
-        <v>921</v>
+        <v>982</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>56</v>
@@ -9189,10 +9188,10 @@
     </row>
     <row r="83" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="50" t="s">
-        <v>932</v>
+        <v>892</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>922</v>
+        <v>963</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>56</v>
@@ -9206,13 +9205,13 @@
     </row>
     <row r="84" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="50" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>923</v>
+        <v>964</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>14</v>
@@ -9223,10 +9222,10 @@
     </row>
     <row r="85" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="50" t="s">
-        <v>933</v>
+        <v>893</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>924</v>
+        <v>965</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>57</v>
@@ -9240,21 +9239,21 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="27" t="s">
-        <v>934</v>
+        <v>894</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>861</v>
+        <v>966</v>
       </c>
       <c r="C86" s="30" t="s">
         <v>233</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="59" t="s">
-        <v>926</v>
+        <v>951</v>
       </c>
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
@@ -9288,13 +9287,13 @@
     </row>
     <row r="95" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>927</v>
+        <v>986</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>925</v>
+        <v>889</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>7</v>
@@ -9307,10 +9306,10 @@
     </row>
     <row r="96" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="49" t="s">
-        <v>951</v>
+        <v>901</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>928</v>
+        <v>985</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>56</v>
@@ -9324,10 +9323,10 @@
     </row>
     <row r="97" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="50" t="s">
-        <v>952</v>
+        <v>902</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>929</v>
+        <v>988</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>56</v>
@@ -9341,13 +9340,13 @@
     </row>
     <row r="98" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="50" t="s">
-        <v>953</v>
+        <v>903</v>
       </c>
       <c r="B98" s="55" t="s">
-        <v>939</v>
+        <v>967</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>9</v>
@@ -9358,10 +9357,10 @@
     </row>
     <row r="99" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="50" t="s">
-        <v>954</v>
+        <v>904</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>940</v>
+        <v>968</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>57</v>
@@ -9375,10 +9374,10 @@
     </row>
     <row r="100" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="27" t="s">
-        <v>955</v>
+        <v>905</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>941</v>
+        <v>969</v>
       </c>
       <c r="C100" s="30" t="s">
         <v>57</v>
@@ -9389,10 +9388,10 @@
     </row>
     <row r="101" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="27" t="s">
-        <v>956</v>
+        <v>971</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>942</v>
+        <v>970</v>
       </c>
       <c r="C101" s="30" t="s">
         <v>83</v>
@@ -9401,18 +9400,18 @@
         <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>962</v>
+        <v>907</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
-        <v>957</v>
+        <v>973</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>943</v>
+        <v>972</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>9</v>
@@ -9420,13 +9419,13 @@
     </row>
     <row r="103" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="27" t="s">
-        <v>958</v>
+        <v>975</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>944</v>
+        <v>974</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>9</v>
@@ -9434,10 +9433,10 @@
     </row>
     <row r="104" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="27" t="s">
-        <v>959</v>
+        <v>150</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>945</v>
+        <v>976</v>
       </c>
       <c r="C104" s="30" t="s">
         <v>83</v>
@@ -9446,15 +9445,15 @@
         <v>9</v>
       </c>
       <c r="G104" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="27" t="s">
-        <v>960</v>
+        <v>906</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>946</v>
+        <v>977</v>
       </c>
       <c r="C105" s="30" t="s">
         <v>242</v>
@@ -9465,13 +9464,13 @@
     </row>
     <row r="106" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="27" t="s">
-        <v>961</v>
+        <v>979</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>947</v>
+        <v>978</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>14</v>
@@ -9479,16 +9478,16 @@
     </row>
     <row r="107" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
-        <v>830</v>
+        <v>981</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>948</v>
+        <v>980</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
     </row>
   </sheetData>
@@ -10053,7 +10052,7 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>291</v>
@@ -10067,12 +10066,12 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>292</v>
@@ -10086,12 +10085,12 @@
       <c r="E42" s="6"/>
       <c r="F42" s="9"/>
       <c r="G42" s="6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>293</v>
@@ -10148,7 +10147,7 @@
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>304</v>
@@ -10162,7 +10161,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="9"/>
       <c r="G46" s="6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -10522,7 +10521,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="59" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -10556,13 +10555,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -10572,18 +10571,18 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>9</v>
@@ -10594,13 +10593,13 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -10611,13 +10610,13 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -10628,10 +10627,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>57</v>
@@ -10642,15 +10641,15 @@
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>57</v>
@@ -10661,15 +10660,15 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="27" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
@@ -10677,21 +10676,21 @@
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="59" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -10725,10 +10724,10 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>57</v>
@@ -10741,15 +10740,15 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>57</v>
@@ -10763,13 +10762,13 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>9</v>
@@ -10780,16 +10779,16 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -10797,13 +10796,13 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
@@ -10811,21 +10810,21 @@
       <c r="E18" s="6"/>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="9"/>
@@ -10833,40 +10832,40 @@
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="9"/>
       <c r="G20" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -10899,7 +10898,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="59" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -10933,13 +10932,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -10949,7 +10948,7 @@
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -10957,10 +10956,10 @@
         <v>178</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>135</v>
@@ -10968,75 +10967,75 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>554</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="9" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>660</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>658</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>163</v>
@@ -11044,40 +11043,40 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
@@ -11085,16 +11084,16 @@
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
@@ -11102,29 +11101,29 @@
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>11</v>
@@ -11135,24 +11134,24 @@
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="44" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="44" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>57</v>
@@ -11163,10 +11162,10 @@
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="44" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>57</v>
@@ -11175,60 +11174,60 @@
         <v>163</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G18" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G19" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="59" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
@@ -11262,13 +11261,13 @@
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>7</v>
@@ -11278,59 +11277,59 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="9"/>
@@ -11338,13 +11337,13 @@
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="27" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>163</v>
@@ -11380,7 +11379,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="59" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -11436,7 +11435,7 @@
         <v>179</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>56</v>
@@ -11685,7 +11684,7 @@
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="59" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
@@ -11741,7 +11740,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>56</v>
@@ -11863,7 +11862,7 @@
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="59" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -11897,10 +11896,10 @@
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>56</v>
@@ -11913,21 +11912,21 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -11935,13 +11934,13 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>9</v>
@@ -11952,10 +11951,10 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>56</v>
@@ -11966,21 +11965,21 @@
       <c r="E41" s="6"/>
       <c r="F41" s="9"/>
       <c r="G41" s="6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="8"/>
@@ -11988,55 +11987,55 @@
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>599</v>
       </c>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>322</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>84</v>
@@ -12047,13 +12046,13 @@
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>14</v>
@@ -12061,43 +12060,43 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="27" t="s">
+        <v>597</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>600</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>616</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>603</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="31" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>14</v>
@@ -12106,24 +12105,24 @@
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="31" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>57</v>
@@ -12132,7 +12131,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -12151,8 +12150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12166,7 +12165,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="59" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -12200,10 +12199,10 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -12219,13 +12218,13 @@
     </row>
     <row r="4" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>9</v>
@@ -12236,10 +12235,10 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>57</v>
@@ -12253,13 +12252,13 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -12270,10 +12269,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>233</v>
@@ -12287,10 +12286,10 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -12302,7 +12301,7 @@
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="59" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -12336,16 +12335,16 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>8</v>
@@ -12355,29 +12354,29 @@
     </row>
     <row r="15" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>56</v>
@@ -12391,10 +12390,10 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>56</v>
@@ -12408,10 +12407,10 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>83</v>
@@ -12422,12 +12421,12 @@
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
       <c r="G18" s="6" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="59" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -12461,13 +12460,13 @@
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>7</v>
@@ -12480,29 +12479,29 @@
     </row>
     <row r="27" spans="1:7" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>662</v>
+        <v>1001</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>56</v>
@@ -12516,10 +12515,10 @@
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>663</v>
+        <v>998</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>56</v>
@@ -12533,10 +12532,10 @@
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>666</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>672</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>83</v>
@@ -12550,10 +12549,10 @@
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>664</v>
+        <v>996</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>56</v>
@@ -12565,10 +12564,10 @@
     </row>
     <row r="32" spans="1:7" s="47" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>56</v>
@@ -12580,7 +12579,7 @@
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="59" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
@@ -12614,10 +12613,10 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>56</v>
@@ -12633,10 +12632,10 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>56</v>
@@ -12647,18 +12646,18 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
@@ -12669,29 +12668,29 @@
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="8"/>
       <c r="G43" s="6" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>56</v>
@@ -12700,178 +12699,178 @@
         <v>14</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G53" s="26"/>
     </row>
     <row r="54" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="49" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -12879,18 +12878,18 @@
         <v>187</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="59" t="s">
-        <v>684</v>
+        <v>995</v>
       </c>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
@@ -12924,10 +12923,10 @@
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>56</v>
@@ -12943,13 +12942,13 @@
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
@@ -12957,15 +12956,15 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>57</v>
@@ -12976,15 +12975,15 @@
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>57</v>
@@ -12998,10 +12997,10 @@
     </row>
     <row r="67" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>57</v>
@@ -13012,18 +13011,18 @@
       <c r="E67" s="23"/>
       <c r="F67" s="24"/>
       <c r="G67" s="23" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>9</v>
@@ -13034,10 +13033,10 @@
     </row>
     <row r="69" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>57</v>
@@ -13049,46 +13048,46 @@
     </row>
     <row r="70" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:7" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="49" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G71" s="52"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="27" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1004">
   <si>
     <t>界面字段名</t>
   </si>
@@ -3806,6 +3806,10 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>服务报告子表-错误报警 表名：ZZZ_FWBG_baojing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>错误名称</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3830,6 +3834,10 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>bjbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>LID</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3842,6 +3850,10 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>Gzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>Gkehuyijian</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -3866,391 +3878,579 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>datetime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据填写日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(18, 2)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(2000)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗选择，或自动打入关联单据中的客户</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联申报单。 选择未关闭的单据，优先显示最近的单据.只列出自己负责的单据。</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写客户联系人或服务报告的确认人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户要求</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">处理过程描述(详细) </t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串 是，否。  选择是，关闭申报单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批意见</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>开工时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>完工时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术服务费</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务工时</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部结算</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修报告总价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户意见</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传附件</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb_GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bj_GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>lj_GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备规格</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>运转时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件单位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际售价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修截止日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带零售价,可修改</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYsheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDnewfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDoldfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gspshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bjstime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>待处理，已接收，已结单，作废</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsbr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修申请调度历史记录表  表名：ZZZ_BXSQ_DD</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD_BID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>caozuoren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修申请表  表名：ZZZ_BXSQ</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bfwfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_BID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gbylx</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gtianxieren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>G_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkeshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glianxiren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gsbtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguzhang_a</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障摘要</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理过程摘要</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gguocheng_b</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否结单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gjiedan</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gkaigongtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gwangongtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gjishufuwufei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ggongshi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gneibujiesuan</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gzongjia</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gspyj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gspren</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbguige</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sberpbianhao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbyzsj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljxinghao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljdanwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljsjsj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljlsj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljshuliang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljzje</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljbaoxiujiezhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljpihao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljbeizhu</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>lj_LID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bzhuangtai</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsbtime</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>BID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障简述</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_SBID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_YYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存调整单子表  表名：ZZZ_C_record_sub</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>danwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零配件信息表  表名：ZZZ_WFLJ</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_pid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lguige</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_dpid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>getdate()</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告主表  表名：ZZZ_FWBG</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告子表-设备信息  (维修类型只能填写一条)  表名：ZZZ_FWBG_shebei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb_SID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误类型</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bj_EID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjmingcheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>bjleixing</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告子表-零件信息 表名：ZZZ_FWBG_lingjian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件名称</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件数量</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>Gaddtime</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>datetime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据填写日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal(18, 2)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(2000)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务类型</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>科室</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗选择，或自动打入关联单据中的客户</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联申报单。 选择未关闭的单据，优先显示最近的单据.只列出自己负责的单据。</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写人uaid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户联系人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写客户联系人或服务报告的确认人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户要求</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">处理过程描述(详细) </t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串 是，否。  选择是，关闭申报单</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批意见</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>开工时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>完工时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术服务费</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务工时</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部结算</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修报告总价</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户意见</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传附件</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb_GID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误类型</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备规格</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERP编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>运转时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件名称</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格型号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件单位</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>保修截止日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>携带零售价,可修改</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作人uaid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYsheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYname</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYdizhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDnewfzr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDoldfzr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务报告主表  表名：ZZZ_FWBG</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bjstime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>待处理，已接收，已结单，作废</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bsbr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>B_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修申请调度历史记录表  表名：ZZZ_BXSQ_DD</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>DD_BID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>caozuoren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>报修申请表  表名：ZZZ_BXSQ</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bfwfzr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_BID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gbylx</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gtianxieren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>G_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gkeshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glianxiren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gsbtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gguzhang_a</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障摘要</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理过程摘要</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gguocheng_b</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否结单</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gjiedan</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gkaigongtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gwangongtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gjishufuwufei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ggongshi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gneibujiesuan</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gzongjia</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务报告子表-设备信息  (维修类型只能填写一条)  表名：ZZZ_FWBG_shebei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务报告子表-零件信息 表名：ZZZ_FWBG_lingjian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gzhuangtai</t>
+    <t>GID</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -4282,202 +4482,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gspyj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gspren</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gspshijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbguige</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sberpbianhao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbyzsj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bj_EID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjleixing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljxinghao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljdanwei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljsjsj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际售价</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljlsj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售价</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljshuliang</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件数量</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljzje</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljbaoxiujiezhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljpihao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>批号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bj_GID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务报告子表-错误报警 表名：ZZZ_FWBG_baojing</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>bjid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>lj_GID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>sb_SID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>lj_LID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bzhuangtai</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bsbtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>BID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>故障简述</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_SBID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_YYID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存调整单子表  表名：ZZZ_C_record_sub</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>danwei</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零配件信息表  表名：ZZZ_WFLJ</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_pid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lmingcheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lguige</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>i_dpid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>getdate()</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -5925,7 +5929,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -5942,7 +5946,7 @@
         <v>180</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>56</v>
@@ -5992,7 +5996,7 @@
         <v>182</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
@@ -6684,7 +6688,7 @@
         <v>66</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>56</v>
@@ -6752,7 +6756,7 @@
         <v>371</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>56</v>
@@ -6771,7 +6775,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>994</v>
+        <v>975</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>56</v>
@@ -6807,7 +6811,7 @@
         <v>381</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>993</v>
+        <v>974</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>376</v>
@@ -7408,7 +7412,7 @@
     </row>
     <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="59" t="s">
-        <v>997</v>
+        <v>978</v>
       </c>
       <c r="B108" s="59"/>
       <c r="C108" s="59"/>
@@ -7445,7 +7449,7 @@
         <v>427</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>56</v>
@@ -7464,7 +7468,7 @@
         <v>428</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>999</v>
+        <v>980</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>56</v>
@@ -7481,7 +7485,7 @@
         <v>429</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>1000</v>
+        <v>981</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>56</v>
@@ -8090,8 +8094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8105,7 +8109,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="59" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -8142,7 +8146,7 @@
         <v>800</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>991</v>
+        <v>972</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -8161,7 +8165,7 @@
         <v>801</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>56</v>
@@ -8209,7 +8213,7 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>992</v>
+        <v>973</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>797</v>
@@ -8229,7 +8233,7 @@
         <v>804</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>990</v>
+        <v>971</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -8247,7 +8251,7 @@
         <v>805</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>56</v>
@@ -8264,7 +8268,7 @@
         <v>806</v>
       </c>
       <c r="B10" t="s">
-        <v>989</v>
+        <v>970</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
@@ -8273,7 +8277,7 @@
         <v>781</v>
       </c>
       <c r="G10" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -8281,7 +8285,7 @@
         <v>807</v>
       </c>
       <c r="B11" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>11</v>
@@ -8309,7 +8313,7 @@
         <v>809</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>799</v>
@@ -8323,7 +8327,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="59" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -8360,7 +8364,7 @@
         <v>813</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>56</v>
@@ -8379,7 +8383,7 @@
         <v>814</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>56</v>
@@ -8398,7 +8402,7 @@
         <v>815</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>56</v>
@@ -8417,7 +8421,7 @@
         <v>816</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>790</v>
@@ -8455,7 +8459,7 @@
         <v>788</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>791</v>
@@ -8464,12 +8468,12 @@
         <v>9</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="59" t="s">
-        <v>917</v>
+        <v>984</v>
       </c>
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
@@ -8506,7 +8510,7 @@
         <v>812</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>326</v>
+        <v>1002</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>57</v>
@@ -8522,7 +8526,7 @@
     </row>
     <row r="33" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="49" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B33" s="54" t="s">
         <v>835</v>
@@ -8539,10 +8543,10 @@
     </row>
     <row r="34" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>56</v>
@@ -8553,7 +8557,7 @@
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -8561,7 +8565,7 @@
         <v>818</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>790</v>
@@ -8578,7 +8582,7 @@
         <v>819</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>57</v>
@@ -8589,15 +8593,15 @@
       <c r="E36" s="23"/>
       <c r="F36" s="24"/>
       <c r="G36" s="23" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>824</v>
@@ -8606,15 +8610,15 @@
         <v>9</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B38" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>57</v>
@@ -8625,10 +8629,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="27" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B39" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>827</v>
@@ -8637,21 +8641,21 @@
         <v>781</v>
       </c>
       <c r="G39" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="27" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B40" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>783</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G40" t="s">
         <v>821</v>
@@ -8659,33 +8663,33 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="31" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B41" t="s">
-        <v>856</v>
+        <v>1001</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>1002</v>
+        <v>983</v>
       </c>
       <c r="G41" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="57" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B42" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>14</v>
@@ -8693,10 +8697,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="31" t="s">
+        <v>939</v>
+      </c>
+      <c r="B43" t="s">
         <v>938</v>
-      </c>
-      <c r="B43" t="s">
-        <v>937</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>322</v>
@@ -8721,10 +8725,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="31" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B45" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>322</v>
@@ -8735,10 +8739,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B46" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>829</v>
@@ -8749,10 +8753,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B47" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>57</v>
@@ -8761,15 +8765,15 @@
         <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="61" customFormat="1" ht="87" x14ac:dyDescent="0.15">
       <c r="A48" s="60" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>952</v>
+        <v>852</v>
       </c>
       <c r="C48" s="62" t="s">
         <v>799</v>
@@ -8778,32 +8782,32 @@
         <v>9</v>
       </c>
       <c r="G48" s="64" t="s">
-        <v>953</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="60" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D49" s="63" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="65" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D50" s="68" t="s">
         <v>14</v>
@@ -8811,10 +8815,10 @@
     </row>
     <row r="51" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="60" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B51" s="61" t="s">
-        <v>956</v>
+        <v>918</v>
       </c>
       <c r="C51" s="62" t="s">
         <v>11</v>
@@ -8825,41 +8829,41 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B52" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="31" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B53" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="31" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B54" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>9</v>
@@ -8870,10 +8874,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="31" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B55" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>832</v>
@@ -8884,10 +8888,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B56" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>831</v>
@@ -8898,10 +8902,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="31" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B57" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>83</v>
@@ -8912,13 +8916,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="31" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B58" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>14</v>
@@ -8926,10 +8930,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="31" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B59" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>833</v>
@@ -8940,10 +8944,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="31" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B60" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="C60" s="30" t="s">
         <v>834</v>
@@ -8954,7 +8958,7 @@
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="59" t="s">
-        <v>950</v>
+        <v>985</v>
       </c>
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
@@ -8991,7 +8995,7 @@
         <v>472</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>799</v>
@@ -9007,10 +9011,10 @@
     </row>
     <row r="68" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="49" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B68" s="54" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>57</v>
@@ -9027,7 +9031,7 @@
         <v>546</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>56</v>
@@ -9044,7 +9048,7 @@
         <v>837</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>958</v>
+        <v>987</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>790</v>
@@ -9058,10 +9062,10 @@
     </row>
     <row r="71" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="50" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>57</v>
@@ -9075,10 +9079,10 @@
     </row>
     <row r="72" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="50" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>824</v>
@@ -9090,10 +9094,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="27" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B73" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>831</v>
@@ -9107,10 +9111,10 @@
         <v>187</v>
       </c>
       <c r="B74" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>840</v>
@@ -9118,7 +9122,7 @@
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="59" t="s">
-        <v>983</v>
+        <v>841</v>
       </c>
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
@@ -9152,13 +9156,13 @@
     </row>
     <row r="81" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>984</v>
+        <v>891</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>7</v>
@@ -9171,10 +9175,10 @@
     </row>
     <row r="82" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="49" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="B82" s="54" t="s">
-        <v>982</v>
+        <v>892</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>56</v>
@@ -9188,10 +9192,10 @@
     </row>
     <row r="83" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="50" t="s">
-        <v>892</v>
+        <v>988</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>963</v>
+        <v>991</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>56</v>
@@ -9205,10 +9209,10 @@
     </row>
     <row r="84" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="50" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>964</v>
+        <v>992</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>790</v>
@@ -9222,10 +9226,10 @@
     </row>
     <row r="85" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="50" t="s">
-        <v>893</v>
+        <v>989</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>57</v>
@@ -9239,10 +9243,10 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="27" t="s">
-        <v>894</v>
+        <v>990</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>966</v>
+        <v>848</v>
       </c>
       <c r="C86" s="30" t="s">
         <v>233</v>
@@ -9253,7 +9257,7 @@
     </row>
     <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="59" t="s">
-        <v>951</v>
+        <v>994</v>
       </c>
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
@@ -9287,13 +9291,13 @@
     </row>
     <row r="95" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>986</v>
+        <v>968</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>7</v>
@@ -9306,10 +9310,10 @@
     </row>
     <row r="96" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="49" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>985</v>
+        <v>894</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>56</v>
@@ -9323,10 +9327,10 @@
     </row>
     <row r="97" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="50" t="s">
-        <v>902</v>
+        <v>995</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>988</v>
+        <v>969</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>56</v>
@@ -9340,10 +9344,10 @@
     </row>
     <row r="98" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="50" t="s">
-        <v>903</v>
+        <v>996</v>
       </c>
       <c r="B98" s="55" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>790</v>
@@ -9357,10 +9361,10 @@
     </row>
     <row r="99" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="50" t="s">
-        <v>904</v>
+        <v>383</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>57</v>
@@ -9374,10 +9378,10 @@
     </row>
     <row r="100" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="27" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="C100" s="30" t="s">
         <v>57</v>
@@ -9388,10 +9392,10 @@
     </row>
     <row r="101" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="27" t="s">
-        <v>971</v>
+        <v>905</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="C101" s="30" t="s">
         <v>83</v>
@@ -9400,18 +9404,18 @@
         <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
-        <v>973</v>
+        <v>906</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>9</v>
@@ -9419,13 +9423,13 @@
     </row>
     <row r="103" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="27" t="s">
-        <v>975</v>
+        <v>997</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>9</v>
@@ -9433,10 +9437,10 @@
     </row>
     <row r="104" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="27" t="s">
-        <v>150</v>
+        <v>998</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="C104" s="30" t="s">
         <v>83</v>
@@ -9445,15 +9449,15 @@
         <v>9</v>
       </c>
       <c r="G104" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="27" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="C105" s="30" t="s">
         <v>242</v>
@@ -9464,13 +9468,13 @@
     </row>
     <row r="106" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="27" t="s">
-        <v>979</v>
+        <v>999</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>14</v>
@@ -9478,13 +9482,13 @@
     </row>
     <row r="107" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
-        <v>981</v>
+        <v>1000</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>825</v>
@@ -12501,7 +12505,7 @@
         <v>662</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>1001</v>
+        <v>982</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>56</v>
@@ -12518,7 +12522,7 @@
         <v>663</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>998</v>
+        <v>979</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>56</v>
@@ -12552,7 +12556,7 @@
         <v>659</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>996</v>
+        <v>977</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>56</v>
@@ -12889,7 +12893,7 @@
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="59" t="s">
-        <v>995</v>
+        <v>976</v>
       </c>
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -2282,10 +2282,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>YJqsshijian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -2375,10 +2371,6 @@
   </si>
   <si>
     <t>待签,已签</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>已结单,未结单</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -4482,6 +4474,14 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>已结单,未结单</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YJqsshijian</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -5452,12 +5452,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -5479,6 +5473,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5872,15 +5872,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
-        <v>557</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="A3" s="68" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -5929,7 +5929,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -5946,7 +5946,7 @@
         <v>180</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>56</v>
@@ -5996,7 +5996,7 @@
         <v>182</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
@@ -6161,15 +6161,15 @@
       <c r="D21" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -6332,15 +6332,15 @@
       <c r="D35" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="58" t="s">
+      <c r="A37" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -6614,15 +6614,15 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -6688,7 +6688,7 @@
         <v>66</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>56</v>
@@ -6718,15 +6718,15 @@
       <c r="G61" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="68" t="s">
         <v>456</v>
       </c>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -6756,7 +6756,7 @@
         <v>371</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>56</v>
@@ -6775,7 +6775,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>56</v>
@@ -6811,7 +6811,7 @@
         <v>381</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>376</v>
@@ -6923,7 +6923,7 @@
         <v>425</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D76" s="35" t="s">
         <v>75</v>
@@ -7037,15 +7037,15 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="59" t="s">
+      <c r="A85" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="59"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="68"/>
     </row>
     <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -7296,15 +7296,15 @@
       <c r="G99" s="4"/>
     </row>
     <row r="101" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="59" t="s">
+      <c r="A101" s="68" t="s">
         <v>426</v>
       </c>
-      <c r="B101" s="59"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="59"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="68"/>
+      <c r="G101" s="68"/>
     </row>
     <row r="102" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -7411,15 +7411,15 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="59" t="s">
-        <v>978</v>
-      </c>
-      <c r="B108" s="59"/>
-      <c r="C108" s="59"/>
-      <c r="D108" s="59"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
+      <c r="A108" s="68" t="s">
+        <v>976</v>
+      </c>
+      <c r="B108" s="68"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="68"/>
     </row>
     <row r="109" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -7449,7 +7449,7 @@
         <v>427</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>56</v>
@@ -7468,7 +7468,7 @@
         <v>428</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>56</v>
@@ -7485,7 +7485,7 @@
         <v>429</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>56</v>
@@ -7504,7 +7504,7 @@
         <v>430</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>443</v>
@@ -7627,15 +7627,15 @@
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="59" t="s">
+      <c r="A122" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="B122" s="59"/>
-      <c r="C122" s="59"/>
-      <c r="D122" s="59"/>
-      <c r="E122" s="59"/>
-      <c r="F122" s="59"/>
-      <c r="G122" s="59"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="68"/>
+      <c r="D122" s="68"/>
+      <c r="E122" s="68"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="68"/>
     </row>
     <row r="123" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
@@ -7747,15 +7747,15 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="58" t="s">
+      <c r="A134" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="B134" s="59"/>
-      <c r="C134" s="59"/>
-      <c r="D134" s="59"/>
-      <c r="E134" s="59"/>
-      <c r="F134" s="59"/>
-      <c r="G134" s="59"/>
+      <c r="B134" s="68"/>
+      <c r="C134" s="68"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="68"/>
+      <c r="F134" s="68"/>
+      <c r="G134" s="68"/>
     </row>
     <row r="135" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
@@ -7939,15 +7939,15 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="58" t="s">
+      <c r="A150" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="B150" s="59"/>
-      <c r="C150" s="59"/>
-      <c r="D150" s="59"/>
-      <c r="E150" s="59"/>
-      <c r="F150" s="59"/>
-      <c r="G150" s="59"/>
+      <c r="B150" s="68"/>
+      <c r="C150" s="68"/>
+      <c r="D150" s="68"/>
+      <c r="E150" s="68"/>
+      <c r="F150" s="68"/>
+      <c r="G150" s="68"/>
     </row>
     <row r="151" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
@@ -8094,7 +8094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -8108,15 +8108,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
-        <v>928</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="A1" s="68" t="s">
+        <v>926</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -8143,10 +8143,10 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -8162,10 +8162,10 @@
     </row>
     <row r="4" spans="1:7" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>56</v>
@@ -8179,10 +8179,10 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>56</v>
@@ -8196,10 +8196,10 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -8213,13 +8213,13 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>9</v>
@@ -8230,10 +8230,10 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -8242,64 +8242,64 @@
         <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="44" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="27" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B10" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G10" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B11" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="27" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>24</v>
@@ -8310,31 +8310,31 @@
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="59" t="s">
-        <v>924</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
+      <c r="A16" s="68" t="s">
+        <v>922</v>
+      </c>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -8361,10 +8361,10 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>56</v>
@@ -8380,10 +8380,10 @@
     </row>
     <row r="19" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>56</v>
@@ -8394,15 +8394,15 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>56</v>
@@ -8413,18 +8413,18 @@
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
       <c r="G20" s="23" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>9</v>
@@ -8432,21 +8432,21 @@
       <c r="E21" s="23"/>
       <c r="F21" s="24"/>
       <c r="G21" s="23" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="50" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="9" t="s">
@@ -8456,31 +8456,31 @@
     </row>
     <row r="23" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="59" t="s">
-        <v>984</v>
-      </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="A30" s="68" t="s">
+        <v>982</v>
+      </c>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -8507,10 +8507,10 @@
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>57</v>
@@ -8526,10 +8526,10 @@
     </row>
     <row r="33" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="49" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>56</v>
@@ -8543,10 +8543,10 @@
     </row>
     <row r="34" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>56</v>
@@ -8557,18 +8557,18 @@
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
       <c r="G34" s="23" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>9</v>
@@ -8579,10 +8579,10 @@
     </row>
     <row r="36" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>57</v>
@@ -8593,103 +8593,103 @@
       <c r="E36" s="23"/>
       <c r="F36" s="24"/>
       <c r="G36" s="23" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="27" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B38" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="27" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B39" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G39" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="27" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B40" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G40" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="31" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B41" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="G41" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="57" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B42" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>14</v>
@@ -8697,10 +8697,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="31" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B43" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>322</v>
@@ -8711,13 +8711,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="31" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B44" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>14</v>
@@ -8725,10 +8725,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="31" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B45" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C45" s="30" t="s">
         <v>322</v>
@@ -8739,13 +8739,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B46" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>14</v>
@@ -8753,10 +8753,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B47" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>57</v>
@@ -8765,122 +8765,122 @@
         <v>9</v>
       </c>
       <c r="G47" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="59" customFormat="1" ht="87" x14ac:dyDescent="0.15">
+      <c r="A48" s="58" t="s">
+        <v>877</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>850</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>797</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="62" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="58" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" s="61" customFormat="1" ht="87" x14ac:dyDescent="0.15">
-      <c r="A48" s="60" t="s">
-        <v>879</v>
-      </c>
-      <c r="B48" s="61" t="s">
-        <v>852</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>799</v>
-      </c>
-      <c r="D48" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="64" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="60" t="s">
-        <v>880</v>
-      </c>
-      <c r="B49" s="61" t="s">
-        <v>951</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>863</v>
-      </c>
-      <c r="D49" s="63" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="66" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="65" t="s">
+      <c r="B49" s="59" t="s">
+        <v>949</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>861</v>
+      </c>
+      <c r="D49" s="61" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="63" t="s">
+        <v>913</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>950</v>
+      </c>
+      <c r="C50" s="65" t="s">
         <v>915</v>
       </c>
-      <c r="B50" s="66" t="s">
-        <v>952</v>
-      </c>
-      <c r="C50" s="67" t="s">
-        <v>917</v>
-      </c>
-      <c r="D50" s="68" t="s">
+      <c r="D50" s="66" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="60" t="s">
+    <row r="51" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="58" t="s">
+        <v>914</v>
+      </c>
+      <c r="B51" s="59" t="s">
         <v>916</v>
       </c>
-      <c r="B51" s="61" t="s">
-        <v>918</v>
-      </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="63" t="s">
-        <v>825</v>
+      <c r="D51" s="61" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B52" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C52" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>855</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="31" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B53" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="31" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B54" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="31" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B55" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>9</v>
@@ -8888,13 +8888,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="31" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B56" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>9</v>
@@ -8902,27 +8902,27 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="31" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B57" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>83</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="31" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B58" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>14</v>
@@ -8930,42 +8930,42 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="31" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B59" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="31" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B60" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="59" t="s">
-        <v>985</v>
-      </c>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
+      <c r="A65" s="68" t="s">
+        <v>983</v>
+      </c>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -8995,10 +8995,10 @@
         <v>472</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>7</v>
@@ -9011,10 +9011,10 @@
     </row>
     <row r="68" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="49" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B68" s="54" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>57</v>
@@ -9028,10 +9028,10 @@
     </row>
     <row r="69" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="50" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>56</v>
@@ -9045,13 +9045,13 @@
     </row>
     <row r="70" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="50" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>14</v>
@@ -9062,10 +9062,10 @@
     </row>
     <row r="71" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="50" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>57</v>
@@ -9079,31 +9079,31 @@
     </row>
     <row r="72" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="50" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G72" s="56"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="27" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B73" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -9111,25 +9111,25 @@
         <v>187</v>
       </c>
       <c r="B74" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="59" t="s">
-        <v>841</v>
-      </c>
-      <c r="B79" s="59"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
+      <c r="A79" s="68" t="s">
+        <v>839</v>
+      </c>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
+      <c r="G79" s="68"/>
     </row>
     <row r="80" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -9156,13 +9156,13 @@
     </row>
     <row r="81" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B81" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>891</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>893</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>7</v>
@@ -9175,10 +9175,10 @@
     </row>
     <row r="82" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="49" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B82" s="54" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>56</v>
@@ -9192,10 +9192,10 @@
     </row>
     <row r="83" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="50" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>56</v>
@@ -9209,13 +9209,13 @@
     </row>
     <row r="84" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="50" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>14</v>
@@ -9226,10 +9226,10 @@
     </row>
     <row r="85" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="50" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>57</v>
@@ -9243,28 +9243,28 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="27" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C86" s="30" t="s">
         <v>233</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A93" s="59" t="s">
-        <v>994</v>
-      </c>
-      <c r="B93" s="59"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="59"/>
+      <c r="A93" s="68" t="s">
+        <v>992</v>
+      </c>
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
     </row>
     <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
@@ -9291,13 +9291,13 @@
     </row>
     <row r="95" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>7</v>
@@ -9310,10 +9310,10 @@
     </row>
     <row r="96" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="49" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>56</v>
@@ -9327,10 +9327,10 @@
     </row>
     <row r="97" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="50" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>56</v>
@@ -9344,13 +9344,13 @@
     </row>
     <row r="98" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="50" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B98" s="55" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>9</v>
@@ -9364,7 +9364,7 @@
         <v>383</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>57</v>
@@ -9378,10 +9378,10 @@
     </row>
     <row r="100" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="27" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C100" s="30" t="s">
         <v>57</v>
@@ -9392,10 +9392,10 @@
     </row>
     <row r="101" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="27" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C101" s="30" t="s">
         <v>83</v>
@@ -9404,18 +9404,18 @@
         <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>9</v>
@@ -9423,13 +9423,13 @@
     </row>
     <row r="103" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="27" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>9</v>
@@ -9437,10 +9437,10 @@
     </row>
     <row r="104" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="27" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C104" s="30" t="s">
         <v>83</v>
@@ -9449,15 +9449,15 @@
         <v>9</v>
       </c>
       <c r="G104" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="27" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C105" s="30" t="s">
         <v>242</v>
@@ -9468,13 +9468,13 @@
     </row>
     <row r="106" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="27" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>14</v>
@@ -9482,16 +9482,16 @@
     </row>
     <row r="107" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -9513,7 +9513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -9528,15 +9528,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -9672,15 +9672,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -9892,15 +9892,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -10000,15 +10000,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -10056,7 +10056,7 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>291</v>
@@ -10070,12 +10070,12 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>292</v>
@@ -10089,12 +10089,12 @@
       <c r="E42" s="6"/>
       <c r="F42" s="9"/>
       <c r="G42" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>293</v>
@@ -10151,7 +10151,7 @@
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>304</v>
@@ -10165,7 +10165,7 @@
       <c r="E46" s="6"/>
       <c r="F46" s="9"/>
       <c r="G46" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -10226,15 +10226,15 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="68" t="s">
         <v>350</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -10510,8 +10510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10524,15 +10524,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10562,7 +10562,7 @@
         <v>485</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>470</v>
@@ -10583,7 +10583,7 @@
         <v>486</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>470</v>
@@ -10600,7 +10600,7 @@
         <v>469</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>471</v>
@@ -10614,10 +10614,10 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>482</v>
@@ -10631,7 +10631,7 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>483</v>
@@ -10650,10 +10650,10 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>57</v>
@@ -10664,7 +10664,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>518</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10672,7 +10672,7 @@
         <v>487</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>11</v>
@@ -10683,7 +10683,7 @@
         <v>488</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>57</v>
@@ -10693,15 +10693,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="68" t="s">
         <v>489</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -10749,10 +10749,10 @@
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>57</v>
@@ -10766,10 +10766,10 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>470</v>
@@ -10783,7 +10783,7 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>491</v>
@@ -10792,7 +10792,7 @@
         <v>470</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -10800,7 +10800,7 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>479</v>
@@ -10814,15 +10814,15 @@
       <c r="E18" s="6"/>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>494</v>
+        <v>1003</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>113</v>
@@ -10839,13 +10839,13 @@
         <v>473</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="9"/>
@@ -10855,7 +10855,7 @@
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>480</v>
@@ -10864,7 +10864,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -10901,15 +10901,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
-        <v>584</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="A1" s="68" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10936,13 +10936,13 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -10960,10 +10960,10 @@
         <v>178</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>135</v>
@@ -10971,75 +10971,75 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="9"/>
       <c r="G7" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>163</v>
@@ -11047,40 +11047,40 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="9"/>
       <c r="G9" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
@@ -11088,16 +11088,16 @@
     </row>
     <row r="11" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
@@ -11105,29 +11105,29 @@
     </row>
     <row r="12" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="44" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>11</v>
@@ -11138,24 +11138,24 @@
     </row>
     <row r="14" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="44" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="44" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>57</v>
@@ -11166,10 +11166,10 @@
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="44" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>57</v>
@@ -11178,67 +11178,67 @@
         <v>163</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="27" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="27" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="27" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="59" t="s">
-        <v>579</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="A22" s="68" t="s">
+        <v>577</v>
+      </c>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -11265,13 +11265,13 @@
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>7</v>
@@ -11281,59 +11281,59 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>539</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>541</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="9"/>
@@ -11341,13 +11341,13 @@
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="27" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>163</v>
@@ -11382,15 +11382,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
-        <v>589</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="A1" s="68" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -11439,7 +11439,7 @@
         <v>179</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>56</v>
@@ -11687,15 +11687,15 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="59" t="s">
-        <v>590</v>
-      </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
+      <c r="A22" s="68" t="s">
+        <v>588</v>
+      </c>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -11744,7 +11744,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>56</v>
@@ -11865,15 +11865,15 @@
       <c r="G33" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="59" t="s">
-        <v>616</v>
-      </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
+      <c r="A36" s="68" t="s">
+        <v>614</v>
+      </c>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -11900,10 +11900,10 @@
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>56</v>
@@ -11916,21 +11916,21 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>636</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>638</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -11938,13 +11938,13 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>637</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>9</v>
@@ -11955,10 +11955,10 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>56</v>
@@ -11969,21 +11969,21 @@
       <c r="E41" s="6"/>
       <c r="F41" s="9"/>
       <c r="G41" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="8"/>
@@ -11991,55 +11991,55 @@
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>322</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="31" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>84</v>
@@ -12050,13 +12050,13 @@
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>14</v>
@@ -12064,43 +12064,43 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="27" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="31" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>14</v>
@@ -12109,24 +12109,24 @@
     </row>
     <row r="51" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="31" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>57</v>
@@ -12135,7 +12135,7 @@
         <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -12168,15 +12168,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
-        <v>695</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="A1" s="68" t="s">
+        <v>693</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -12203,10 +12203,10 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -12222,13 +12222,13 @@
     </row>
     <row r="4" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>9</v>
@@ -12239,10 +12239,10 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>57</v>
@@ -12256,13 +12256,13 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
+        <v>703</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>697</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>705</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>699</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>707</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -12273,10 +12273,10 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>233</v>
@@ -12290,10 +12290,10 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -12304,15 +12304,15 @@
       <c r="G8" s="56"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="59" t="s">
-        <v>696</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="A12" s="68" t="s">
+        <v>694</v>
+      </c>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -12339,16 +12339,16 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>8</v>
@@ -12358,29 +12358,29 @@
     </row>
     <row r="15" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="50" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>56</v>
@@ -12394,10 +12394,10 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>56</v>
@@ -12411,10 +12411,10 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="50" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>83</v>
@@ -12425,19 +12425,19 @@
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
       <c r="G18" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="59" t="s">
-        <v>667</v>
-      </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
+      <c r="A24" s="68" t="s">
+        <v>665</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -12464,13 +12464,13 @@
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>7</v>
@@ -12483,29 +12483,29 @@
     </row>
     <row r="27" spans="1:7" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B27" s="53" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>56</v>
@@ -12519,10 +12519,10 @@
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>56</v>
@@ -12536,10 +12536,10 @@
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>83</v>
@@ -12553,10 +12553,10 @@
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>56</v>
@@ -12568,10 +12568,10 @@
     </row>
     <row r="32" spans="1:7" s="47" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>56</v>
@@ -12582,15 +12582,15 @@
       <c r="G32" s="48"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="59" t="s">
-        <v>777</v>
-      </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
+      <c r="A38" s="68" t="s">
+        <v>775</v>
+      </c>
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -12617,10 +12617,10 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>56</v>
@@ -12636,10 +12636,10 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>56</v>
@@ -12650,18 +12650,18 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
@@ -12672,29 +12672,29 @@
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="8"/>
       <c r="G43" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>56</v>
@@ -12703,178 +12703,178 @@
         <v>14</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G45" s="26"/>
     </row>
     <row r="46" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C46" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C50" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="D50" s="23" t="s">
         <v>746</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>748</v>
       </c>
       <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G52" s="26"/>
     </row>
     <row r="53" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G53" s="26"/>
     </row>
     <row r="54" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="49" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G55" s="48" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -12882,25 +12882,25 @@
         <v>187</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="59" t="s">
-        <v>976</v>
-      </c>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
+      <c r="A61" s="68" t="s">
+        <v>974</v>
+      </c>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -12927,10 +12927,10 @@
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>56</v>
@@ -12946,13 +12946,13 @@
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
@@ -12960,15 +12960,15 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>57</v>
@@ -12979,15 +12979,15 @@
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
       <c r="G65" s="23" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>57</v>
@@ -13001,10 +13001,10 @@
     </row>
     <row r="67" spans="1:7" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>57</v>
@@ -13015,18 +13015,18 @@
       <c r="E67" s="23"/>
       <c r="F67" s="24"/>
       <c r="G67" s="23" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>9</v>
@@ -13037,10 +13037,10 @@
     </row>
     <row r="69" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>57</v>
@@ -13052,46 +13052,46 @@
     </row>
     <row r="70" spans="1:7" s="25" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="20" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G70" s="26"/>
     </row>
     <row r="71" spans="1:7" s="51" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="49" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G71" s="52"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="27" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1009">
   <si>
     <t>界面字段名</t>
   </si>
@@ -4010,10 +4010,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>lj_GID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -4038,74 +4034,70 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表编号</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件单位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际售价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售价</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>保修截止日期</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带零售价,可修改</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人uaid</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYsheng</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYname</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYdizhi</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDnewfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDoldfzr</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批人</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批时间</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>nvarchar(50)</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表编号</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零件单位</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际售价</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售价</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>保修截止日期</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>携带零售价,可修改</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作人uaid</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYsheng</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYname</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYdizhi</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDnewfzr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDoldfzr</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批人</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批时间</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>Gspshijian</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -4286,10 +4278,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>ljshuliang</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>ljzje</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -4298,10 +4286,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>ljpihao</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>ljbeizhu</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -4310,10 +4294,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>lj_LID</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>Bzhuangtai</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -4370,10 +4350,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>服务报告主表  表名：ZZZ_FWBG</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>服务报告子表-设备信息  (维修类型只能填写一条)  表名：ZZZ_FWBG_shebei</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -4410,10 +4386,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>服务报告子表-零件信息 表名：ZZZ_FWBG_lingjian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>零件编号</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -4439,10 +4411,6 @@
   </si>
   <si>
     <t>Gaddtime</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>GID</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -4482,6 +4450,58 @@
   </si>
   <si>
     <t>YJqsshijian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljchukukuwei</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录出库库位编号，用来自动减少个人库存。</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库库位</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告主表  表名：ZZZ_FWBG</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告子表-零件信息 表名：ZZZ_FWBG_lingjian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>lj_GID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>lj_LID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljpihao</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljshuliang</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -5856,7 +5876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G157"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
@@ -5929,7 +5949,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>56</v>
@@ -5946,7 +5966,7 @@
         <v>180</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>56</v>
@@ -5996,7 +6016,7 @@
         <v>182</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
@@ -6688,7 +6708,7 @@
         <v>66</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>56</v>
@@ -6775,7 +6795,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>56</v>
@@ -6811,7 +6831,7 @@
         <v>381</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>376</v>
@@ -7412,7 +7432,7 @@
     </row>
     <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="68" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B108" s="68"/>
       <c r="C108" s="68"/>
@@ -7468,7 +7488,7 @@
         <v>428</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>56</v>
@@ -7485,7 +7505,7 @@
         <v>429</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>56</v>
@@ -8092,10 +8112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8109,7 +8129,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="68" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -8146,7 +8166,7 @@
         <v>798</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -8165,7 +8185,7 @@
         <v>799</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>56</v>
@@ -8213,7 +8233,7 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>795</v>
@@ -8233,7 +8253,7 @@
         <v>802</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -8251,7 +8271,7 @@
         <v>803</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>56</v>
@@ -8268,7 +8288,7 @@
         <v>804</v>
       </c>
       <c r="B10" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
@@ -8277,7 +8297,7 @@
         <v>779</v>
       </c>
       <c r="G10" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -8285,7 +8305,7 @@
         <v>805</v>
       </c>
       <c r="B11" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>11</v>
@@ -8313,7 +8333,7 @@
         <v>807</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>797</v>
@@ -8327,7 +8347,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="68" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
@@ -8364,7 +8384,7 @@
         <v>811</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>56</v>
@@ -8383,7 +8403,7 @@
         <v>812</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>56</v>
@@ -8402,7 +8422,7 @@
         <v>813</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>56</v>
@@ -8421,7 +8441,7 @@
         <v>814</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>788</v>
@@ -8459,7 +8479,7 @@
         <v>786</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>789</v>
@@ -8468,12 +8488,12 @@
         <v>9</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="68" t="s">
-        <v>982</v>
+        <v>1003</v>
       </c>
       <c r="B30" s="68"/>
       <c r="C30" s="68"/>
@@ -8510,7 +8530,7 @@
         <v>810</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>57</v>
@@ -8546,7 +8566,7 @@
         <v>865</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>56</v>
@@ -8565,7 +8585,7 @@
         <v>816</v>
       </c>
       <c r="B35" s="55" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>788</v>
@@ -8582,7 +8602,7 @@
         <v>817</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>57</v>
@@ -8601,7 +8621,7 @@
         <v>866</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>822</v>
@@ -8618,7 +8638,7 @@
         <v>867</v>
       </c>
       <c r="B38" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>57</v>
@@ -8632,7 +8652,7 @@
         <v>871</v>
       </c>
       <c r="B39" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C39" s="30" t="s">
         <v>825</v>
@@ -8649,7 +8669,7 @@
         <v>873</v>
       </c>
       <c r="B40" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>781</v>
@@ -8663,10 +8683,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="31" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B41" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>857</v>
@@ -8675,7 +8695,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="G41" t="s">
         <v>858</v>
@@ -8697,10 +8717,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="31" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B43" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C43" s="30" t="s">
         <v>322</v>
@@ -8725,7 +8745,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="31" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B45" t="s">
         <v>849</v>
@@ -8742,7 +8762,7 @@
         <v>875</v>
       </c>
       <c r="B46" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>827</v>
@@ -8753,10 +8773,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="31" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B47" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C47" s="30" t="s">
         <v>57</v>
@@ -8782,7 +8802,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="62" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.15">
@@ -8790,7 +8810,7 @@
         <v>878</v>
       </c>
       <c r="B49" s="59" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C49" s="60" t="s">
         <v>861</v>
@@ -8801,13 +8821,13 @@
     </row>
     <row r="50" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="63" t="s">
+        <v>911</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>948</v>
+      </c>
+      <c r="C50" s="65" t="s">
         <v>913</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>950</v>
-      </c>
-      <c r="C50" s="65" t="s">
-        <v>915</v>
       </c>
       <c r="D50" s="66" t="s">
         <v>14</v>
@@ -8815,10 +8835,10 @@
     </row>
     <row r="51" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="58" t="s">
+        <v>912</v>
+      </c>
+      <c r="B51" s="59" t="s">
         <v>914</v>
-      </c>
-      <c r="B51" s="59" t="s">
-        <v>916</v>
       </c>
       <c r="C51" s="60" t="s">
         <v>11</v>
@@ -8832,7 +8852,7 @@
         <v>879</v>
       </c>
       <c r="B52" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>853</v>
@@ -8846,7 +8866,7 @@
         <v>880</v>
       </c>
       <c r="B53" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>11</v>
@@ -8860,7 +8880,7 @@
         <v>881</v>
       </c>
       <c r="B54" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>862</v>
@@ -8877,7 +8897,7 @@
         <v>882</v>
       </c>
       <c r="B55" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>830</v>
@@ -8891,7 +8911,7 @@
         <v>883</v>
       </c>
       <c r="B56" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>829</v>
@@ -8905,7 +8925,7 @@
         <v>884</v>
       </c>
       <c r="B57" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>83</v>
@@ -8933,7 +8953,7 @@
         <v>886</v>
       </c>
       <c r="B59" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>831</v>
@@ -8958,7 +8978,7 @@
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="68" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B65" s="68"/>
       <c r="C65" s="68"/>
@@ -8995,7 +9015,7 @@
         <v>472</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>797</v>
@@ -9011,7 +9031,7 @@
     </row>
     <row r="68" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="49" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B68" s="54" t="s">
         <v>888</v>
@@ -9031,7 +9051,7 @@
         <v>544</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>56</v>
@@ -9048,7 +9068,7 @@
         <v>835</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>788</v>
@@ -9062,10 +9082,10 @@
     </row>
     <row r="71" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="50" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>57</v>
@@ -9079,10 +9099,10 @@
     </row>
     <row r="72" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="50" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>822</v>
@@ -9094,10 +9114,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="27" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B73" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>829</v>
@@ -9111,7 +9131,7 @@
         <v>187</v>
       </c>
       <c r="B74" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C74" s="30" t="s">
         <v>841</v>
@@ -9156,7 +9176,7 @@
     </row>
     <row r="81" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>889</v>
@@ -9175,7 +9195,7 @@
     </row>
     <row r="82" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="49" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B82" s="54" t="s">
         <v>890</v>
@@ -9192,10 +9212,10 @@
     </row>
     <row r="83" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="50" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>56</v>
@@ -9212,7 +9232,7 @@
         <v>840</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>788</v>
@@ -9226,10 +9246,10 @@
     </row>
     <row r="85" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="50" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>57</v>
@@ -9243,7 +9263,7 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="27" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="B86" s="32" t="s">
         <v>846</v>
@@ -9257,7 +9277,7 @@
     </row>
     <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="68" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="B93" s="68"/>
       <c r="C93" s="68"/>
@@ -9291,10 +9311,10 @@
     </row>
     <row r="95" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="16" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>891</v>
@@ -9310,10 +9330,10 @@
     </row>
     <row r="96" spans="1:7" s="51" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="49" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>892</v>
+        <v>1005</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>56</v>
@@ -9327,10 +9347,10 @@
     </row>
     <row r="97" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="50" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>967</v>
+        <v>1006</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>56</v>
@@ -9344,10 +9364,10 @@
     </row>
     <row r="98" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="50" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="B98" s="55" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>788</v>
@@ -9364,7 +9384,7 @@
         <v>383</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>57</v>
@@ -9378,10 +9398,10 @@
     </row>
     <row r="100" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="27" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C100" s="30" t="s">
         <v>57</v>
@@ -9392,10 +9412,10 @@
     </row>
     <row r="101" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="27" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C101" s="30" t="s">
         <v>83</v>
@@ -9404,15 +9424,15 @@
         <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="27" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C102" s="30" t="s">
         <v>842</v>
@@ -9423,10 +9443,10 @@
     </row>
     <row r="103" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="27" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>961</v>
+        <v>1008</v>
       </c>
       <c r="C103" s="30" t="s">
         <v>843</v>
@@ -9437,10 +9457,10 @@
     </row>
     <row r="104" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="27" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C104" s="30" t="s">
         <v>83</v>
@@ -9454,10 +9474,10 @@
     </row>
     <row r="105" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="27" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C105" s="30" t="s">
         <v>242</v>
@@ -9468,13 +9488,13 @@
     </row>
     <row r="106" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="27" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>964</v>
+        <v>1007</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>899</v>
+        <v>996</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>14</v>
@@ -9482,16 +9502,33 @@
     </row>
     <row r="107" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C107" s="30" t="s">
         <v>841</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>823</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A108" s="27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>999</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>997</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -10510,8 +10547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10664,7 +10701,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10822,7 +10859,7 @@
         <v>501</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>113</v>
@@ -12154,7 +12191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -12505,7 +12542,7 @@
         <v>660</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>56</v>
@@ -12522,7 +12559,7 @@
         <v>661</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>56</v>
@@ -12556,7 +12593,7 @@
         <v>657</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>56</v>
@@ -12893,7 +12930,7 @@
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="68" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B61" s="68"/>
       <c r="C61" s="68"/>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1017">
   <si>
     <t>界面字段名</t>
   </si>
@@ -4318,10 +4318,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>库存调整单子表  表名：ZZZ_C_record_sub</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>danwei</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -4502,6 +4498,54 @@
   </si>
   <si>
     <t>ljshuliang</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动添加</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYfkc</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许负库存</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">系统配置表  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表名：ZZZ_SYSOP</t>
+    </r>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYID</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许,禁止</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存调整单子表  表名：ZZZ_C_record_sub</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -5874,10 +5918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G157"/>
+  <dimension ref="A3:G165"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView topLeftCell="B154" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7432,7 +7476,7 @@
     </row>
     <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="68" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B108" s="68"/>
       <c r="C108" s="68"/>
@@ -7488,7 +7532,7 @@
         <v>428</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>56</v>
@@ -7505,7 +7549,7 @@
         <v>429</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>56</v>
@@ -8090,8 +8134,83 @@
         <v>58</v>
       </c>
     </row>
+    <row r="162" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="68" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B162" s="68"/>
+      <c r="C162" s="68"/>
+      <c r="D162" s="68"/>
+      <c r="E162" s="68"/>
+      <c r="F162" s="68"/>
+      <c r="G162" s="68"/>
+    </row>
+    <row r="163" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B164" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="6"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="6" t="s">
+        <v>1015</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A162:G162"/>
     <mergeCell ref="A134:G134"/>
     <mergeCell ref="A150:G150"/>
     <mergeCell ref="A56:G56"/>
@@ -8114,8 +8233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8493,7 +8612,7 @@
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="68" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B30" s="68"/>
       <c r="C30" s="68"/>
@@ -8530,7 +8649,7 @@
         <v>810</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>57</v>
@@ -8686,7 +8805,7 @@
         <v>933</v>
       </c>
       <c r="B41" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>857</v>
@@ -8695,7 +8814,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G41" t="s">
         <v>858</v>
@@ -8802,7 +8921,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="62" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.15">
@@ -8978,7 +9097,7 @@
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="68" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B65" s="68"/>
       <c r="C65" s="68"/>
@@ -9051,7 +9170,7 @@
         <v>544</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>56</v>
@@ -9068,7 +9187,7 @@
         <v>835</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>788</v>
@@ -9212,10 +9331,10 @@
     </row>
     <row r="83" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="50" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>56</v>
@@ -9232,7 +9351,7 @@
         <v>840</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>788</v>
@@ -9246,10 +9365,10 @@
     </row>
     <row r="85" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="50" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>57</v>
@@ -9263,7 +9382,7 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="27" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B86" s="32" t="s">
         <v>846</v>
@@ -9277,7 +9396,7 @@
     </row>
     <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="68" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B93" s="68"/>
       <c r="C93" s="68"/>
@@ -9333,7 +9452,7 @@
         <v>899</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>56</v>
@@ -9347,10 +9466,10 @@
     </row>
     <row r="97" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="50" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>56</v>
@@ -9364,7 +9483,7 @@
     </row>
     <row r="98" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="50" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B98" s="55" t="s">
         <v>954</v>
@@ -9443,10 +9562,10 @@
     </row>
     <row r="103" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="27" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C103" s="30" t="s">
         <v>843</v>
@@ -9457,7 +9576,7 @@
     </row>
     <row r="104" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="27" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B104" s="32" t="s">
         <v>959</v>
@@ -9488,13 +9607,13 @@
     </row>
     <row r="106" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="27" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>14</v>
@@ -9502,7 +9621,7 @@
     </row>
     <row r="107" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B107" s="32" t="s">
         <v>961</v>
@@ -9516,19 +9635,19 @@
     </row>
     <row r="108" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A108" s="27" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B108" s="32" t="s">
+        <v>998</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>996</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>997</v>
+      </c>
+      <c r="G108" t="s">
         <v>999</v>
-      </c>
-      <c r="C108" s="30" t="s">
-        <v>997</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>998</v>
-      </c>
-      <c r="G108" t="s">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -10701,7 +10820,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10859,7 +10978,7 @@
         <v>501</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>113</v>
@@ -12191,8 +12310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12542,7 +12661,7 @@
         <v>660</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>56</v>
@@ -12559,7 +12678,7 @@
         <v>661</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>56</v>
@@ -12593,7 +12712,7 @@
         <v>657</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>56</v>
@@ -12930,7 +13049,7 @@
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="68" t="s">
-        <v>969</v>
+        <v>1016</v>
       </c>
       <c r="B61" s="68"/>
       <c r="C61" s="68"/>

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4270,27 +4270,15 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>ljsjsj</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>ljlsj</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>ljzje</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>ljbaoxiujiezhi</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
     <t>ljbeizhu</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>ljid</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -4481,10 +4469,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>服务报告子表-零件信息 表名：ZZZ_FWBG_lingjian</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>lj_GID</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -4546,6 +4530,22 @@
   </si>
   <si>
     <t>库存调整单子表  表名：ZZZ_C_record_sub</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务报告子表-零件信息 表名：ZZZ_FWBG_lingjian</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljsjsj</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljzje</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ljid</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -5539,10 +5539,10 @@
     <xf numFmtId="0" fontId="40" fillId="24" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" xfId="45" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5936,15 +5936,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="67" t="s">
         <v>555</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -6225,15 +6225,15 @@
       <c r="D21" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -6396,15 +6396,15 @@
       <c r="D35" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -6678,15 +6678,15 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -6782,15 +6782,15 @@
       <c r="G61" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="68" t="s">
+      <c r="A64" s="67" t="s">
         <v>456</v>
       </c>
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
     </row>
     <row r="65" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -6839,7 +6839,7 @@
         <v>28</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>56</v>
@@ -6875,7 +6875,7 @@
         <v>381</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>376</v>
@@ -7101,15 +7101,15 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="68" t="s">
+      <c r="A85" s="67" t="s">
         <v>458</v>
       </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
     </row>
     <row r="86" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
@@ -7360,15 +7360,15 @@
       <c r="G99" s="4"/>
     </row>
     <row r="101" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="68" t="s">
+      <c r="A101" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="68"/>
-      <c r="F101" s="68"/>
-      <c r="G101" s="68"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="67"/>
+      <c r="G101" s="67"/>
     </row>
     <row r="102" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
@@ -7475,15 +7475,15 @@
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="68" t="s">
-        <v>970</v>
-      </c>
-      <c r="B108" s="68"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="68"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="68"/>
+      <c r="A108" s="67" t="s">
+        <v>967</v>
+      </c>
+      <c r="B108" s="67"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="67"/>
+      <c r="G108" s="67"/>
     </row>
     <row r="109" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
@@ -7532,7 +7532,7 @@
         <v>428</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>56</v>
@@ -7549,7 +7549,7 @@
         <v>429</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>56</v>
@@ -7691,15 +7691,15 @@
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="68" t="s">
+      <c r="A122" s="67" t="s">
         <v>205</v>
       </c>
-      <c r="B122" s="68"/>
-      <c r="C122" s="68"/>
-      <c r="D122" s="68"/>
-      <c r="E122" s="68"/>
-      <c r="F122" s="68"/>
-      <c r="G122" s="68"/>
+      <c r="B122" s="67"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="67"/>
+      <c r="G122" s="67"/>
     </row>
     <row r="123" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
@@ -7811,15 +7811,15 @@
       </c>
     </row>
     <row r="134" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="67" t="s">
+      <c r="A134" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="B134" s="68"/>
-      <c r="C134" s="68"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="68"/>
-      <c r="F134" s="68"/>
-      <c r="G134" s="68"/>
+      <c r="B134" s="67"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="67"/>
+      <c r="G134" s="67"/>
     </row>
     <row r="135" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
@@ -8003,15 +8003,15 @@
       </c>
     </row>
     <row r="150" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="67" t="s">
+      <c r="A150" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="B150" s="68"/>
-      <c r="C150" s="68"/>
-      <c r="D150" s="68"/>
-      <c r="E150" s="68"/>
-      <c r="F150" s="68"/>
-      <c r="G150" s="68"/>
+      <c r="B150" s="67"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="67"/>
+      <c r="E150" s="67"/>
+      <c r="F150" s="67"/>
+      <c r="G150" s="67"/>
     </row>
     <row r="151" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
@@ -8135,15 +8135,15 @@
       </c>
     </row>
     <row r="162" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="68" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B162" s="68"/>
-      <c r="C162" s="68"/>
-      <c r="D162" s="68"/>
-      <c r="E162" s="68"/>
-      <c r="F162" s="68"/>
-      <c r="G162" s="68"/>
+      <c r="A162" s="67" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B162" s="67"/>
+      <c r="C162" s="67"/>
+      <c r="D162" s="67"/>
+      <c r="E162" s="67"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="67"/>
     </row>
     <row r="163" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
@@ -8170,13 +8170,13 @@
     </row>
     <row r="164" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A164" s="16" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>7</v>
@@ -8186,15 +8186,15 @@
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A165" s="15" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>57</v>
@@ -8205,16 +8205,11 @@
       <c r="E165" s="6"/>
       <c r="F165" s="9"/>
       <c r="G165" s="6" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A162:G162"/>
-    <mergeCell ref="A134:G134"/>
-    <mergeCell ref="A150:G150"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A64:G64"/>
     <mergeCell ref="A85:G85"/>
@@ -8222,6 +8217,11 @@
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A108:G108"/>
     <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A162:G162"/>
+    <mergeCell ref="A134:G134"/>
+    <mergeCell ref="A150:G150"/>
+    <mergeCell ref="A56:G56"/>
+    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8234,7 +8234,7 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8247,15 +8247,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>924</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -8285,7 +8285,7 @@
         <v>798</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>56</v>
@@ -8352,7 +8352,7 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>795</v>
@@ -8372,7 +8372,7 @@
         <v>802</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>11</v>
@@ -8407,7 +8407,7 @@
         <v>804</v>
       </c>
       <c r="B10" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>56</v>
@@ -8465,15 +8465,15 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="67" t="s">
         <v>920</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -8611,15 +8611,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="68" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
+      <c r="A30" s="67" t="s">
+        <v>999</v>
+      </c>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -8649,7 +8649,7 @@
         <v>810</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>57</v>
@@ -8805,7 +8805,7 @@
         <v>933</v>
       </c>
       <c r="B41" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>857</v>
@@ -8814,7 +8814,7 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="G41" t="s">
         <v>858</v>
@@ -8921,7 +8921,7 @@
         <v>9</v>
       </c>
       <c r="G48" s="62" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.15">
@@ -9096,15 +9096,15 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="68" t="s">
-        <v>976</v>
-      </c>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
+      <c r="A65" s="67" t="s">
+        <v>973</v>
+      </c>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
     </row>
     <row r="66" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -9170,7 +9170,7 @@
         <v>544</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>56</v>
@@ -9187,7 +9187,7 @@
         <v>835</v>
       </c>
       <c r="B70" s="55" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>788</v>
@@ -9260,15 +9260,15 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A79" s="68" t="s">
+      <c r="A79" s="67" t="s">
         <v>839</v>
       </c>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="68"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
     </row>
     <row r="80" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -9331,10 +9331,10 @@
     </row>
     <row r="83" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="50" t="s">
+        <v>976</v>
+      </c>
+      <c r="B83" s="55" t="s">
         <v>979</v>
-      </c>
-      <c r="B83" s="55" t="s">
-        <v>982</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>56</v>
@@ -9351,7 +9351,7 @@
         <v>840</v>
       </c>
       <c r="B84" s="55" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>788</v>
@@ -9365,10 +9365,10 @@
     </row>
     <row r="85" spans="1:7" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="50" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>57</v>
@@ -9382,7 +9382,7 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="27" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B86" s="32" t="s">
         <v>846</v>
@@ -9395,15 +9395,15 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A93" s="68" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
+      <c r="A93" s="67" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B93" s="67"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="67"/>
+      <c r="G93" s="67"/>
     </row>
     <row r="94" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
@@ -9433,7 +9433,7 @@
         <v>898</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>962</v>
+        <v>1016</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>891</v>
@@ -9452,7 +9452,7 @@
         <v>899</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>56</v>
@@ -9466,10 +9466,10 @@
     </row>
     <row r="97" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="50" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B97" s="55" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>56</v>
@@ -9483,7 +9483,7 @@
     </row>
     <row r="98" spans="1:7" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="50" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B98" s="55" t="s">
         <v>954</v>
@@ -9534,7 +9534,7 @@
         <v>901</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>957</v>
+        <v>1014</v>
       </c>
       <c r="C101" s="30" t="s">
         <v>83</v>
@@ -9551,7 +9551,7 @@
         <v>902</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C102" s="30" t="s">
         <v>842</v>
@@ -9562,10 +9562,10 @@
     </row>
     <row r="103" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="27" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C103" s="30" t="s">
         <v>843</v>
@@ -9576,10 +9576,10 @@
     </row>
     <row r="104" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="27" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>959</v>
+        <v>1015</v>
       </c>
       <c r="C104" s="30" t="s">
         <v>83</v>
@@ -9596,7 +9596,7 @@
         <v>903</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C105" s="30" t="s">
         <v>242</v>
@@ -9607,13 +9607,13 @@
     </row>
     <row r="106" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="27" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>14</v>
@@ -9621,10 +9621,10 @@
     </row>
     <row r="107" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="27" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C107" s="30" t="s">
         <v>841</v>
@@ -9635,19 +9635,19 @@
     </row>
     <row r="108" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A108" s="27" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C108" s="30" t="s">
+        <v>993</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>994</v>
+      </c>
+      <c r="G108" t="s">
         <v>996</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>997</v>
-      </c>
-      <c r="G108" t="s">
-        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -9684,15 +9684,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -9828,15 +9828,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -10048,15 +10048,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="67" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -10156,15 +10156,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -10382,15 +10382,15 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="68" t="s">
+      <c r="A56" s="67" t="s">
         <v>350</v>
       </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -10680,15 +10680,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>481</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -10820,7 +10820,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -10849,15 +10849,15 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="67" t="s">
         <v>489</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -10978,7 +10978,7 @@
         <v>501</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>113</v>
@@ -11057,15 +11057,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>582</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -11386,15 +11386,15 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="67" t="s">
         <v>577</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -11538,15 +11538,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>587</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -11843,15 +11843,15 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="67" t="s">
         <v>588</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -12021,15 +12021,15 @@
       <c r="G33" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="67" t="s">
         <v>614</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -12324,15 +12324,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>693</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -12460,15 +12460,15 @@
       <c r="G8" s="56"/>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="67" t="s">
         <v>694</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -12585,15 +12585,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="67" t="s">
         <v>665</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
     </row>
     <row r="25" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -12661,7 +12661,7 @@
         <v>660</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>56</v>
@@ -12678,7 +12678,7 @@
         <v>661</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>56</v>
@@ -12712,7 +12712,7 @@
         <v>657</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>56</v>
@@ -12738,15 +12738,15 @@
       <c r="G32" s="48"/>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="67" t="s">
         <v>775</v>
       </c>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
@@ -13048,15 +13048,15 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="68" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
+      <c r="A61" s="67" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
     </row>
     <row r="62" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">

--- a/数据库结构.xlsx
+++ b/数据库结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="8220" windowHeight="6045"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息表" sheetId="1" r:id="rId1"/>
@@ -5920,8 +5920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/ma